--- a/BackTest/2019-11-13 BackTest WOM.xlsx
+++ b/BackTest/2019-11-13 BackTest WOM.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>20</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>5.263157894736842</v>
+      </c>
       <c r="L12" t="n">
         <v>222.3</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>22</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-10</v>
+      </c>
       <c r="L13" t="n">
         <v>222.2</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>22</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-10</v>
+      </c>
       <c r="L14" t="n">
         <v>222</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>23</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-15.78947368421053</v>
+      </c>
       <c r="L15" t="n">
         <v>221.9</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>24</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-5.88235294117647</v>
+      </c>
       <c r="L16" t="n">
         <v>221.5</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>26</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" t="n">
         <v>221.6</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>27</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>5.88235294117647</v>
+      </c>
       <c r="L18" t="n">
         <v>221.5</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>28</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-20</v>
+      </c>
       <c r="L19" t="n">
         <v>221.5</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>28</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-50</v>
+      </c>
       <c r="L20" t="n">
         <v>221.2</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>32</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>16.66666666666666</v>
+      </c>
       <c r="L21" t="n">
         <v>221</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>36</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
       <c r="L22" t="n">
         <v>220.8</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>40</v>
       </c>
       <c r="K23" t="n">
-        <v>7.692307692307693</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L23" t="n">
         <v>221.2</v>
@@ -1466,7 +1488,7 @@
         <v>43</v>
       </c>
       <c r="K24" t="n">
-        <v>-2.439024390243902</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>221.3</v>
@@ -1515,7 +1537,7 @@
         <v>44</v>
       </c>
       <c r="K25" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>221.2</v>
@@ -1564,7 +1586,7 @@
         <v>45</v>
       </c>
       <c r="K26" t="n">
-        <v>-7.317073170731707</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L26" t="n">
         <v>221.3</v>
@@ -1613,7 +1635,7 @@
         <v>46</v>
       </c>
       <c r="K27" t="n">
-        <v>2.564102564102564</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L27" t="n">
         <v>221.3</v>
@@ -1662,7 +1684,7 @@
         <v>48</v>
       </c>
       <c r="K28" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="L28" t="n">
         <v>221.6</v>
@@ -1711,7 +1733,7 @@
         <v>50</v>
       </c>
       <c r="K29" t="n">
-        <v>15</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L29" t="n">
         <v>222.2</v>
@@ -1760,7 +1782,7 @@
         <v>52</v>
       </c>
       <c r="K30" t="n">
-        <v>2.564102564102564</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>222.6</v>
@@ -1809,7 +1831,7 @@
         <v>53</v>
       </c>
       <c r="K31" t="n">
-        <v>-2.702702702702703</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L31" t="n">
         <v>222.7</v>
@@ -1860,7 +1882,7 @@
         <v>54</v>
       </c>
       <c r="K32" t="n">
-        <v>11.76470588235294</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L32" t="n">
         <v>223.3</v>
@@ -1911,7 +1933,7 @@
         <v>55</v>
       </c>
       <c r="K33" t="n">
-        <v>15.15151515151515</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L33" t="n">
         <v>223.4</v>
@@ -1962,7 +1984,7 @@
         <v>59</v>
       </c>
       <c r="K34" t="n">
-        <v>2.702702702702703</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L34" t="n">
         <v>223.4</v>
@@ -2013,7 +2035,7 @@
         <v>60</v>
       </c>
       <c r="K35" t="n">
-        <v>2.702702702702703</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L35" t="n">
         <v>223.6</v>
@@ -2064,7 +2086,7 @@
         <v>62</v>
       </c>
       <c r="K36" t="n">
-        <v>10.52631578947368</v>
+        <v>12.5</v>
       </c>
       <c r="L36" t="n">
         <v>223.9</v>
@@ -2115,7 +2137,7 @@
         <v>65</v>
       </c>
       <c r="K37" t="n">
-        <v>-2.564102564102564</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L37" t="n">
         <v>223.8</v>
@@ -2166,7 +2188,7 @@
         <v>68</v>
       </c>
       <c r="K38" t="n">
-        <v>7.317073170731707</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L38" t="n">
         <v>223.8</v>
@@ -2217,7 +2239,7 @@
         <v>68</v>
       </c>
       <c r="K39" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>223.6</v>
@@ -2268,7 +2290,7 @@
         <v>70</v>
       </c>
       <c r="K40" t="n">
-        <v>4.761904761904762</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L40" t="n">
         <v>223.4</v>
@@ -2319,7 +2341,7 @@
         <v>70</v>
       </c>
       <c r="K41" t="n">
-        <v>-5.263157894736842</v>
+        <v>-25</v>
       </c>
       <c r="L41" t="n">
         <v>223.1</v>
@@ -2370,7 +2392,7 @@
         <v>73</v>
       </c>
       <c r="K42" t="n">
-        <v>13.51351351351351</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>223</v>
@@ -2421,7 +2443,7 @@
         <v>73</v>
       </c>
       <c r="K43" t="n">
-        <v>3.03030303030303</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L43" t="n">
         <v>223</v>
@@ -2472,7 +2494,7 @@
         <v>73</v>
       </c>
       <c r="K44" t="n">
-        <v>13.33333333333333</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L44" t="n">
         <v>223.4</v>
@@ -2523,7 +2545,7 @@
         <v>74</v>
       </c>
       <c r="K45" t="n">
-        <v>13.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>223.6</v>
@@ -2574,7 +2596,7 @@
         <v>75</v>
       </c>
       <c r="K46" t="n">
-        <v>13.33333333333333</v>
+        <v>40</v>
       </c>
       <c r="L46" t="n">
         <v>223.7</v>
@@ -2625,7 +2647,7 @@
         <v>75</v>
       </c>
       <c r="K47" t="n">
-        <v>10.3448275862069</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L47" t="n">
         <v>224.1</v>
@@ -2676,7 +2698,7 @@
         <v>78</v>
       </c>
       <c r="K48" t="n">
-        <v>-6.666666666666667</v>
+        <v>-20</v>
       </c>
       <c r="L48" t="n">
         <v>223.9</v>
@@ -2727,7 +2749,7 @@
         <v>81</v>
       </c>
       <c r="K49" t="n">
-        <v>-3.225806451612903</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L49" t="n">
         <v>224</v>
@@ -2778,7 +2800,7 @@
         <v>81</v>
       </c>
       <c r="K50" t="n">
-        <v>3.448275862068965</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L50" t="n">
         <v>224.3</v>
@@ -2829,7 +2851,7 @@
         <v>83</v>
       </c>
       <c r="K51" t="n">
-        <v>-6.666666666666667</v>
+        <v>-20</v>
       </c>
       <c r="L51" t="n">
         <v>224.4</v>
@@ -2880,7 +2902,7 @@
         <v>85</v>
       </c>
       <c r="K52" t="n">
-        <v>-3.225806451612903</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>224.4</v>
@@ -2982,7 +3004,7 @@
         <v>85</v>
       </c>
       <c r="K54" t="n">
-        <v>15.38461538461539</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L54" t="n">
         <v>224.4</v>
@@ -3033,7 +3055,7 @@
         <v>85</v>
       </c>
       <c r="K55" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>224.5</v>
@@ -3084,7 +3106,7 @@
         <v>86</v>
       </c>
       <c r="K56" t="n">
-        <v>8.333333333333332</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L56" t="n">
         <v>224.6</v>
@@ -3135,7 +3157,7 @@
         <v>86</v>
       </c>
       <c r="K57" t="n">
-        <v>23.80952380952381</v>
+        <v>50</v>
       </c>
       <c r="L57" t="n">
         <v>224.7</v>
@@ -3186,7 +3208,7 @@
         <v>87</v>
       </c>
       <c r="K58" t="n">
-        <v>15.78947368421053</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L58" t="n">
         <v>225.2</v>
@@ -3237,7 +3259,7 @@
         <v>88</v>
       </c>
       <c r="K59" t="n">
-        <v>20</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L59" t="n">
         <v>225.5</v>
@@ -3288,7 +3310,7 @@
         <v>89</v>
       </c>
       <c r="K60" t="n">
-        <v>36.84210526315789</v>
+        <v>100</v>
       </c>
       <c r="L60" t="n">
         <v>225.9</v>
@@ -3339,7 +3361,7 @@
         <v>90</v>
       </c>
       <c r="K61" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L61" t="n">
         <v>226.4</v>
@@ -3390,7 +3412,7 @@
         <v>90</v>
       </c>
       <c r="K62" t="n">
-        <v>17.64705882352941</v>
+        <v>60</v>
       </c>
       <c r="L62" t="n">
         <v>226.7</v>
@@ -3543,7 +3565,7 @@
         <v>93</v>
       </c>
       <c r="K65" t="n">
-        <v>5.263157894736842</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L65" t="n">
         <v>226.7</v>
@@ -3594,7 +3616,7 @@
         <v>93</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L66" t="n">
         <v>226.6</v>
@@ -3645,7 +3667,7 @@
         <v>95</v>
       </c>
       <c r="K67" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>226.7</v>
@@ -3696,7 +3718,7 @@
         <v>96</v>
       </c>
       <c r="K68" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
         <v>226.8</v>
@@ -3747,7 +3769,7 @@
         <v>97</v>
       </c>
       <c r="K69" t="n">
-        <v>12.5</v>
+        <v>-25</v>
       </c>
       <c r="L69" t="n">
         <v>226.7</v>
@@ -3798,7 +3820,7 @@
         <v>97</v>
       </c>
       <c r="K70" t="n">
-        <v>12.5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L70" t="n">
         <v>226.5</v>
@@ -3849,7 +3871,7 @@
         <v>98</v>
       </c>
       <c r="K71" t="n">
-        <v>20</v>
+        <v>-25</v>
       </c>
       <c r="L71" t="n">
         <v>226.3</v>
@@ -3900,7 +3922,7 @@
         <v>100</v>
       </c>
       <c r="K72" t="n">
-        <v>-6.666666666666667</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L72" t="n">
         <v>225.9</v>
@@ -4002,7 +4024,7 @@
         <v>104</v>
       </c>
       <c r="K74" t="n">
-        <v>15.78947368421053</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L74" t="n">
         <v>226.2</v>
@@ -4053,7 +4075,7 @@
         <v>104</v>
       </c>
       <c r="K75" t="n">
-        <v>15.78947368421053</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L75" t="n">
         <v>226.5</v>
@@ -4104,7 +4126,7 @@
         <v>105</v>
       </c>
       <c r="K76" t="n">
-        <v>5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
         <v>226.7</v>
@@ -4155,7 +4177,7 @@
         <v>107</v>
       </c>
       <c r="K77" t="n">
-        <v>-4.761904761904762</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L77" t="n">
         <v>226.5</v>
@@ -4206,7 +4228,7 @@
         <v>108</v>
       </c>
       <c r="K78" t="n">
-        <v>-14.28571428571428</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L78" t="n">
         <v>226.1</v>
@@ -4257,7 +4279,7 @@
         <v>108</v>
       </c>
       <c r="K79" t="n">
-        <v>-20</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L79" t="n">
         <v>225.8</v>
@@ -4308,7 +4330,7 @@
         <v>108</v>
       </c>
       <c r="K80" t="n">
-        <v>-26.31578947368421</v>
+        <v>-20</v>
       </c>
       <c r="L80" t="n">
         <v>225.5</v>
@@ -4359,7 +4381,7 @@
         <v>108</v>
       </c>
       <c r="K81" t="n">
-        <v>-22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>225.3</v>
@@ -4410,7 +4432,7 @@
         <v>109</v>
       </c>
       <c r="K82" t="n">
-        <v>-26.31578947368421</v>
+        <v>-25</v>
       </c>
       <c r="L82" t="n">
         <v>225.2</v>
@@ -4461,7 +4483,7 @@
         <v>112</v>
       </c>
       <c r="K83" t="n">
-        <v>-26.31578947368421</v>
+        <v>-100</v>
       </c>
       <c r="L83" t="n">
         <v>224.7</v>
@@ -4512,7 +4534,7 @@
         <v>112</v>
       </c>
       <c r="K84" t="n">
-        <v>-26.31578947368421</v>
+        <v>-100</v>
       </c>
       <c r="L84" t="n">
         <v>223.9</v>
@@ -4563,7 +4585,7 @@
         <v>115</v>
       </c>
       <c r="K85" t="n">
-        <v>-9.090909090909092</v>
+        <v>-40</v>
       </c>
       <c r="L85" t="n">
         <v>223.4</v>
@@ -4614,7 +4636,7 @@
         <v>115</v>
       </c>
       <c r="K86" t="n">
-        <v>-9.090909090909092</v>
+        <v>-25</v>
       </c>
       <c r="L86" t="n">
         <v>223</v>
@@ -4665,7 +4687,7 @@
         <v>116</v>
       </c>
       <c r="K87" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
         <v>222.9</v>
@@ -4716,7 +4738,7 @@
         <v>119</v>
       </c>
       <c r="K88" t="n">
-        <v>-4.347826086956522</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L88" t="n">
         <v>223.2</v>
@@ -4767,7 +4789,7 @@
         <v>120</v>
       </c>
       <c r="K89" t="n">
-        <v>4.347826086956522</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L89" t="n">
         <v>223.6</v>
@@ -4818,7 +4840,7 @@
         <v>120</v>
       </c>
       <c r="K90" t="n">
-        <v>4.347826086956522</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L90" t="n">
         <v>224</v>
@@ -4869,7 +4891,7 @@
         <v>120</v>
       </c>
       <c r="K91" t="n">
-        <v>9.090909090909092</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L91" t="n">
         <v>224.4</v>
@@ -4920,7 +4942,7 @@
         <v>125</v>
       </c>
       <c r="K92" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="L92" t="n">
         <v>225.4</v>
@@ -4971,7 +4993,7 @@
         <v>129</v>
       </c>
       <c r="K93" t="n">
-        <v>42.85714285714285</v>
+        <v>100</v>
       </c>
       <c r="L93" t="n">
         <v>227.1</v>
@@ -5022,7 +5044,7 @@
         <v>130</v>
       </c>
       <c r="K94" t="n">
-        <v>30.76923076923077</v>
+        <v>86.66666666666667</v>
       </c>
       <c r="L94" t="n">
         <v>228.7</v>
@@ -5073,7 +5095,7 @@
         <v>132</v>
       </c>
       <c r="K95" t="n">
-        <v>35.71428571428572</v>
+        <v>88.23529411764706</v>
       </c>
       <c r="L95" t="n">
         <v>230.2</v>
@@ -5124,7 +5146,7 @@
         <v>133</v>
       </c>
       <c r="K96" t="n">
-        <v>42.85714285714285</v>
+        <v>88.23529411764706</v>
       </c>
       <c r="L96" t="n">
         <v>231.8</v>
@@ -5175,7 +5197,7 @@
         <v>134</v>
       </c>
       <c r="K97" t="n">
-        <v>48.14814814814815</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L97" t="n">
         <v>233.2</v>
@@ -5226,7 +5248,7 @@
         <v>135</v>
       </c>
       <c r="K98" t="n">
-        <v>55.55555555555556</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L98" t="n">
         <v>234.4</v>
@@ -5277,7 +5299,7 @@
         <v>141</v>
       </c>
       <c r="K99" t="n">
-        <v>63.63636363636363</v>
+        <v>80.95238095238095</v>
       </c>
       <c r="L99" t="n">
         <v>236.1</v>
@@ -5328,7 +5350,7 @@
         <v>148</v>
       </c>
       <c r="K100" t="n">
-        <v>70</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="L100" t="n">
         <v>238.5</v>
@@ -5379,7 +5401,7 @@
         <v>148</v>
       </c>
       <c r="K101" t="n">
-        <v>70</v>
+        <v>82.60869565217391</v>
       </c>
       <c r="L101" t="n">
         <v>240.9</v>
@@ -5430,7 +5452,7 @@
         <v>151</v>
       </c>
       <c r="K102" t="n">
-        <v>61.90476190476191</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="L102" t="n">
         <v>242.5</v>
@@ -5481,7 +5503,7 @@
         <v>152</v>
       </c>
       <c r="K103" t="n">
-        <v>70</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="L103" t="n">
         <v>243.6</v>
@@ -5532,7 +5554,7 @@
         <v>152</v>
       </c>
       <c r="K104" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="L104" t="n">
         <v>244.8</v>
@@ -5583,7 +5605,7 @@
         <v>153</v>
       </c>
       <c r="K105" t="n">
-        <v>63.1578947368421</v>
+        <v>40</v>
       </c>
       <c r="L105" t="n">
         <v>245.7</v>
@@ -5634,7 +5656,7 @@
         <v>155</v>
       </c>
       <c r="K106" t="n">
-        <v>55.00000000000001</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L106" t="n">
         <v>246.3</v>
@@ -5685,7 +5707,7 @@
         <v>155</v>
       </c>
       <c r="K107" t="n">
-        <v>53.84615384615385</v>
+        <v>30</v>
       </c>
       <c r="L107" t="n">
         <v>247</v>
@@ -5736,7 +5758,7 @@
         <v>155</v>
       </c>
       <c r="K108" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
         <v>247.6</v>
@@ -5787,7 +5809,7 @@
         <v>155</v>
       </c>
       <c r="K109" t="n">
-        <v>48.57142857142857</v>
+        <v>-100</v>
       </c>
       <c r="L109" t="n">
         <v>247.6</v>
@@ -5838,7 +5860,7 @@
         <v>157</v>
       </c>
       <c r="K110" t="n">
-        <v>51.35135135135135</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L110" t="n">
         <v>247.1</v>
@@ -5889,7 +5911,7 @@
         <v>157</v>
       </c>
       <c r="K111" t="n">
-        <v>51.35135135135135</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L111" t="n">
         <v>246.6</v>
@@ -5940,7 +5962,7 @@
         <v>157</v>
       </c>
       <c r="K112" t="n">
-        <v>43.75</v>
+        <v>-20</v>
       </c>
       <c r="L112" t="n">
         <v>246.4</v>
@@ -5991,7 +6013,7 @@
         <v>158</v>
       </c>
       <c r="K113" t="n">
-        <v>37.93103448275862</v>
+        <v>0</v>
       </c>
       <c r="L113" t="n">
         <v>246.4</v>
@@ -6042,7 +6064,7 @@
         <v>158</v>
       </c>
       <c r="K114" t="n">
-        <v>42.85714285714285</v>
+        <v>20</v>
       </c>
       <c r="L114" t="n">
         <v>246.4</v>
@@ -6093,7 +6115,7 @@
         <v>158</v>
       </c>
       <c r="K115" t="n">
-        <v>38.46153846153847</v>
+        <v>100</v>
       </c>
       <c r="L115" t="n">
         <v>246.5</v>
@@ -6144,7 +6166,7 @@
         <v>158</v>
       </c>
       <c r="K116" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="L116" t="n">
         <v>246.8</v>
@@ -6195,7 +6217,7 @@
         <v>158</v>
       </c>
       <c r="K117" t="n">
-        <v>41.66666666666667</v>
+        <v>100</v>
       </c>
       <c r="L117" t="n">
         <v>247.1</v>
@@ -6246,7 +6268,7 @@
         <v>163</v>
       </c>
       <c r="K118" t="n">
-        <v>14.28571428571428</v>
+        <v>-25</v>
       </c>
       <c r="L118" t="n">
         <v>246.9</v>
@@ -6297,7 +6319,7 @@
         <v>166</v>
       </c>
       <c r="K119" t="n">
-        <v>4</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L119" t="n">
         <v>247</v>
@@ -6348,7 +6370,7 @@
         <v>171</v>
       </c>
       <c r="K120" t="n">
-        <v>-47.82608695652174</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L120" t="n">
         <v>246.4</v>
@@ -6399,7 +6421,7 @@
         <v>171</v>
       </c>
       <c r="K121" t="n">
-        <v>-47.82608695652174</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L121" t="n">
         <v>245.8</v>
@@ -6450,7 +6472,7 @@
         <v>173</v>
       </c>
       <c r="K122" t="n">
-        <v>-45.45454545454545</v>
+        <v>-60</v>
       </c>
       <c r="L122" t="n">
         <v>245</v>
@@ -6501,7 +6523,7 @@
         <v>174</v>
       </c>
       <c r="K123" t="n">
-        <v>-45.45454545454545</v>
+        <v>-62.5</v>
       </c>
       <c r="L123" t="n">
         <v>244</v>
@@ -6552,7 +6574,7 @@
         <v>176</v>
       </c>
       <c r="K124" t="n">
-        <v>-50</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L124" t="n">
         <v>242.8</v>
@@ -6603,7 +6625,7 @@
         <v>177</v>
       </c>
       <c r="K125" t="n">
-        <v>-41.66666666666667</v>
+        <v>-57.89473684210527</v>
       </c>
       <c r="L125" t="n">
         <v>241.7</v>
@@ -6654,7 +6676,7 @@
         <v>177</v>
       </c>
       <c r="K126" t="n">
-        <v>-36.36363636363637</v>
+        <v>-57.89473684210527</v>
       </c>
       <c r="L126" t="n">
         <v>240.6</v>
@@ -6705,7 +6727,7 @@
         <v>178</v>
       </c>
       <c r="K127" t="n">
-        <v>-39.1304347826087</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L127" t="n">
         <v>239.4</v>
@@ -6756,7 +6778,7 @@
         <v>181</v>
       </c>
       <c r="K128" t="n">
-        <v>-46.15384615384615</v>
+        <v>-86.66666666666667</v>
       </c>
       <c r="L128" t="n">
         <v>238.4</v>
@@ -6807,7 +6829,7 @@
         <v>181</v>
       </c>
       <c r="K129" t="n">
-        <v>-46.15384615384615</v>
+        <v>-80</v>
       </c>
       <c r="L129" t="n">
         <v>237.1</v>
@@ -6858,7 +6880,7 @@
         <v>181</v>
       </c>
       <c r="K130" t="n">
-        <v>-58.33333333333334</v>
+        <v>-80</v>
       </c>
       <c r="L130" t="n">
         <v>236.3</v>
@@ -6909,7 +6931,7 @@
         <v>181</v>
       </c>
       <c r="K131" t="n">
-        <v>-58.33333333333334</v>
+        <v>-75</v>
       </c>
       <c r="L131" t="n">
         <v>235.5</v>
@@ -6960,7 +6982,7 @@
         <v>184</v>
       </c>
       <c r="K132" t="n">
-        <v>-40.74074074074074</v>
+        <v>-20</v>
       </c>
       <c r="L132" t="n">
         <v>235.2</v>
@@ -7011,7 +7033,7 @@
         <v>187</v>
       </c>
       <c r="K133" t="n">
-        <v>-51.72413793103448</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L133" t="n">
         <v>234.7</v>
@@ -7062,7 +7084,7 @@
         <v>188</v>
       </c>
       <c r="K134" t="n">
-        <v>-46.66666666666666</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L134" t="n">
         <v>234.5</v>
@@ -7113,7 +7135,7 @@
         <v>188</v>
       </c>
       <c r="K135" t="n">
-        <v>-46.66666666666666</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L135" t="n">
         <v>234.2</v>
@@ -7164,7 +7186,7 @@
         <v>189</v>
       </c>
       <c r="K136" t="n">
-        <v>-41.93548387096774</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L136" t="n">
         <v>234</v>
@@ -7215,7 +7237,7 @@
         <v>190</v>
       </c>
       <c r="K137" t="n">
-        <v>-43.75</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L137" t="n">
         <v>233.8</v>
@@ -7266,7 +7288,7 @@
         <v>191</v>
       </c>
       <c r="K138" t="n">
-        <v>-35.71428571428572</v>
+        <v>0</v>
       </c>
       <c r="L138" t="n">
         <v>233.8</v>
@@ -7317,7 +7339,7 @@
         <v>191</v>
       </c>
       <c r="K139" t="n">
-        <v>-52</v>
+        <v>0</v>
       </c>
       <c r="L139" t="n">
         <v>233.8</v>
@@ -7368,7 +7390,7 @@
         <v>192</v>
       </c>
       <c r="K140" t="n">
-        <v>-42.85714285714285</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L140" t="n">
         <v>233.7</v>
@@ -7419,7 +7441,7 @@
         <v>192</v>
       </c>
       <c r="K141" t="n">
-        <v>-42.85714285714285</v>
+        <v>-50</v>
       </c>
       <c r="L141" t="n">
         <v>233.6</v>
@@ -7470,7 +7492,7 @@
         <v>194</v>
       </c>
       <c r="K142" t="n">
-        <v>-23.80952380952381</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L142" t="n">
         <v>233.4</v>
@@ -7521,7 +7543,7 @@
         <v>196</v>
       </c>
       <c r="K143" t="n">
-        <v>-27.27272727272727</v>
+        <v>-25</v>
       </c>
       <c r="L143" t="n">
         <v>233.3</v>
@@ -7572,7 +7594,7 @@
         <v>196</v>
       </c>
       <c r="K144" t="n">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="L144" t="n">
         <v>233.1</v>
@@ -7623,7 +7645,7 @@
         <v>196</v>
       </c>
       <c r="K145" t="n">
-        <v>-26.31578947368421</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L145" t="n">
         <v>232.9</v>
@@ -7674,7 +7696,7 @@
         <v>197</v>
       </c>
       <c r="K146" t="n">
-        <v>-20</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L146" t="n">
         <v>232.7</v>
@@ -7725,7 +7747,7 @@
         <v>198</v>
       </c>
       <c r="K147" t="n">
-        <v>-20</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L147" t="n">
         <v>232.5</v>
@@ -7776,7 +7798,7 @@
         <v>201</v>
       </c>
       <c r="K148" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L148" t="n">
         <v>232.7</v>
@@ -7827,7 +7849,7 @@
         <v>204</v>
       </c>
       <c r="K149" t="n">
-        <v>-4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L149" t="n">
         <v>232.6</v>
@@ -7878,7 +7900,7 @@
         <v>207</v>
       </c>
       <c r="K150" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L150" t="n">
         <v>232.9</v>
@@ -7929,7 +7951,7 @@
         <v>210</v>
       </c>
       <c r="K151" t="n">
-        <v>-3.448275862068965</v>
+        <v>-12.5</v>
       </c>
       <c r="L151" t="n">
         <v>232.9</v>
@@ -7980,7 +8002,7 @@
         <v>211</v>
       </c>
       <c r="K152" t="n">
-        <v>-18.51851851851852</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L152" t="n">
         <v>232.6</v>
@@ -8031,7 +8053,7 @@
         <v>212</v>
       </c>
       <c r="K153" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="L153" t="n">
         <v>232.6</v>
@@ -8082,7 +8104,7 @@
         <v>214</v>
       </c>
       <c r="K154" t="n">
-        <v>-15.38461538461539</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L154" t="n">
         <v>232.4</v>
@@ -8133,7 +8155,7 @@
         <v>215</v>
       </c>
       <c r="K155" t="n">
-        <v>-18.51851851851852</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L155" t="n">
         <v>232.1</v>
@@ -8184,7 +8206,7 @@
         <v>215</v>
       </c>
       <c r="K156" t="n">
-        <v>-23.07692307692308</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L156" t="n">
         <v>231.7</v>
@@ -8235,7 +8257,7 @@
         <v>216</v>
       </c>
       <c r="K157" t="n">
-        <v>-23.07692307692308</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L157" t="n">
         <v>231.3</v>
@@ -8286,7 +8308,7 @@
         <v>216</v>
       </c>
       <c r="K158" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L158" t="n">
         <v>230.6</v>
@@ -8337,7 +8359,7 @@
         <v>216</v>
       </c>
       <c r="K159" t="n">
-        <v>-20</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L159" t="n">
         <v>230.2</v>
@@ -8388,7 +8410,7 @@
         <v>216</v>
       </c>
       <c r="K160" t="n">
-        <v>-16.66666666666666</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L160" t="n">
         <v>229.5</v>
@@ -8439,7 +8461,7 @@
         <v>217</v>
       </c>
       <c r="K161" t="n">
-        <v>-12</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L161" t="n">
         <v>229.2</v>
@@ -8490,7 +8512,7 @@
         <v>217</v>
       </c>
       <c r="K162" t="n">
-        <v>-21.73913043478261</v>
+        <v>-60</v>
       </c>
       <c r="L162" t="n">
         <v>229</v>
@@ -8541,7 +8563,7 @@
         <v>218</v>
       </c>
       <c r="K163" t="n">
-        <v>-18.18181818181818</v>
+        <v>-50</v>
       </c>
       <c r="L163" t="n">
         <v>228.6</v>
@@ -8592,7 +8614,7 @@
         <v>218</v>
       </c>
       <c r="K164" t="n">
-        <v>-18.18181818181818</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L164" t="n">
         <v>228.4</v>
@@ -8643,7 +8665,7 @@
         <v>220</v>
       </c>
       <c r="K165" t="n">
-        <v>-25</v>
+        <v>-60</v>
       </c>
       <c r="L165" t="n">
         <v>228.1</v>
@@ -8694,7 +8716,7 @@
         <v>220</v>
       </c>
       <c r="K166" t="n">
-        <v>-30.43478260869566</v>
+        <v>-50</v>
       </c>
       <c r="L166" t="n">
         <v>227.8</v>
@@ -8745,7 +8767,7 @@
         <v>220</v>
       </c>
       <c r="K167" t="n">
-        <v>-27.27272727272727</v>
+        <v>-50</v>
       </c>
       <c r="L167" t="n">
         <v>227.6</v>
@@ -8796,7 +8818,7 @@
         <v>224</v>
       </c>
       <c r="K168" t="n">
-        <v>-21.73913043478261</v>
+        <v>25</v>
       </c>
       <c r="L168" t="n">
         <v>227.8</v>
@@ -8847,7 +8869,7 @@
         <v>228</v>
       </c>
       <c r="K169" t="n">
-        <v>8.333333333333332</v>
+        <v>50</v>
       </c>
       <c r="L169" t="n">
         <v>228.4</v>
@@ -8898,7 +8920,7 @@
         <v>229</v>
       </c>
       <c r="K170" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L170" t="n">
         <v>229.1</v>
@@ -8949,7 +8971,7 @@
         <v>233</v>
       </c>
       <c r="K171" t="n">
-        <v>-4.347826086956522</v>
+        <v>12.5</v>
       </c>
       <c r="L171" t="n">
         <v>229.3</v>
@@ -9000,7 +9022,7 @@
         <v>237</v>
       </c>
       <c r="K172" t="n">
-        <v>15.38461538461539</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L172" t="n">
         <v>229.9</v>
@@ -9051,7 +9073,7 @@
         <v>237</v>
       </c>
       <c r="K173" t="n">
-        <v>12</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L173" t="n">
         <v>230.6</v>
@@ -9102,7 +9124,7 @@
         <v>237</v>
       </c>
       <c r="K174" t="n">
-        <v>21.73913043478261</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L174" t="n">
         <v>231.3</v>
@@ -9153,7 +9175,7 @@
         <v>237</v>
       </c>
       <c r="K175" t="n">
-        <v>27.27272727272727</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L175" t="n">
         <v>232.2</v>
@@ -9204,7 +9226,7 @@
         <v>237</v>
       </c>
       <c r="K176" t="n">
-        <v>27.27272727272727</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L176" t="n">
         <v>233.1</v>
@@ -9255,7 +9277,7 @@
         <v>237</v>
       </c>
       <c r="K177" t="n">
-        <v>33.33333333333333</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L177" t="n">
         <v>234</v>
@@ -9306,7 +9328,7 @@
         <v>237</v>
       </c>
       <c r="K178" t="n">
-        <v>33.33333333333333</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L178" t="n">
         <v>234.5</v>
@@ -9357,7 +9379,7 @@
         <v>237</v>
       </c>
       <c r="K179" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L179" t="n">
         <v>234.6</v>
@@ -9408,7 +9430,7 @@
         <v>238</v>
       </c>
       <c r="K180" t="n">
-        <v>27.27272727272727</v>
+        <v>60</v>
       </c>
       <c r="L180" t="n">
         <v>234.5</v>
@@ -9459,7 +9481,7 @@
         <v>238</v>
       </c>
       <c r="K181" t="n">
-        <v>23.80952380952381</v>
+        <v>-100</v>
       </c>
       <c r="L181" t="n">
         <v>234.8</v>
@@ -9510,7 +9532,7 @@
         <v>239</v>
       </c>
       <c r="K182" t="n">
-        <v>27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L182" t="n">
         <v>234.8</v>
@@ -9561,7 +9583,7 @@
         <v>240</v>
       </c>
       <c r="K183" t="n">
-        <v>27.27272727272727</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L183" t="n">
         <v>234.7</v>
@@ -9612,7 +9634,7 @@
         <v>240</v>
       </c>
       <c r="K184" t="n">
-        <v>27.27272727272727</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L184" t="n">
         <v>234.6</v>
@@ -9663,7 +9685,7 @@
         <v>242</v>
       </c>
       <c r="K185" t="n">
-        <v>27.27272727272727</v>
+        <v>-60</v>
       </c>
       <c r="L185" t="n">
         <v>234.3</v>
@@ -9714,7 +9736,7 @@
         <v>244</v>
       </c>
       <c r="K186" t="n">
-        <v>16.66666666666666</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L186" t="n">
         <v>233.8</v>
@@ -9765,7 +9787,7 @@
         <v>247</v>
       </c>
       <c r="K187" t="n">
-        <v>25.92592592592592</v>
+        <v>-20</v>
       </c>
       <c r="L187" t="n">
         <v>233.6</v>
@@ -9816,7 +9838,7 @@
         <v>248</v>
       </c>
       <c r="K188" t="n">
-        <v>16.66666666666666</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L188" t="n">
         <v>233.5</v>
@@ -9918,7 +9940,7 @@
         <v>249</v>
       </c>
       <c r="K190" t="n">
-        <v>-10</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L190" t="n">
         <v>233.3</v>
@@ -9969,7 +9991,7 @@
         <v>250</v>
       </c>
       <c r="K191" t="n">
-        <v>5.88235294117647</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L191" t="n">
         <v>233.1</v>
@@ -10020,7 +10042,7 @@
         <v>250</v>
       </c>
       <c r="K192" t="n">
-        <v>-23.07692307692308</v>
+        <v>-20</v>
       </c>
       <c r="L192" t="n">
         <v>232.8</v>
@@ -10071,7 +10093,7 @@
         <v>252</v>
       </c>
       <c r="K193" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L193" t="n">
         <v>232.8</v>
@@ -10122,7 +10144,7 @@
         <v>252</v>
       </c>
       <c r="K194" t="n">
-        <v>-6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="L194" t="n">
         <v>232.8</v>
@@ -10173,7 +10195,7 @@
         <v>253</v>
       </c>
       <c r="K195" t="n">
-        <v>-12.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L195" t="n">
         <v>232.9</v>
@@ -10224,7 +10246,7 @@
         <v>253</v>
       </c>
       <c r="K196" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L196" t="n">
         <v>233.2</v>
@@ -10275,7 +10297,7 @@
         <v>254</v>
       </c>
       <c r="K197" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L197" t="n">
         <v>233.3</v>
@@ -10326,7 +10348,7 @@
         <v>260</v>
       </c>
       <c r="K198" t="n">
-        <v>-30.43478260869566</v>
+        <v>-50</v>
       </c>
       <c r="L198" t="n">
         <v>232.7</v>
@@ -10377,7 +10399,7 @@
         <v>265</v>
       </c>
       <c r="K199" t="n">
-        <v>-7.142857142857142</v>
+        <v>0</v>
       </c>
       <c r="L199" t="n">
         <v>232.6</v>
@@ -10428,7 +10450,7 @@
         <v>266</v>
       </c>
       <c r="K200" t="n">
-        <v>-7.142857142857142</v>
+        <v>0</v>
       </c>
       <c r="L200" t="n">
         <v>232.5</v>
@@ -10479,7 +10501,7 @@
         <v>270</v>
       </c>
       <c r="K201" t="n">
-        <v>-18.75</v>
+        <v>-20</v>
       </c>
       <c r="L201" t="n">
         <v>232.1</v>
@@ -10530,7 +10552,7 @@
         <v>274</v>
       </c>
       <c r="K202" t="n">
-        <v>-8.571428571428571</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L202" t="n">
         <v>232.1</v>
@@ -10581,7 +10603,7 @@
         <v>276</v>
       </c>
       <c r="K203" t="n">
-        <v>-11.11111111111111</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L203" t="n">
         <v>231.7</v>
@@ -10632,7 +10654,7 @@
         <v>276</v>
       </c>
       <c r="K204" t="n">
-        <v>-11.11111111111111</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L204" t="n">
         <v>231.3</v>
@@ -10683,7 +10705,7 @@
         <v>277</v>
       </c>
       <c r="K205" t="n">
-        <v>-2.857142857142857</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L205" t="n">
         <v>231.1</v>
@@ -10734,7 +10756,7 @@
         <v>277</v>
       </c>
       <c r="K206" t="n">
-        <v>3.03030303030303</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L206" t="n">
         <v>230.9</v>
@@ -10785,7 +10807,7 @@
         <v>277</v>
       </c>
       <c r="K207" t="n">
-        <v>-6.666666666666667</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L207" t="n">
         <v>230.6</v>
@@ -10836,7 +10858,7 @@
         <v>277</v>
       </c>
       <c r="K208" t="n">
-        <v>-10.3448275862069</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L208" t="n">
         <v>230.9</v>
@@ -10887,7 +10909,7 @@
         <v>279</v>
       </c>
       <c r="K209" t="n">
-        <v>-3.225806451612903</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L209" t="n">
         <v>230.9</v>
@@ -10938,7 +10960,7 @@
         <v>280</v>
       </c>
       <c r="K210" t="n">
-        <v>3.225806451612903</v>
+        <v>60</v>
       </c>
       <c r="L210" t="n">
         <v>231.1</v>
@@ -10989,7 +11011,7 @@
         <v>280</v>
       </c>
       <c r="K211" t="n">
-        <v>6.666666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L211" t="n">
         <v>231.7</v>
@@ -11040,7 +11062,7 @@
         <v>280</v>
       </c>
       <c r="K212" t="n">
-        <v>6.666666666666667</v>
+        <v>100</v>
       </c>
       <c r="L212" t="n">
         <v>231.9</v>
@@ -11091,7 +11113,7 @@
         <v>280</v>
       </c>
       <c r="K213" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L213" t="n">
         <v>232.3</v>
@@ -11142,7 +11164,7 @@
         <v>281</v>
       </c>
       <c r="K214" t="n">
-        <v>3.448275862068965</v>
+        <v>100</v>
       </c>
       <c r="L214" t="n">
         <v>232.8</v>
@@ -11193,7 +11215,7 @@
         <v>283</v>
       </c>
       <c r="K215" t="n">
-        <v>13.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L215" t="n">
         <v>233.4</v>
@@ -11244,7 +11266,7 @@
         <v>285</v>
       </c>
       <c r="K216" t="n">
-        <v>6.25</v>
+        <v>50</v>
       </c>
       <c r="L216" t="n">
         <v>233.8</v>
@@ -11295,7 +11317,7 @@
         <v>288</v>
       </c>
       <c r="K217" t="n">
-        <v>11.76470588235294</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L217" t="n">
         <v>234.5</v>
@@ -11346,7 +11368,7 @@
         <v>290</v>
       </c>
       <c r="K218" t="n">
-        <v>40</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L218" t="n">
         <v>235.4</v>
@@ -11397,7 +11419,7 @@
         <v>290</v>
       </c>
       <c r="K219" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="L219" t="n">
         <v>236.1</v>
@@ -11448,7 +11470,7 @@
         <v>290</v>
       </c>
       <c r="K220" t="n">
-        <v>33.33333333333333</v>
+        <v>60</v>
       </c>
       <c r="L220" t="n">
         <v>236.7</v>
@@ -11550,7 +11572,7 @@
         <v>292</v>
       </c>
       <c r="K222" t="n">
-        <v>55.55555555555556</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L222" t="n">
         <v>238.1</v>
@@ -11601,7 +11623,7 @@
         <v>292</v>
       </c>
       <c r="K223" t="n">
-        <v>75</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L223" t="n">
         <v>238.9</v>
@@ -11652,7 +11674,7 @@
         <v>292</v>
       </c>
       <c r="K224" t="n">
-        <v>75</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L224" t="n">
         <v>239.6</v>
@@ -11703,7 +11725,7 @@
         <v>294</v>
       </c>
       <c r="K225" t="n">
-        <v>76.47058823529412</v>
+        <v>100</v>
       </c>
       <c r="L225" t="n">
         <v>240.3</v>
@@ -11754,7 +11776,7 @@
         <v>295</v>
       </c>
       <c r="K226" t="n">
-        <v>66.66666666666666</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L226" t="n">
         <v>241.1</v>
@@ -11805,7 +11827,7 @@
         <v>296</v>
       </c>
       <c r="K227" t="n">
-        <v>68.42105263157895</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L227" t="n">
         <v>241.7</v>
@@ -11856,7 +11878,7 @@
         <v>297</v>
       </c>
       <c r="K228" t="n">
-        <v>60</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L228" t="n">
         <v>242</v>
@@ -11907,7 +11929,7 @@
         <v>297</v>
       </c>
       <c r="K229" t="n">
-        <v>55.55555555555556</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L229" t="n">
         <v>242.3</v>
@@ -11958,7 +11980,7 @@
         <v>297</v>
       </c>
       <c r="K230" t="n">
-        <v>52.94117647058824</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L230" t="n">
         <v>242.6</v>
@@ -12009,7 +12031,7 @@
         <v>298</v>
       </c>
       <c r="K231" t="n">
-        <v>44.44444444444444</v>
+        <v>0</v>
       </c>
       <c r="L231" t="n">
         <v>242.8</v>
@@ -12060,7 +12082,7 @@
         <v>298</v>
       </c>
       <c r="K232" t="n">
-        <v>44.44444444444444</v>
+        <v>0</v>
       </c>
       <c r="L232" t="n">
         <v>242.8</v>
@@ -12111,7 +12133,7 @@
         <v>299</v>
       </c>
       <c r="K233" t="n">
-        <v>36.84210526315789</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L233" t="n">
         <v>242.7</v>
@@ -12162,7 +12184,7 @@
         <v>300</v>
       </c>
       <c r="K234" t="n">
-        <v>36.84210526315789</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L234" t="n">
         <v>242.7</v>
@@ -12213,7 +12235,7 @@
         <v>301</v>
       </c>
       <c r="K235" t="n">
-        <v>22.22222222222222</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L235" t="n">
         <v>242.4</v>
@@ -12264,7 +12286,7 @@
         <v>302</v>
       </c>
       <c r="K236" t="n">
-        <v>29.41176470588236</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L236" t="n">
         <v>242.1</v>
@@ -12315,7 +12337,7 @@
         <v>303</v>
       </c>
       <c r="K237" t="n">
-        <v>6.666666666666667</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L237" t="n">
         <v>241.6</v>
@@ -12366,7 +12388,7 @@
         <v>303</v>
       </c>
       <c r="K238" t="n">
-        <v>-7.692307692307693</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L238" t="n">
         <v>241.2</v>
@@ -12417,7 +12439,7 @@
         <v>304</v>
       </c>
       <c r="K239" t="n">
-        <v>-14.28571428571428</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L239" t="n">
         <v>240.7</v>
@@ -12468,7 +12490,7 @@
         <v>306</v>
       </c>
       <c r="K240" t="n">
-        <v>-25</v>
+        <v>-75</v>
       </c>
       <c r="L240" t="n">
         <v>240</v>
@@ -12519,7 +12541,7 @@
         <v>307</v>
       </c>
       <c r="K241" t="n">
-        <v>-17.64705882352941</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L241" t="n">
         <v>239.5</v>
@@ -12570,7 +12592,7 @@
         <v>308</v>
       </c>
       <c r="K242" t="n">
-        <v>-37.5</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L242" t="n">
         <v>238.9</v>
@@ -12621,7 +12643,7 @@
         <v>309</v>
       </c>
       <c r="K243" t="n">
-        <v>-41.17647058823529</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L243" t="n">
         <v>238.3</v>
@@ -12672,7 +12694,7 @@
         <v>311</v>
       </c>
       <c r="K244" t="n">
-        <v>-47.36842105263158</v>
+        <v>-80</v>
       </c>
       <c r="L244" t="n">
         <v>237.4</v>
@@ -12723,7 +12745,7 @@
         <v>313</v>
       </c>
       <c r="K245" t="n">
-        <v>-68.42105263157895</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L245" t="n">
         <v>236.4</v>
@@ -12825,7 +12847,7 @@
         <v>317</v>
       </c>
       <c r="K247" t="n">
-        <v>-42.85714285714285</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L247" t="n">
         <v>235.3</v>
@@ -12876,7 +12898,7 @@
         <v>317</v>
       </c>
       <c r="K248" t="n">
-        <v>-40</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L248" t="n">
         <v>234.9</v>
@@ -12927,7 +12949,7 @@
         <v>317</v>
       </c>
       <c r="K249" t="n">
-        <v>-40</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L249" t="n">
         <v>234.6</v>
@@ -12978,7 +13000,7 @@
         <v>317</v>
       </c>
       <c r="K250" t="n">
-        <v>-40</v>
+        <v>-20</v>
       </c>
       <c r="L250" t="n">
         <v>234.5</v>
@@ -13029,7 +13051,7 @@
         <v>318</v>
       </c>
       <c r="K251" t="n">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="L251" t="n">
         <v>234.4</v>
@@ -13080,7 +13102,7 @@
         <v>318</v>
       </c>
       <c r="K252" t="n">
-        <v>-30</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L252" t="n">
         <v>234.4</v>
@@ -13131,7 +13153,7 @@
         <v>320</v>
       </c>
       <c r="K253" t="n">
-        <v>-14.28571428571428</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L253" t="n">
         <v>234.7</v>
@@ -13182,7 +13204,7 @@
         <v>320</v>
       </c>
       <c r="K254" t="n">
-        <v>-20</v>
+        <v>100</v>
       </c>
       <c r="L254" t="n">
         <v>235.2</v>
@@ -13233,7 +13255,7 @@
         <v>321</v>
       </c>
       <c r="K255" t="n">
-        <v>-20</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L255" t="n">
         <v>235.8</v>
@@ -13284,7 +13306,7 @@
         <v>322</v>
       </c>
       <c r="K256" t="n">
-        <v>-10</v>
+        <v>60</v>
       </c>
       <c r="L256" t="n">
         <v>236.3</v>
@@ -13335,7 +13357,7 @@
         <v>322</v>
       </c>
       <c r="K257" t="n">
-        <v>-5.263157894736842</v>
+        <v>60</v>
       </c>
       <c r="L257" t="n">
         <v>236.6</v>
@@ -13386,7 +13408,7 @@
         <v>322</v>
       </c>
       <c r="K258" t="n">
-        <v>-5.263157894736842</v>
+        <v>60</v>
       </c>
       <c r="L258" t="n">
         <v>236.9</v>
@@ -13437,7 +13459,7 @@
         <v>322</v>
       </c>
       <c r="K259" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L259" t="n">
         <v>237.2</v>
@@ -13488,7 +13510,7 @@
         <v>323</v>
       </c>
       <c r="K260" t="n">
-        <v>5.88235294117647</v>
+        <v>20</v>
       </c>
       <c r="L260" t="n">
         <v>237.4</v>
@@ -13539,7 +13561,7 @@
         <v>323</v>
       </c>
       <c r="K261" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L261" t="n">
         <v>237.5</v>
@@ -13590,7 +13612,7 @@
         <v>324</v>
       </c>
       <c r="K262" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L262" t="n">
         <v>237.5</v>
@@ -13641,7 +13663,7 @@
         <v>327</v>
       </c>
       <c r="K263" t="n">
-        <v>-11.11111111111111</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L263" t="n">
         <v>237</v>
@@ -13692,7 +13714,7 @@
         <v>329</v>
       </c>
       <c r="K264" t="n">
-        <v>11.11111111111111</v>
+        <v>-25</v>
       </c>
       <c r="L264" t="n">
         <v>236.7</v>
@@ -13743,7 +13765,7 @@
         <v>329</v>
       </c>
       <c r="K265" t="n">
-        <v>25</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L265" t="n">
         <v>236.5</v>
@@ -13794,7 +13816,7 @@
         <v>331</v>
       </c>
       <c r="K266" t="n">
-        <v>0</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L266" t="n">
         <v>236</v>
@@ -13845,7 +13867,7 @@
         <v>332</v>
       </c>
       <c r="K267" t="n">
-        <v>-6.666666666666667</v>
+        <v>-40</v>
       </c>
       <c r="L267" t="n">
         <v>235.6</v>
@@ -13896,7 +13918,7 @@
         <v>332</v>
       </c>
       <c r="K268" t="n">
-        <v>-6.666666666666667</v>
+        <v>-40</v>
       </c>
       <c r="L268" t="n">
         <v>235.2</v>
@@ -13947,7 +13969,7 @@
         <v>332</v>
       </c>
       <c r="K269" t="n">
-        <v>-6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L269" t="n">
         <v>234.8</v>
@@ -13998,7 +14020,7 @@
         <v>333</v>
       </c>
       <c r="K270" t="n">
-        <v>-12.5</v>
+        <v>-40</v>
       </c>
       <c r="L270" t="n">
         <v>234.4</v>

--- a/BackTest/2019-11-13 BackTest WOM.xlsx
+++ b/BackTest/2019-11-13 BackTest WOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S270"/>
+  <dimension ref="A1:M249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -523,20 +489,12 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -568,18 +526,10 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>2</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -611,18 +561,10 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -649,23 +591,21 @@
         <v>224.8333333333333</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>222</v>
       </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -692,23 +632,21 @@
         <v>224.75</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -735,23 +673,21 @@
         <v>224.6333333333333</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>8</v>
+        <v>223</v>
       </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -778,23 +714,21 @@
         <v>224.4833333333333</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>10</v>
+        <v>222</v>
       </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -821,23 +755,21 @@
         <v>224.4333333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>13</v>
+        <v>221</v>
       </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -864,25 +796,21 @@
         <v>224.4333333333333</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>16</v>
+        <v>226</v>
       </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>222.3</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -909,27 +837,21 @@
         <v>224.3666666666667</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>20</v>
-      </c>
-      <c r="K12" t="n">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="L12" t="n">
-        <v>222.3</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>222</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -956,27 +878,21 @@
         <v>224.2166666666667</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>22</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-10</v>
-      </c>
-      <c r="L13" t="n">
-        <v>222.2</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>221</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1003,27 +919,21 @@
         <v>224.0666666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>22</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-10</v>
-      </c>
-      <c r="L14" t="n">
-        <v>222</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>220</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1050,27 +960,21 @@
         <v>223.9666666666667</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>23</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-15.78947368421053</v>
-      </c>
-      <c r="L15" t="n">
-        <v>221.9</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>221</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1097,27 +1001,21 @@
         <v>223.8166666666667</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>24</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-5.88235294117647</v>
-      </c>
-      <c r="L16" t="n">
-        <v>221.5</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>221</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1144,27 +1042,21 @@
         <v>223.7333333333333</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>26</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>221.6</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>220</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1191,27 +1083,21 @@
         <v>223.6</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>27</v>
-      </c>
-      <c r="K18" t="n">
-        <v>5.88235294117647</v>
-      </c>
-      <c r="L18" t="n">
-        <v>221.5</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>221</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,27 +1124,21 @@
         <v>223.5</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>28</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L19" t="n">
-        <v>221.5</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>221</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1285,27 +1165,21 @@
         <v>223.4</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>28</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L20" t="n">
-        <v>221.2</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>221</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1332,29 +1206,21 @@
         <v>223.4333333333333</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>32</v>
-      </c>
-      <c r="K21" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L21" t="n">
-        <v>221</v>
+        <v>222</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M21" t="n">
-        <v>221.65</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1381,29 +1247,21 @@
         <v>223.3333333333333</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>36</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>220.8</v>
+        <v>221</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M22" t="n">
-        <v>221.55</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1430,29 +1288,21 @@
         <v>223.3666666666667</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>40</v>
-      </c>
-      <c r="K23" t="n">
-        <v>22.22222222222222</v>
-      </c>
-      <c r="L23" t="n">
-        <v>221.2</v>
+        <v>224</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M23" t="n">
-        <v>221.7</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1479,29 +1329,21 @@
         <v>223.35</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>43</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>221.3</v>
+        <v>222</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M24" t="n">
-        <v>221.65</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1528,29 +1370,21 @@
         <v>223.2833333333333</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>44</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>221.2</v>
+        <v>221</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M25" t="n">
-        <v>221.55</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1577,29 +1411,21 @@
         <v>223.1833333333333</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>45</v>
-      </c>
-      <c r="K26" t="n">
-        <v>-5.263157894736842</v>
-      </c>
-      <c r="L26" t="n">
-        <v>221.3</v>
+        <v>221</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M26" t="n">
-        <v>221.4</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1626,29 +1452,21 @@
         <v>223.15</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>46</v>
-      </c>
-      <c r="K27" t="n">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="L27" t="n">
-        <v>221.3</v>
+        <v>222</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M27" t="n">
-        <v>221.45</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1675,29 +1493,21 @@
         <v>223.1333333333333</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>48</v>
-      </c>
-      <c r="K28" t="n">
-        <v>20</v>
-      </c>
-      <c r="L28" t="n">
-        <v>221.6</v>
+        <v>224</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M28" t="n">
-        <v>221.55</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1724,29 +1534,21 @@
         <v>223.15</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>50</v>
-      </c>
-      <c r="K29" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L29" t="n">
-        <v>222.2</v>
+        <v>224</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M29" t="n">
-        <v>221.85</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1773,29 +1575,21 @@
         <v>223.15</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>52</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>222.6</v>
+        <v>224</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M30" t="n">
-        <v>221.9</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1822,31 +1616,21 @@
         <v>223.1666666666667</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>53</v>
-      </c>
-      <c r="K31" t="n">
-        <v>29.41176470588236</v>
-      </c>
-      <c r="L31" t="n">
-        <v>222.7</v>
+        <v>225</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>221.85</v>
-      </c>
-      <c r="N31" t="n">
-        <v>222</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1873,31 +1657,21 @@
         <v>223.1166666666667</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>54</v>
-      </c>
-      <c r="K32" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L32" t="n">
-        <v>223.3</v>
+        <v>226</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M32" t="n">
-        <v>222.05</v>
-      </c>
-      <c r="N32" t="n">
-        <v>222.1333333333333</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1924,31 +1698,21 @@
         <v>223.1666666666667</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>55</v>
-      </c>
-      <c r="K33" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L33" t="n">
-        <v>223.4</v>
+        <v>225</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M33" t="n">
-        <v>222.3</v>
-      </c>
-      <c r="N33" t="n">
-        <v>222.2666666666667</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1975,31 +1739,21 @@
         <v>223.15</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59</v>
-      </c>
-      <c r="K34" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L34" t="n">
-        <v>223.4</v>
+        <v>224</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M34" t="n">
-        <v>222.35</v>
-      </c>
-      <c r="N34" t="n">
-        <v>222.2333333333333</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2031,26 +1785,14 @@
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>60</v>
-      </c>
-      <c r="K35" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L35" t="n">
-        <v>223.6</v>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M35" t="n">
-        <v>222.4</v>
-      </c>
-      <c r="N35" t="n">
-        <v>222.2333333333333</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2077,31 +1819,21 @@
         <v>223.2</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>62</v>
-      </c>
-      <c r="K36" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L36" t="n">
-        <v>223.9</v>
+        <v>224</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>222.6</v>
-      </c>
-      <c r="N36" t="n">
-        <v>222.2333333333333</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,31 +1860,21 @@
         <v>223.2</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>65</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-17.64705882352941</v>
-      </c>
-      <c r="L37" t="n">
-        <v>223.8</v>
+        <v>222</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>222.55</v>
-      </c>
-      <c r="N37" t="n">
-        <v>222.2333333333333</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2179,31 +1901,21 @@
         <v>223.2333333333333</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>68</v>
-      </c>
-      <c r="K38" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L38" t="n">
-        <v>223.8</v>
+        <v>224</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M38" t="n">
-        <v>222.7</v>
-      </c>
-      <c r="N38" t="n">
-        <v>222.3</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2230,31 +1942,21 @@
         <v>223.1833333333333</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>68</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>223.6</v>
+        <v>224</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M39" t="n">
-        <v>222.9</v>
-      </c>
-      <c r="N39" t="n">
-        <v>222.4333333333333</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2281,31 +1983,21 @@
         <v>223.1833333333333</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>70</v>
-      </c>
-      <c r="K40" t="n">
-        <v>-17.64705882352941</v>
-      </c>
-      <c r="L40" t="n">
-        <v>223.4</v>
+        <v>223</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M40" t="n">
-        <v>223</v>
-      </c>
-      <c r="N40" t="n">
-        <v>222.4</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2332,31 +2024,21 @@
         <v>223.1</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>70</v>
-      </c>
-      <c r="K41" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L41" t="n">
-        <v>223.1</v>
+        <v>223</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M41" t="n">
-        <v>222.9</v>
-      </c>
-      <c r="N41" t="n">
-        <v>222.2666666666667</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2383,31 +2065,21 @@
         <v>223.0666666666667</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>73</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M42" t="n">
-        <v>223.15</v>
-      </c>
-      <c r="N42" t="n">
-        <v>222.3666666666667</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2434,31 +2106,21 @@
         <v>223.0166666666667</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73</v>
-      </c>
-      <c r="K43" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="L43" t="n">
-        <v>223</v>
+        <v>225</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M43" t="n">
-        <v>223.2</v>
-      </c>
-      <c r="N43" t="n">
-        <v>222.5333333333333</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2485,31 +2147,21 @@
         <v>223.0333333333333</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73</v>
-      </c>
-      <c r="K44" t="n">
-        <v>23.07692307692308</v>
-      </c>
-      <c r="L44" t="n">
-        <v>223.4</v>
+        <v>225</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M44" t="n">
-        <v>223.4</v>
-      </c>
-      <c r="N44" t="n">
-        <v>222.7</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2536,31 +2188,21 @@
         <v>223.05</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>74</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>223.6</v>
+        <v>224</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M45" t="n">
-        <v>223.6</v>
-      </c>
-      <c r="N45" t="n">
-        <v>222.8</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +2232,16 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
-      </c>
-      <c r="J46" t="n">
-        <v>75</v>
-      </c>
-      <c r="K46" t="n">
-        <v>40</v>
-      </c>
-      <c r="L46" t="n">
-        <v>223.7</v>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>223.8</v>
-      </c>
-      <c r="N46" t="n">
-        <v>222.9666666666667</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2638,31 +2268,21 @@
         <v>223.0833333333333</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>75</v>
-      </c>
-      <c r="K47" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L47" t="n">
-        <v>224.1</v>
+        <v>225</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M47" t="n">
-        <v>223.95</v>
-      </c>
-      <c r="N47" t="n">
-        <v>223.0666666666667</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2689,31 +2309,21 @@
         <v>223.0166666666667</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>78</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L48" t="n">
-        <v>223.9</v>
+        <v>225</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M48" t="n">
-        <v>223.85</v>
-      </c>
-      <c r="N48" t="n">
-        <v>223.1</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2353,16 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
-      </c>
-      <c r="J49" t="n">
-        <v>81</v>
-      </c>
-      <c r="K49" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L49" t="n">
-        <v>224</v>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>223.8</v>
-      </c>
-      <c r="N49" t="n">
-        <v>223.2666666666667</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2392,16 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>81</v>
-      </c>
-      <c r="K50" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L50" t="n">
-        <v>224.3</v>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>223.85</v>
-      </c>
-      <c r="N50" t="n">
-        <v>223.4333333333333</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2431,16 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="n">
-        <v>83</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L51" t="n">
-        <v>224.4</v>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M51" t="n">
-        <v>223.75</v>
-      </c>
-      <c r="N51" t="n">
-        <v>223.4</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2470,16 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>3</v>
-      </c>
-      <c r="J52" t="n">
-        <v>85</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>224.4</v>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M52" t="n">
-        <v>223.7</v>
-      </c>
-      <c r="N52" t="n">
-        <v>223.5666666666667</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2509,16 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>3</v>
-      </c>
-      <c r="J53" t="n">
-        <v>85</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>224.4</v>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M53" t="n">
-        <v>223.7</v>
-      </c>
-      <c r="N53" t="n">
-        <v>223.6</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2548,16 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
-      </c>
-      <c r="J54" t="n">
-        <v>85</v>
-      </c>
-      <c r="K54" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L54" t="n">
-        <v>224.4</v>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M54" t="n">
-        <v>223.9</v>
-      </c>
-      <c r="N54" t="n">
-        <v>223.7333333333333</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2587,16 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
-      </c>
-      <c r="J55" t="n">
-        <v>85</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>224.5</v>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M55" t="n">
-        <v>224.05</v>
-      </c>
-      <c r="N55" t="n">
-        <v>223.9</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2626,16 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>4</v>
-      </c>
-      <c r="J56" t="n">
-        <v>86</v>
-      </c>
-      <c r="K56" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L56" t="n">
-        <v>224.6</v>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M56" t="n">
-        <v>224.15</v>
-      </c>
-      <c r="N56" t="n">
-        <v>224.0666666666667</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2665,16 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>4</v>
-      </c>
-      <c r="J57" t="n">
-        <v>86</v>
-      </c>
-      <c r="K57" t="n">
-        <v>50</v>
-      </c>
-      <c r="L57" t="n">
-        <v>224.7</v>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M57" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="N57" t="n">
-        <v>224.2</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2704,16 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>5</v>
-      </c>
-      <c r="J58" t="n">
-        <v>87</v>
-      </c>
-      <c r="K58" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L58" t="n">
-        <v>225.2</v>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M58" t="n">
-        <v>224.55</v>
-      </c>
-      <c r="N58" t="n">
-        <v>224.3</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2743,16 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>6</v>
-      </c>
-      <c r="J59" t="n">
-        <v>88</v>
-      </c>
-      <c r="K59" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L59" t="n">
-        <v>225.5</v>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>224.75</v>
-      </c>
-      <c r="N59" t="n">
-        <v>224.3666666666667</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2782,16 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>7</v>
-      </c>
-      <c r="J60" t="n">
-        <v>89</v>
-      </c>
-      <c r="K60" t="n">
-        <v>100</v>
-      </c>
-      <c r="L60" t="n">
-        <v>225.9</v>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="N60" t="n">
-        <v>224.5333333333333</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2821,16 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>6</v>
-      </c>
-      <c r="J61" t="n">
-        <v>90</v>
-      </c>
-      <c r="K61" t="n">
-        <v>60</v>
-      </c>
-      <c r="L61" t="n">
-        <v>226.4</v>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>225.4</v>
-      </c>
-      <c r="N61" t="n">
-        <v>224.6333333333333</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +2860,16 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>6</v>
-      </c>
-      <c r="J62" t="n">
-        <v>90</v>
-      </c>
-      <c r="K62" t="n">
-        <v>60</v>
-      </c>
-      <c r="L62" t="n">
-        <v>226.7</v>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M62" t="n">
-        <v>225.55</v>
-      </c>
-      <c r="N62" t="n">
-        <v>224.7</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +2899,16 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
-      </c>
-      <c r="J63" t="n">
-        <v>93</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="n">
-        <v>226.7</v>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>225.55</v>
-      </c>
-      <c r="N63" t="n">
-        <v>224.7</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +2938,16 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
-      </c>
-      <c r="J64" t="n">
-        <v>93</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>226.7</v>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>225.55</v>
-      </c>
-      <c r="N64" t="n">
-        <v>224.8333333333333</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,28 +2977,16 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>3</v>
-      </c>
-      <c r="J65" t="n">
-        <v>93</v>
-      </c>
-      <c r="K65" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L65" t="n">
-        <v>226.7</v>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>225.6</v>
-      </c>
-      <c r="N65" t="n">
-        <v>224.9333333333333</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,28 +3016,16 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>3</v>
-      </c>
-      <c r="J66" t="n">
-        <v>93</v>
-      </c>
-      <c r="K66" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L66" t="n">
-        <v>226.6</v>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>225.6</v>
-      </c>
-      <c r="N66" t="n">
-        <v>224.9666666666667</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +3055,16 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>5</v>
-      </c>
-      <c r="J67" t="n">
-        <v>95</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
-      <c r="L67" t="n">
-        <v>226.7</v>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>225.7</v>
-      </c>
-      <c r="N67" t="n">
-        <v>225.1666666666667</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,28 +3094,16 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>6</v>
-      </c>
-      <c r="J68" t="n">
-        <v>96</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" t="n">
-        <v>226.8</v>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>226</v>
-      </c>
-      <c r="N68" t="n">
-        <v>225.3</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +3133,16 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>5</v>
-      </c>
-      <c r="J69" t="n">
-        <v>97</v>
-      </c>
-      <c r="K69" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L69" t="n">
-        <v>226.7</v>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>226.1</v>
-      </c>
-      <c r="N69" t="n">
-        <v>225.4</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,28 +3172,16 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>5</v>
-      </c>
-      <c r="J70" t="n">
-        <v>97</v>
-      </c>
-      <c r="K70" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L70" t="n">
-        <v>226.5</v>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>226.2</v>
-      </c>
-      <c r="N70" t="n">
-        <v>225.5666666666667</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3865,28 +3211,16 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>4</v>
-      </c>
-      <c r="J71" t="n">
-        <v>98</v>
-      </c>
-      <c r="K71" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L71" t="n">
-        <v>226.3</v>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>226.35</v>
-      </c>
-      <c r="N71" t="n">
-        <v>225.7</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,28 +3250,16 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
-      </c>
-      <c r="J72" t="n">
-        <v>100</v>
-      </c>
-      <c r="K72" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L72" t="n">
-        <v>225.9</v>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>226.3</v>
-      </c>
-      <c r="N72" t="n">
-        <v>225.6666666666667</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,28 +3289,16 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>3</v>
-      </c>
-      <c r="J73" t="n">
-        <v>101</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
-      <c r="L73" t="n">
-        <v>225.9</v>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>226.3</v>
-      </c>
-      <c r="N73" t="n">
-        <v>225.6666666666667</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,28 +3328,16 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>6</v>
-      </c>
-      <c r="J74" t="n">
-        <v>104</v>
-      </c>
-      <c r="K74" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L74" t="n">
-        <v>226.2</v>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>226.45</v>
-      </c>
-      <c r="N74" t="n">
-        <v>225.7666666666667</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,28 +3367,16 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>6</v>
-      </c>
-      <c r="J75" t="n">
-        <v>104</v>
-      </c>
-      <c r="K75" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L75" t="n">
-        <v>226.5</v>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>226.6</v>
-      </c>
-      <c r="N75" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,28 +3406,16 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>5</v>
-      </c>
-      <c r="J76" t="n">
-        <v>105</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
-      <c r="L76" t="n">
-        <v>226.7</v>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>226.65</v>
-      </c>
-      <c r="N76" t="n">
-        <v>225.9666666666667</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,28 +3445,16 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>3</v>
-      </c>
-      <c r="J77" t="n">
-        <v>107</v>
-      </c>
-      <c r="K77" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L77" t="n">
-        <v>226.5</v>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>226.6</v>
-      </c>
-      <c r="N77" t="n">
-        <v>225.9666666666667</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,28 +3484,16 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>2</v>
-      </c>
-      <c r="J78" t="n">
-        <v>108</v>
-      </c>
-      <c r="K78" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L78" t="n">
-        <v>226.1</v>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>226.45</v>
-      </c>
-      <c r="N78" t="n">
-        <v>226.0333333333333</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,28 +3523,16 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
-      </c>
-      <c r="J79" t="n">
-        <v>108</v>
-      </c>
-      <c r="K79" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L79" t="n">
-        <v>225.8</v>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>226.25</v>
-      </c>
-      <c r="N79" t="n">
-        <v>226</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,28 +3562,16 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
-      </c>
-      <c r="J80" t="n">
-        <v>108</v>
-      </c>
-      <c r="K80" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L80" t="n">
-        <v>225.5</v>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>226</v>
-      </c>
-      <c r="N80" t="n">
-        <v>225.9666666666667</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,28 +3601,16 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>2</v>
-      </c>
-      <c r="J81" t="n">
-        <v>108</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0</v>
-      </c>
-      <c r="L81" t="n">
-        <v>225.3</v>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>225.8</v>
-      </c>
-      <c r="N81" t="n">
-        <v>226</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,28 +3640,16 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>109</v>
-      </c>
-      <c r="K82" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L82" t="n">
-        <v>225.2</v>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>225.55</v>
-      </c>
-      <c r="N82" t="n">
-        <v>225.9333333333333</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,28 +3679,16 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J83" t="n">
-        <v>112</v>
-      </c>
-      <c r="K83" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L83" t="n">
-        <v>224.7</v>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>225.3</v>
-      </c>
-      <c r="N83" t="n">
-        <v>225.7666666666667</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,28 +3718,16 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>112</v>
-      </c>
-      <c r="K84" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L84" t="n">
-        <v>223.9</v>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>225.05</v>
-      </c>
-      <c r="N84" t="n">
-        <v>225.6</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3757,16 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="n">
-        <v>115</v>
-      </c>
-      <c r="K85" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L85" t="n">
-        <v>223.4</v>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>224.95</v>
-      </c>
-      <c r="N85" t="n">
-        <v>225.5333333333333</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,28 +3796,16 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>115</v>
-      </c>
-      <c r="K86" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L86" t="n">
-        <v>223</v>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>224.85</v>
-      </c>
-      <c r="N86" t="n">
-        <v>225.4333333333333</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,28 +3835,16 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>2</v>
-      </c>
-      <c r="J87" t="n">
-        <v>116</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0</v>
-      </c>
-      <c r="L87" t="n">
-        <v>222.9</v>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M87" t="n">
-        <v>224.7</v>
-      </c>
-      <c r="N87" t="n">
-        <v>225.3666666666667</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4729,31 +3871,21 @@
         <v>224.8333333333333</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>119</v>
-      </c>
-      <c r="K88" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L88" t="n">
-        <v>223.2</v>
+        <v>226</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M88" t="n">
-        <v>224.65</v>
-      </c>
-      <c r="N88" t="n">
-        <v>225.3666666666667</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,28 +3915,16 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>6</v>
-      </c>
-      <c r="J89" t="n">
-        <v>120</v>
-      </c>
-      <c r="K89" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L89" t="n">
-        <v>223.6</v>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>224.7</v>
-      </c>
-      <c r="N89" t="n">
-        <v>225.3666666666667</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,28 +3954,16 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>6</v>
-      </c>
-      <c r="J90" t="n">
-        <v>120</v>
-      </c>
-      <c r="K90" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L90" t="n">
-        <v>224</v>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>224.75</v>
-      </c>
-      <c r="N90" t="n">
-        <v>225.3333333333333</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,28 +3993,16 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>6</v>
-      </c>
-      <c r="J91" t="n">
-        <v>120</v>
-      </c>
-      <c r="K91" t="n">
-        <v>45.45454545454545</v>
-      </c>
-      <c r="L91" t="n">
-        <v>224.4</v>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M91" t="n">
-        <v>224.85</v>
-      </c>
-      <c r="N91" t="n">
-        <v>225.3333333333333</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,28 +4032,16 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>11</v>
-      </c>
-      <c r="J92" t="n">
-        <v>125</v>
-      </c>
-      <c r="K92" t="n">
-        <v>100</v>
-      </c>
-      <c r="L92" t="n">
-        <v>225.4</v>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>225.3</v>
-      </c>
-      <c r="N92" t="n">
-        <v>225.5</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,28 +4071,16 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>15</v>
-      </c>
-      <c r="J93" t="n">
-        <v>129</v>
-      </c>
-      <c r="K93" t="n">
-        <v>100</v>
-      </c>
-      <c r="L93" t="n">
-        <v>227.1</v>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M93" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="N93" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,28 +4110,16 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>14</v>
-      </c>
-      <c r="J94" t="n">
-        <v>130</v>
-      </c>
-      <c r="K94" t="n">
-        <v>86.66666666666667</v>
-      </c>
-      <c r="L94" t="n">
-        <v>228.7</v>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M94" t="n">
-        <v>226.3</v>
-      </c>
-      <c r="N94" t="n">
-        <v>226.2666666666667</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,28 +4149,16 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>16</v>
-      </c>
-      <c r="J95" t="n">
-        <v>132</v>
-      </c>
-      <c r="K95" t="n">
-        <v>88.23529411764706</v>
-      </c>
-      <c r="L95" t="n">
-        <v>230.2</v>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M95" t="n">
-        <v>226.8</v>
-      </c>
-      <c r="N95" t="n">
-        <v>226.7</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5140,28 +4188,16 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>17</v>
-      </c>
-      <c r="J96" t="n">
-        <v>133</v>
-      </c>
-      <c r="K96" t="n">
-        <v>88.23529411764706</v>
-      </c>
-      <c r="L96" t="n">
-        <v>231.8</v>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M96" t="n">
-        <v>227.4</v>
-      </c>
-      <c r="N96" t="n">
-        <v>227.1666666666667</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,28 +4227,16 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>16</v>
-      </c>
-      <c r="J97" t="n">
-        <v>134</v>
-      </c>
-      <c r="K97" t="n">
-        <v>73.33333333333333</v>
-      </c>
-      <c r="L97" t="n">
-        <v>233.2</v>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M97" t="n">
-        <v>228.05</v>
-      </c>
-      <c r="N97" t="n">
-        <v>227.5333333333333</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,28 +4266,16 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>17</v>
-      </c>
-      <c r="J98" t="n">
-        <v>135</v>
-      </c>
-      <c r="K98" t="n">
-        <v>73.33333333333333</v>
-      </c>
-      <c r="L98" t="n">
-        <v>234.4</v>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M98" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="N98" t="n">
-        <v>227.9</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,28 +4305,16 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>23</v>
-      </c>
-      <c r="J99" t="n">
-        <v>141</v>
-      </c>
-      <c r="K99" t="n">
-        <v>80.95238095238095</v>
-      </c>
-      <c r="L99" t="n">
-        <v>236.1</v>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M99" t="n">
-        <v>229.85</v>
-      </c>
-      <c r="N99" t="n">
-        <v>228.5</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,28 +4344,16 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>30</v>
-      </c>
-      <c r="J100" t="n">
-        <v>148</v>
-      </c>
-      <c r="K100" t="n">
-        <v>85.71428571428571</v>
-      </c>
-      <c r="L100" t="n">
-        <v>238.5</v>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M100" t="n">
-        <v>231.25</v>
-      </c>
-      <c r="N100" t="n">
-        <v>229.3333333333333</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5395,28 +4383,16 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>30</v>
-      </c>
-      <c r="J101" t="n">
-        <v>148</v>
-      </c>
-      <c r="K101" t="n">
-        <v>82.60869565217391</v>
-      </c>
-      <c r="L101" t="n">
-        <v>240.9</v>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M101" t="n">
-        <v>232.65</v>
-      </c>
-      <c r="N101" t="n">
-        <v>230.2</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,28 +4422,16 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>27</v>
-      </c>
-      <c r="J102" t="n">
-        <v>151</v>
-      </c>
-      <c r="K102" t="n">
-        <v>54.54545454545454</v>
-      </c>
-      <c r="L102" t="n">
-        <v>242.5</v>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M102" t="n">
-        <v>233.95</v>
-      </c>
-      <c r="N102" t="n">
-        <v>231.0333333333333</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,28 +4461,16 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>26</v>
-      </c>
-      <c r="J103" t="n">
-        <v>152</v>
-      </c>
-      <c r="K103" t="n">
-        <v>54.54545454545454</v>
-      </c>
-      <c r="L103" t="n">
-        <v>243.6</v>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M103" t="n">
-        <v>235.35</v>
-      </c>
-      <c r="N103" t="n">
-        <v>231.8</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,30 +4500,16 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>26</v>
-      </c>
-      <c r="J104" t="n">
-        <v>152</v>
-      </c>
-      <c r="K104" t="n">
-        <v>50</v>
-      </c>
-      <c r="L104" t="n">
-        <v>244.8</v>
-      </c>
-      <c r="M104" t="n">
-        <v>236.75</v>
-      </c>
-      <c r="N104" t="n">
-        <v>232.4666666666667</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -5599,28 +4537,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>25</v>
-      </c>
-      <c r="J105" t="n">
-        <v>153</v>
-      </c>
-      <c r="K105" t="n">
-        <v>40</v>
-      </c>
-      <c r="L105" t="n">
-        <v>245.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>237.95</v>
-      </c>
-      <c r="N105" t="n">
-        <v>233.1</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,28 +4572,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>23</v>
-      </c>
-      <c r="J106" t="n">
-        <v>155</v>
-      </c>
-      <c r="K106" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L106" t="n">
-        <v>246.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>239.05</v>
-      </c>
-      <c r="N106" t="n">
-        <v>233.7</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5701,28 +4607,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>23</v>
-      </c>
-      <c r="J107" t="n">
-        <v>155</v>
-      </c>
-      <c r="K107" t="n">
-        <v>30</v>
-      </c>
-      <c r="L107" t="n">
-        <v>247</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>240.1</v>
-      </c>
-      <c r="N107" t="n">
-        <v>234.3666666666667</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,28 +4642,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>23</v>
-      </c>
-      <c r="J108" t="n">
-        <v>155</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0</v>
-      </c>
-      <c r="L108" t="n">
-        <v>247.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>241</v>
-      </c>
-      <c r="N108" t="n">
-        <v>235.0666666666667</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,28 +4677,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>23</v>
-      </c>
-      <c r="J109" t="n">
-        <v>155</v>
-      </c>
-      <c r="K109" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L109" t="n">
-        <v>247.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>241.85</v>
-      </c>
-      <c r="N109" t="n">
-        <v>235.7666666666667</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,28 +4712,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>25</v>
-      </c>
-      <c r="J110" t="n">
-        <v>157</v>
-      </c>
-      <c r="K110" t="n">
-        <v>-55.55555555555556</v>
-      </c>
-      <c r="L110" t="n">
-        <v>247.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>242.8</v>
-      </c>
-      <c r="N110" t="n">
-        <v>236.5333333333333</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5905,28 +4747,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>25</v>
-      </c>
-      <c r="J111" t="n">
-        <v>157</v>
-      </c>
-      <c r="K111" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L111" t="n">
-        <v>246.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>243.75</v>
-      </c>
-      <c r="N111" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5956,28 +4782,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>25</v>
-      </c>
-      <c r="J112" t="n">
-        <v>157</v>
-      </c>
-      <c r="K112" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L112" t="n">
-        <v>246.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>244.45</v>
-      </c>
-      <c r="N112" t="n">
-        <v>238.1</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6007,28 +4817,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>26</v>
-      </c>
-      <c r="J113" t="n">
-        <v>158</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0</v>
-      </c>
-      <c r="L113" t="n">
-        <v>246.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>245</v>
-      </c>
-      <c r="N113" t="n">
-        <v>239.0333333333333</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6058,28 +4852,12 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>26</v>
-      </c>
-      <c r="J114" t="n">
-        <v>158</v>
-      </c>
-      <c r="K114" t="n">
-        <v>20</v>
-      </c>
-      <c r="L114" t="n">
-        <v>246.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
-        <v>245.6</v>
-      </c>
-      <c r="N114" t="n">
-        <v>239.9666666666667</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6109,28 +4887,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>26</v>
-      </c>
-      <c r="J115" t="n">
-        <v>158</v>
-      </c>
-      <c r="K115" t="n">
-        <v>100</v>
-      </c>
-      <c r="L115" t="n">
-        <v>246.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
-        <v>246.1</v>
-      </c>
-      <c r="N115" t="n">
-        <v>240.8</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6160,28 +4922,12 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>26</v>
-      </c>
-      <c r="J116" t="n">
-        <v>158</v>
-      </c>
-      <c r="K116" t="n">
-        <v>100</v>
-      </c>
-      <c r="L116" t="n">
-        <v>246.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
-        <v>246.55</v>
-      </c>
-      <c r="N116" t="n">
-        <v>241.6333333333333</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6211,28 +4957,12 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>26</v>
-      </c>
-      <c r="J117" t="n">
-        <v>158</v>
-      </c>
-      <c r="K117" t="n">
-        <v>100</v>
-      </c>
-      <c r="L117" t="n">
-        <v>247.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>247.05</v>
-      </c>
-      <c r="N117" t="n">
-        <v>242.4333333333333</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6262,28 +4992,12 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>21</v>
-      </c>
-      <c r="J118" t="n">
-        <v>163</v>
-      </c>
-      <c r="K118" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L118" t="n">
-        <v>246.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
-        <v>247.25</v>
-      </c>
-      <c r="N118" t="n">
-        <v>242.9666666666667</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6313,28 +5027,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>24</v>
-      </c>
-      <c r="J119" t="n">
-        <v>166</v>
-      </c>
-      <c r="K119" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L119" t="n">
-        <v>247</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
-        <v>247.3</v>
-      </c>
-      <c r="N119" t="n">
-        <v>243.5666666666667</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6364,28 +5062,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>19</v>
-      </c>
-      <c r="J120" t="n">
-        <v>171</v>
-      </c>
-      <c r="K120" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L120" t="n">
-        <v>246.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
-        <v>246.75</v>
-      </c>
-      <c r="N120" t="n">
-        <v>244</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6415,28 +5097,12 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>19</v>
-      </c>
-      <c r="J121" t="n">
-        <v>171</v>
-      </c>
-      <c r="K121" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L121" t="n">
-        <v>245.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
-        <v>246.2</v>
-      </c>
-      <c r="N121" t="n">
-        <v>244.4333333333333</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6466,28 +5132,12 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>17</v>
-      </c>
-      <c r="J122" t="n">
-        <v>173</v>
-      </c>
-      <c r="K122" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L122" t="n">
-        <v>245</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
-        <v>245.7</v>
-      </c>
-      <c r="N122" t="n">
-        <v>244.6333333333333</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6517,28 +5167,12 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>16</v>
-      </c>
-      <c r="J123" t="n">
-        <v>174</v>
-      </c>
-      <c r="K123" t="n">
-        <v>-62.5</v>
-      </c>
-      <c r="L123" t="n">
-        <v>244</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
-        <v>245.2</v>
-      </c>
-      <c r="N123" t="n">
-        <v>244.6666666666667</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6568,28 +5202,12 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>14</v>
-      </c>
-      <c r="J124" t="n">
-        <v>176</v>
-      </c>
-      <c r="K124" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L124" t="n">
-        <v>242.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
-        <v>244.6</v>
-      </c>
-      <c r="N124" t="n">
-        <v>244.6666666666667</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6619,28 +5237,12 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>15</v>
-      </c>
-      <c r="J125" t="n">
-        <v>177</v>
-      </c>
-      <c r="K125" t="n">
-        <v>-57.89473684210527</v>
-      </c>
-      <c r="L125" t="n">
-        <v>241.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
-        <v>244.1</v>
-      </c>
-      <c r="N125" t="n">
-        <v>244.6333333333333</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6670,28 +5272,12 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>15</v>
-      </c>
-      <c r="J126" t="n">
-        <v>177</v>
-      </c>
-      <c r="K126" t="n">
-        <v>-57.89473684210527</v>
-      </c>
-      <c r="L126" t="n">
-        <v>240.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
-        <v>243.7</v>
-      </c>
-      <c r="N126" t="n">
-        <v>244.5666666666667</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6721,28 +5307,12 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>14</v>
-      </c>
-      <c r="J127" t="n">
-        <v>178</v>
-      </c>
-      <c r="K127" t="n">
-        <v>-46.66666666666666</v>
-      </c>
-      <c r="L127" t="n">
-        <v>239.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
-        <v>243.25</v>
-      </c>
-      <c r="N127" t="n">
-        <v>244.5</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6772,28 +5342,12 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>11</v>
-      </c>
-      <c r="J128" t="n">
-        <v>181</v>
-      </c>
-      <c r="K128" t="n">
-        <v>-86.66666666666667</v>
-      </c>
-      <c r="L128" t="n">
-        <v>238.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
-        <v>242.65</v>
-      </c>
-      <c r="N128" t="n">
-        <v>244.3</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6823,28 +5377,12 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>11</v>
-      </c>
-      <c r="J129" t="n">
-        <v>181</v>
-      </c>
-      <c r="K129" t="n">
-        <v>-80</v>
-      </c>
-      <c r="L129" t="n">
-        <v>237.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
-        <v>242.05</v>
-      </c>
-      <c r="N129" t="n">
-        <v>243.9</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6874,28 +5412,12 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>11</v>
-      </c>
-      <c r="J130" t="n">
-        <v>181</v>
-      </c>
-      <c r="K130" t="n">
-        <v>-80</v>
-      </c>
-      <c r="L130" t="n">
-        <v>236.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
-        <v>241.35</v>
-      </c>
-      <c r="N130" t="n">
-        <v>243.2666666666667</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6925,28 +5447,12 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>11</v>
-      </c>
-      <c r="J131" t="n">
-        <v>181</v>
-      </c>
-      <c r="K131" t="n">
-        <v>-75</v>
-      </c>
-      <c r="L131" t="n">
-        <v>235.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
-        <v>240.65</v>
-      </c>
-      <c r="N131" t="n">
-        <v>242.6333333333333</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6976,28 +5482,12 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>14</v>
-      </c>
-      <c r="J132" t="n">
-        <v>184</v>
-      </c>
-      <c r="K132" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L132" t="n">
-        <v>235.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
-        <v>240.1</v>
-      </c>
-      <c r="N132" t="n">
-        <v>242.2</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7027,28 +5517,12 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>11</v>
-      </c>
-      <c r="J133" t="n">
-        <v>187</v>
-      </c>
-      <c r="K133" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L133" t="n">
-        <v>234.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
-        <v>239.35</v>
-      </c>
-      <c r="N133" t="n">
-        <v>241.7</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7078,28 +5552,12 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>12</v>
-      </c>
-      <c r="J134" t="n">
-        <v>188</v>
-      </c>
-      <c r="K134" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L134" t="n">
-        <v>234.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
-        <v>238.65</v>
-      </c>
-      <c r="N134" t="n">
-        <v>241.2333333333333</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7129,28 +5587,12 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>12</v>
-      </c>
-      <c r="J135" t="n">
-        <v>188</v>
-      </c>
-      <c r="K135" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L135" t="n">
-        <v>234.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
-        <v>237.95</v>
-      </c>
-      <c r="N135" t="n">
-        <v>240.8</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7180,28 +5622,12 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>13</v>
-      </c>
-      <c r="J136" t="n">
-        <v>189</v>
-      </c>
-      <c r="K136" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L136" t="n">
-        <v>234</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="N136" t="n">
-        <v>240.4666666666667</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7231,28 +5657,12 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>12</v>
-      </c>
-      <c r="J137" t="n">
-        <v>190</v>
-      </c>
-      <c r="K137" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L137" t="n">
-        <v>233.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
-        <v>236.6</v>
-      </c>
-      <c r="N137" t="n">
-        <v>240.1</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7282,28 +5692,12 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>11</v>
-      </c>
-      <c r="J138" t="n">
-        <v>191</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0</v>
-      </c>
-      <c r="L138" t="n">
-        <v>233.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="N138" t="n">
-        <v>239.7</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7333,28 +5727,12 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>11</v>
-      </c>
-      <c r="J139" t="n">
-        <v>191</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0</v>
-      </c>
-      <c r="L139" t="n">
-        <v>233.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
-        <v>235.45</v>
-      </c>
-      <c r="N139" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7384,28 +5762,12 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>10</v>
-      </c>
-      <c r="J140" t="n">
-        <v>192</v>
-      </c>
-      <c r="K140" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L140" t="n">
-        <v>233.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
-        <v>235</v>
-      </c>
-      <c r="N140" t="n">
-        <v>238.8</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7435,28 +5797,12 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>10</v>
-      </c>
-      <c r="J141" t="n">
-        <v>192</v>
-      </c>
-      <c r="K141" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L141" t="n">
-        <v>233.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
-        <v>234.55</v>
-      </c>
-      <c r="N141" t="n">
-        <v>238.3</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7486,28 +5832,12 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>12</v>
-      </c>
-      <c r="J142" t="n">
-        <v>194</v>
-      </c>
-      <c r="K142" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L142" t="n">
-        <v>233.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
-        <v>234.3</v>
-      </c>
-      <c r="N142" t="n">
-        <v>237.8666666666667</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7537,28 +5867,12 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>10</v>
-      </c>
-      <c r="J143" t="n">
-        <v>196</v>
-      </c>
-      <c r="K143" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L143" t="n">
-        <v>233.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
-        <v>234</v>
-      </c>
-      <c r="N143" t="n">
-        <v>237.3333333333333</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,28 +5902,12 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>10</v>
-      </c>
-      <c r="J144" t="n">
-        <v>196</v>
-      </c>
-      <c r="K144" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L144" t="n">
-        <v>233.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
-        <v>233.8</v>
-      </c>
-      <c r="N144" t="n">
-        <v>236.8</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7639,28 +5937,12 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>10</v>
-      </c>
-      <c r="J145" t="n">
-        <v>196</v>
-      </c>
-      <c r="K145" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L145" t="n">
-        <v>232.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
-        <v>233.55</v>
-      </c>
-      <c r="N145" t="n">
-        <v>236.2666666666667</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7690,28 +5972,12 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>11</v>
-      </c>
-      <c r="J146" t="n">
-        <v>197</v>
-      </c>
-      <c r="K146" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L146" t="n">
-        <v>232.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
-        <v>233.35</v>
-      </c>
-      <c r="N146" t="n">
-        <v>235.7666666666667</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7741,28 +6007,12 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>10</v>
-      </c>
-      <c r="J147" t="n">
-        <v>198</v>
-      </c>
-      <c r="K147" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L147" t="n">
-        <v>232.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
-        <v>233.15</v>
-      </c>
-      <c r="N147" t="n">
-        <v>235.2333333333333</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7792,28 +6042,12 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>13</v>
-      </c>
-      <c r="J148" t="n">
-        <v>201</v>
-      </c>
-      <c r="K148" t="n">
-        <v>20</v>
-      </c>
-      <c r="L148" t="n">
-        <v>232.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
-        <v>233.25</v>
-      </c>
-      <c r="N148" t="n">
-        <v>234.9666666666667</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7843,28 +6077,12 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>10</v>
-      </c>
-      <c r="J149" t="n">
-        <v>204</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0</v>
-      </c>
-      <c r="L149" t="n">
-        <v>232.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
-        <v>233.2</v>
-      </c>
-      <c r="N149" t="n">
-        <v>234.5</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7894,28 +6112,12 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>13</v>
-      </c>
-      <c r="J150" t="n">
-        <v>207</v>
-      </c>
-      <c r="K150" t="n">
-        <v>20</v>
-      </c>
-      <c r="L150" t="n">
-        <v>232.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
-        <v>233.3</v>
-      </c>
-      <c r="N150" t="n">
-        <v>234.3</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7945,28 +6147,12 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>10</v>
-      </c>
-      <c r="J151" t="n">
-        <v>210</v>
-      </c>
-      <c r="K151" t="n">
-        <v>-12.5</v>
-      </c>
-      <c r="L151" t="n">
-        <v>232.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
-        <v>233.25</v>
-      </c>
-      <c r="N151" t="n">
-        <v>234</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7996,28 +6182,12 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>9</v>
-      </c>
-      <c r="J152" t="n">
-        <v>211</v>
-      </c>
-      <c r="K152" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L152" t="n">
-        <v>232.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
-        <v>233</v>
-      </c>
-      <c r="N152" t="n">
-        <v>233.7333333333333</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8047,28 +6217,12 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>10</v>
-      </c>
-      <c r="J153" t="n">
-        <v>212</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0</v>
-      </c>
-      <c r="L153" t="n">
-        <v>232.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
-        <v>232.95</v>
-      </c>
-      <c r="N153" t="n">
-        <v>233.5333333333333</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8098,28 +6252,12 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>8</v>
-      </c>
-      <c r="J154" t="n">
-        <v>214</v>
-      </c>
-      <c r="K154" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L154" t="n">
-        <v>232.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
-        <v>232.75</v>
-      </c>
-      <c r="N154" t="n">
-        <v>233.3333333333333</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8149,28 +6287,12 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>7</v>
-      </c>
-      <c r="J155" t="n">
-        <v>215</v>
-      </c>
-      <c r="K155" t="n">
-        <v>-22.22222222222222</v>
-      </c>
-      <c r="L155" t="n">
-        <v>232.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
-        <v>232.5</v>
-      </c>
-      <c r="N155" t="n">
-        <v>233.0666666666667</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8200,28 +6322,12 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>7</v>
-      </c>
-      <c r="J156" t="n">
-        <v>215</v>
-      </c>
-      <c r="K156" t="n">
-        <v>-17.64705882352941</v>
-      </c>
-      <c r="L156" t="n">
-        <v>231.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
-        <v>232.2</v>
-      </c>
-      <c r="N156" t="n">
-        <v>232.8</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8251,28 +6357,12 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>6</v>
-      </c>
-      <c r="J157" t="n">
-        <v>216</v>
-      </c>
-      <c r="K157" t="n">
-        <v>-46.66666666666666</v>
-      </c>
-      <c r="L157" t="n">
-        <v>231.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
-        <v>231.9</v>
-      </c>
-      <c r="N157" t="n">
-        <v>232.5333333333333</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8302,28 +6392,12 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>6</v>
-      </c>
-      <c r="J158" t="n">
-        <v>216</v>
-      </c>
-      <c r="K158" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L158" t="n">
-        <v>230.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
-        <v>231.65</v>
-      </c>
-      <c r="N158" t="n">
-        <v>232.3666666666667</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8353,28 +6427,12 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>6</v>
-      </c>
-      <c r="J159" t="n">
-        <v>216</v>
-      </c>
-      <c r="K159" t="n">
-        <v>-77.77777777777779</v>
-      </c>
-      <c r="L159" t="n">
-        <v>230.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
-        <v>231.4</v>
-      </c>
-      <c r="N159" t="n">
-        <v>232.2</v>
-      </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8404,28 +6462,12 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>6</v>
-      </c>
-      <c r="J160" t="n">
-        <v>216</v>
-      </c>
-      <c r="K160" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L160" t="n">
-        <v>229.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
-        <v>231.2</v>
-      </c>
-      <c r="N160" t="n">
-        <v>232.0333333333333</v>
-      </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8455,28 +6497,12 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>7</v>
-      </c>
-      <c r="J161" t="n">
-        <v>217</v>
-      </c>
-      <c r="K161" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L161" t="n">
-        <v>229.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
-        <v>231.05</v>
-      </c>
-      <c r="N161" t="n">
-        <v>231.9</v>
-      </c>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8506,28 +6532,12 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>7</v>
-      </c>
-      <c r="J162" t="n">
-        <v>217</v>
-      </c>
-      <c r="K162" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L162" t="n">
-        <v>229</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
-        <v>230.8</v>
-      </c>
-      <c r="N162" t="n">
-        <v>231.6666666666667</v>
-      </c>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8557,28 +6567,12 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>6</v>
-      </c>
-      <c r="J163" t="n">
-        <v>218</v>
-      </c>
-      <c r="K163" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L163" t="n">
-        <v>228.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
-        <v>230.6</v>
-      </c>
-      <c r="N163" t="n">
-        <v>231.5</v>
-      </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8608,28 +6602,12 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>6</v>
-      </c>
-      <c r="J164" t="n">
-        <v>218</v>
-      </c>
-      <c r="K164" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L164" t="n">
-        <v>228.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
-        <v>230.4</v>
-      </c>
-      <c r="N164" t="n">
-        <v>231.3</v>
-      </c>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8659,28 +6637,12 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>4</v>
-      </c>
-      <c r="J165" t="n">
-        <v>220</v>
-      </c>
-      <c r="K165" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L165" t="n">
-        <v>228.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
-        <v>230.1</v>
-      </c>
-      <c r="N165" t="n">
-        <v>231.0333333333333</v>
-      </c>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8710,28 +6672,12 @@
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>4</v>
-      </c>
-      <c r="J166" t="n">
-        <v>220</v>
-      </c>
-      <c r="K166" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L166" t="n">
-        <v>227.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
-        <v>229.75</v>
-      </c>
-      <c r="N166" t="n">
-        <v>230.7333333333333</v>
-      </c>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8761,28 +6707,12 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>4</v>
-      </c>
-      <c r="J167" t="n">
-        <v>220</v>
-      </c>
-      <c r="K167" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L167" t="n">
-        <v>227.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
-        <v>229.45</v>
-      </c>
-      <c r="N167" t="n">
-        <v>230.4666666666667</v>
-      </c>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8812,28 +6742,12 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>8</v>
-      </c>
-      <c r="J168" t="n">
-        <v>224</v>
-      </c>
-      <c r="K168" t="n">
-        <v>25</v>
-      </c>
-      <c r="L168" t="n">
-        <v>227.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
-        <v>229.2</v>
-      </c>
-      <c r="N168" t="n">
-        <v>230.3666666666667</v>
-      </c>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8863,28 +6777,12 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>12</v>
-      </c>
-      <c r="J169" t="n">
-        <v>228</v>
-      </c>
-      <c r="K169" t="n">
-        <v>50</v>
-      </c>
-      <c r="L169" t="n">
-        <v>228.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
-        <v>229.3</v>
-      </c>
-      <c r="N169" t="n">
-        <v>230.4</v>
-      </c>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8914,28 +6812,12 @@
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>13</v>
-      </c>
-      <c r="J170" t="n">
-        <v>229</v>
-      </c>
-      <c r="K170" t="n">
-        <v>50</v>
-      </c>
-      <c r="L170" t="n">
-        <v>229.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
-        <v>229.3</v>
-      </c>
-      <c r="N170" t="n">
-        <v>230.5</v>
-      </c>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8965,28 +6847,12 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>9</v>
-      </c>
-      <c r="J171" t="n">
-        <v>233</v>
-      </c>
-      <c r="K171" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L171" t="n">
-        <v>229.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
-        <v>229.25</v>
-      </c>
-      <c r="N171" t="n">
-        <v>230.4666666666667</v>
-      </c>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9016,28 +6882,12 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>13</v>
-      </c>
-      <c r="J172" t="n">
-        <v>237</v>
-      </c>
-      <c r="K172" t="n">
-        <v>36.84210526315789</v>
-      </c>
-      <c r="L172" t="n">
-        <v>229.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
-        <v>229.45</v>
-      </c>
-      <c r="N172" t="n">
-        <v>230.5</v>
-      </c>
-      <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9067,28 +6917,12 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>13</v>
-      </c>
-      <c r="J173" t="n">
-        <v>237</v>
-      </c>
-      <c r="K173" t="n">
-        <v>36.84210526315789</v>
-      </c>
-      <c r="L173" t="n">
-        <v>230.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="N173" t="n">
-        <v>230.6</v>
-      </c>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9118,28 +6952,12 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>13</v>
-      </c>
-      <c r="J174" t="n">
-        <v>237</v>
-      </c>
-      <c r="K174" t="n">
-        <v>52.94117647058824</v>
-      </c>
-      <c r="L174" t="n">
-        <v>231.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
-        <v>229.85</v>
-      </c>
-      <c r="N174" t="n">
-        <v>230.7</v>
-      </c>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9169,28 +6987,12 @@
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>13</v>
-      </c>
-      <c r="J175" t="n">
-        <v>237</v>
-      </c>
-      <c r="K175" t="n">
-        <v>52.94117647058824</v>
-      </c>
-      <c r="L175" t="n">
-        <v>232.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
-        <v>230.15</v>
-      </c>
-      <c r="N175" t="n">
-        <v>230.8</v>
-      </c>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9220,28 +7022,12 @@
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>13</v>
-      </c>
-      <c r="J176" t="n">
-        <v>237</v>
-      </c>
-      <c r="K176" t="n">
-        <v>52.94117647058824</v>
-      </c>
-      <c r="L176" t="n">
-        <v>233.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
-        <v>230.45</v>
-      </c>
-      <c r="N176" t="n">
-        <v>230.8666666666667</v>
-      </c>
-      <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
-      <c r="Q176" t="inlineStr"/>
-      <c r="R176" t="inlineStr"/>
-      <c r="S176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9271,28 +7057,12 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>13</v>
-      </c>
-      <c r="J177" t="n">
-        <v>237</v>
-      </c>
-      <c r="K177" t="n">
-        <v>38.46153846153847</v>
-      </c>
-      <c r="L177" t="n">
-        <v>234</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
-        <v>230.8</v>
-      </c>
-      <c r="N177" t="n">
-        <v>230.9666666666667</v>
-      </c>
-      <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr"/>
-      <c r="Q177" t="inlineStr"/>
-      <c r="R177" t="inlineStr"/>
-      <c r="S177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9322,28 +7092,12 @@
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>13</v>
-      </c>
-      <c r="J178" t="n">
-        <v>237</v>
-      </c>
-      <c r="K178" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L178" t="n">
-        <v>234.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
-        <v>231.15</v>
-      </c>
-      <c r="N178" t="n">
-        <v>230.9666666666667</v>
-      </c>
-      <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr"/>
-      <c r="R178" t="inlineStr"/>
-      <c r="S178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9373,28 +7127,12 @@
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>13</v>
-      </c>
-      <c r="J179" t="n">
-        <v>237</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0</v>
-      </c>
-      <c r="L179" t="n">
-        <v>234.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
-        <v>231.5</v>
-      </c>
-      <c r="N179" t="n">
-        <v>231.0666666666667</v>
-      </c>
-      <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="inlineStr"/>
-      <c r="S179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9424,28 +7162,12 @@
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>12</v>
-      </c>
-      <c r="J180" t="n">
-        <v>238</v>
-      </c>
-      <c r="K180" t="n">
-        <v>60</v>
-      </c>
-      <c r="L180" t="n">
-        <v>234.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
-        <v>231.8</v>
-      </c>
-      <c r="N180" t="n">
-        <v>231.0333333333333</v>
-      </c>
-      <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9475,28 +7197,12 @@
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>12</v>
-      </c>
-      <c r="J181" t="n">
-        <v>238</v>
-      </c>
-      <c r="K181" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L181" t="n">
-        <v>234.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
-        <v>232.05</v>
-      </c>
-      <c r="N181" t="n">
-        <v>231.1</v>
-      </c>
-      <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr"/>
-      <c r="Q181" t="inlineStr"/>
-      <c r="R181" t="inlineStr"/>
-      <c r="S181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9526,28 +7232,12 @@
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>13</v>
-      </c>
-      <c r="J182" t="n">
-        <v>239</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0</v>
-      </c>
-      <c r="L182" t="n">
-        <v>234.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
-        <v>232.35</v>
-      </c>
-      <c r="N182" t="n">
-        <v>231.2333333333333</v>
-      </c>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
-      <c r="R182" t="inlineStr"/>
-      <c r="S182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9577,28 +7267,12 @@
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>12</v>
-      </c>
-      <c r="J183" t="n">
-        <v>240</v>
-      </c>
-      <c r="K183" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L183" t="n">
-        <v>234.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
-        <v>232.65</v>
-      </c>
-      <c r="N183" t="n">
-        <v>231.3</v>
-      </c>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9628,28 +7302,12 @@
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>12</v>
-      </c>
-      <c r="J184" t="n">
-        <v>240</v>
-      </c>
-      <c r="K184" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L184" t="n">
-        <v>234.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
-        <v>232.95</v>
-      </c>
-      <c r="N184" t="n">
-        <v>231.4333333333333</v>
-      </c>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
-      <c r="S184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9679,28 +7337,12 @@
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>10</v>
-      </c>
-      <c r="J185" t="n">
-        <v>242</v>
-      </c>
-      <c r="K185" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L185" t="n">
-        <v>234.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
-        <v>233.25</v>
-      </c>
-      <c r="N185" t="n">
-        <v>231.5333333333333</v>
-      </c>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
-      <c r="S185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9730,28 +7372,12 @@
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>8</v>
-      </c>
-      <c r="J186" t="n">
-        <v>244</v>
-      </c>
-      <c r="K186" t="n">
-        <v>-71.42857142857143</v>
-      </c>
-      <c r="L186" t="n">
-        <v>233.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
-        <v>233.45</v>
-      </c>
-      <c r="N186" t="n">
-        <v>231.5666666666667</v>
-      </c>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
-      <c r="S186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9781,28 +7407,12 @@
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>11</v>
-      </c>
-      <c r="J187" t="n">
-        <v>247</v>
-      </c>
-      <c r="K187" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L187" t="n">
-        <v>233.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
-        <v>233.8</v>
-      </c>
-      <c r="N187" t="n">
-        <v>231.7333333333333</v>
-      </c>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
-      <c r="S187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9832,28 +7442,12 @@
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>12</v>
-      </c>
-      <c r="J188" t="n">
-        <v>248</v>
-      </c>
-      <c r="K188" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L188" t="n">
-        <v>233.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
-        <v>234</v>
-      </c>
-      <c r="N188" t="n">
-        <v>231.9333333333333</v>
-      </c>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="inlineStr"/>
-      <c r="S188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9883,28 +7477,12 @@
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>12</v>
-      </c>
-      <c r="J189" t="n">
-        <v>248</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0</v>
-      </c>
-      <c r="L189" t="n">
-        <v>233.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
-        <v>234</v>
-      </c>
-      <c r="N189" t="n">
-        <v>232.1333333333333</v>
-      </c>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
-      <c r="R189" t="inlineStr"/>
-      <c r="S189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9934,28 +7512,12 @@
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>11</v>
-      </c>
-      <c r="J190" t="n">
-        <v>249</v>
-      </c>
-      <c r="K190" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L190" t="n">
-        <v>233.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
-        <v>233.9</v>
-      </c>
-      <c r="N190" t="n">
-        <v>232.3</v>
-      </c>
-      <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr"/>
-      <c r="Q190" t="inlineStr"/>
-      <c r="R190" t="inlineStr"/>
-      <c r="S190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9985,28 +7547,12 @@
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>10</v>
-      </c>
-      <c r="J191" t="n">
-        <v>250</v>
-      </c>
-      <c r="K191" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L191" t="n">
-        <v>233.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
-        <v>233.95</v>
-      </c>
-      <c r="N191" t="n">
-        <v>232.4</v>
-      </c>
-      <c r="O191" t="inlineStr"/>
-      <c r="P191" t="inlineStr"/>
-      <c r="Q191" t="inlineStr"/>
-      <c r="R191" t="inlineStr"/>
-      <c r="S191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10036,28 +7582,12 @@
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>10</v>
-      </c>
-      <c r="J192" t="n">
-        <v>250</v>
-      </c>
-      <c r="K192" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L192" t="n">
-        <v>232.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
-        <v>233.8</v>
-      </c>
-      <c r="N192" t="n">
-        <v>232.5</v>
-      </c>
-      <c r="O192" t="inlineStr"/>
-      <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
-      <c r="S192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10087,28 +7617,12 @@
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>12</v>
-      </c>
-      <c r="J193" t="n">
-        <v>252</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0</v>
-      </c>
-      <c r="L193" t="n">
-        <v>232.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
-        <v>233.75</v>
-      </c>
-      <c r="N193" t="n">
-        <v>232.7</v>
-      </c>
-      <c r="O193" t="inlineStr"/>
-      <c r="P193" t="inlineStr"/>
-      <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
-      <c r="S193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10138,28 +7652,12 @@
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>12</v>
-      </c>
-      <c r="J194" t="n">
-        <v>252</v>
-      </c>
-      <c r="K194" t="n">
-        <v>20</v>
-      </c>
-      <c r="L194" t="n">
-        <v>232.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
-        <v>233.7</v>
-      </c>
-      <c r="N194" t="n">
-        <v>232.9</v>
-      </c>
-      <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr"/>
-      <c r="Q194" t="inlineStr"/>
-      <c r="R194" t="inlineStr"/>
-      <c r="S194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10189,28 +7687,12 @@
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>11</v>
-      </c>
-      <c r="J195" t="n">
-        <v>253</v>
-      </c>
-      <c r="K195" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L195" t="n">
-        <v>232.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
-        <v>233.6</v>
-      </c>
-      <c r="N195" t="n">
-        <v>233.1333333333333</v>
-      </c>
-      <c r="O195" t="inlineStr"/>
-      <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
-      <c r="R195" t="inlineStr"/>
-      <c r="S195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10240,28 +7722,12 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>11</v>
-      </c>
-      <c r="J196" t="n">
-        <v>253</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0</v>
-      </c>
-      <c r="L196" t="n">
-        <v>233.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
-        <v>233.5</v>
-      </c>
-      <c r="N196" t="n">
-        <v>233.3666666666667</v>
-      </c>
-      <c r="O196" t="inlineStr"/>
-      <c r="P196" t="inlineStr"/>
-      <c r="Q196" t="inlineStr"/>
-      <c r="R196" t="inlineStr"/>
-      <c r="S196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10291,28 +7757,12 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>12</v>
-      </c>
-      <c r="J197" t="n">
-        <v>254</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0</v>
-      </c>
-      <c r="L197" t="n">
-        <v>233.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
-        <v>233.45</v>
-      </c>
-      <c r="N197" t="n">
-        <v>233.6333333333333</v>
-      </c>
-      <c r="O197" t="inlineStr"/>
-      <c r="P197" t="inlineStr"/>
-      <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
-      <c r="S197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10342,28 +7792,12 @@
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>6</v>
-      </c>
-      <c r="J198" t="n">
-        <v>260</v>
-      </c>
-      <c r="K198" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L198" t="n">
-        <v>232.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
-        <v>233.1</v>
-      </c>
-      <c r="N198" t="n">
-        <v>233.5666666666667</v>
-      </c>
-      <c r="O198" t="inlineStr"/>
-      <c r="P198" t="inlineStr"/>
-      <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
-      <c r="S198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10393,28 +7827,12 @@
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>11</v>
-      </c>
-      <c r="J199" t="n">
-        <v>265</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0</v>
-      </c>
-      <c r="L199" t="n">
-        <v>232.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
-        <v>233</v>
-      </c>
-      <c r="N199" t="n">
-        <v>233.5333333333333</v>
-      </c>
-      <c r="O199" t="inlineStr"/>
-      <c r="P199" t="inlineStr"/>
-      <c r="Q199" t="inlineStr"/>
-      <c r="R199" t="inlineStr"/>
-      <c r="S199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10444,28 +7862,12 @@
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>10</v>
-      </c>
-      <c r="J200" t="n">
-        <v>266</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0</v>
-      </c>
-      <c r="L200" t="n">
-        <v>232.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
-        <v>232.9</v>
-      </c>
-      <c r="N200" t="n">
-        <v>233.4333333333333</v>
-      </c>
-      <c r="O200" t="inlineStr"/>
-      <c r="P200" t="inlineStr"/>
-      <c r="Q200" t="inlineStr"/>
-      <c r="R200" t="inlineStr"/>
-      <c r="S200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10495,28 +7897,12 @@
         <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>6</v>
-      </c>
-      <c r="J201" t="n">
-        <v>270</v>
-      </c>
-      <c r="K201" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L201" t="n">
-        <v>232.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
-        <v>232.6</v>
-      </c>
-      <c r="N201" t="n">
-        <v>233.3333333333333</v>
-      </c>
-      <c r="O201" t="inlineStr"/>
-      <c r="P201" t="inlineStr"/>
-      <c r="Q201" t="inlineStr"/>
-      <c r="R201" t="inlineStr"/>
-      <c r="S201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10546,28 +7932,12 @@
         <v>0</v>
       </c>
       <c r="I202" t="n">
-        <v>10</v>
-      </c>
-      <c r="J202" t="n">
-        <v>274</v>
-      </c>
-      <c r="K202" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L202" t="n">
-        <v>232.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
-        <v>232.45</v>
-      </c>
-      <c r="N202" t="n">
-        <v>233.2333333333333</v>
-      </c>
-      <c r="O202" t="inlineStr"/>
-      <c r="P202" t="inlineStr"/>
-      <c r="Q202" t="inlineStr"/>
-      <c r="R202" t="inlineStr"/>
-      <c r="S202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10597,28 +7967,12 @@
         <v>0</v>
       </c>
       <c r="I203" t="n">
-        <v>8</v>
-      </c>
-      <c r="J203" t="n">
-        <v>276</v>
-      </c>
-      <c r="K203" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L203" t="n">
-        <v>231.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
-        <v>232.25</v>
-      </c>
-      <c r="N203" t="n">
-        <v>233.0666666666667</v>
-      </c>
-      <c r="O203" t="inlineStr"/>
-      <c r="P203" t="inlineStr"/>
-      <c r="Q203" t="inlineStr"/>
-      <c r="R203" t="inlineStr"/>
-      <c r="S203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10648,28 +8002,12 @@
         <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>8</v>
-      </c>
-      <c r="J204" t="n">
-        <v>276</v>
-      </c>
-      <c r="K204" t="n">
-        <v>-13.04347826086956</v>
-      </c>
-      <c r="L204" t="n">
-        <v>231.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
-        <v>232.05</v>
-      </c>
-      <c r="N204" t="n">
-        <v>232.9</v>
-      </c>
-      <c r="O204" t="inlineStr"/>
-      <c r="P204" t="inlineStr"/>
-      <c r="Q204" t="inlineStr"/>
-      <c r="R204" t="inlineStr"/>
-      <c r="S204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10699,28 +8037,12 @@
         <v>0</v>
       </c>
       <c r="I205" t="n">
-        <v>9</v>
-      </c>
-      <c r="J205" t="n">
-        <v>277</v>
-      </c>
-      <c r="K205" t="n">
-        <v>-8.333333333333332</v>
-      </c>
-      <c r="L205" t="n">
-        <v>231.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
-        <v>232</v>
-      </c>
-      <c r="N205" t="n">
-        <v>232.7666666666667</v>
-      </c>
-      <c r="O205" t="inlineStr"/>
-      <c r="P205" t="inlineStr"/>
-      <c r="Q205" t="inlineStr"/>
-      <c r="R205" t="inlineStr"/>
-      <c r="S205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10750,28 +8072,12 @@
         <v>0</v>
       </c>
       <c r="I206" t="n">
-        <v>9</v>
-      </c>
-      <c r="J206" t="n">
-        <v>277</v>
-      </c>
-      <c r="K206" t="n">
-        <v>-13.04347826086956</v>
-      </c>
-      <c r="L206" t="n">
-        <v>230.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
-        <v>232.05</v>
-      </c>
-      <c r="N206" t="n">
-        <v>232.6333333333333</v>
-      </c>
-      <c r="O206" t="inlineStr"/>
-      <c r="P206" t="inlineStr"/>
-      <c r="Q206" t="inlineStr"/>
-      <c r="R206" t="inlineStr"/>
-      <c r="S206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10801,28 +8107,12 @@
         <v>0</v>
       </c>
       <c r="I207" t="n">
-        <v>9</v>
-      </c>
-      <c r="J207" t="n">
-        <v>277</v>
-      </c>
-      <c r="K207" t="n">
-        <v>17.64705882352941</v>
-      </c>
-      <c r="L207" t="n">
-        <v>230.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
-        <v>231.95</v>
-      </c>
-      <c r="N207" t="n">
-        <v>232.5</v>
-      </c>
-      <c r="O207" t="inlineStr"/>
-      <c r="P207" t="inlineStr"/>
-      <c r="Q207" t="inlineStr"/>
-      <c r="R207" t="inlineStr"/>
-      <c r="S207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10852,28 +8142,12 @@
         <v>0</v>
       </c>
       <c r="I208" t="n">
-        <v>9</v>
-      </c>
-      <c r="J208" t="n">
-        <v>277</v>
-      </c>
-      <c r="K208" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L208" t="n">
-        <v>230.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
-        <v>231.8</v>
-      </c>
-      <c r="N208" t="n">
-        <v>232.3666666666667</v>
-      </c>
-      <c r="O208" t="inlineStr"/>
-      <c r="P208" t="inlineStr"/>
-      <c r="Q208" t="inlineStr"/>
-      <c r="R208" t="inlineStr"/>
-      <c r="S208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10903,28 +8177,12 @@
         <v>0</v>
       </c>
       <c r="I209" t="n">
-        <v>11</v>
-      </c>
-      <c r="J209" t="n">
-        <v>279</v>
-      </c>
-      <c r="K209" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L209" t="n">
-        <v>230.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
-        <v>231.75</v>
-      </c>
-      <c r="N209" t="n">
-        <v>232.3</v>
-      </c>
-      <c r="O209" t="inlineStr"/>
-      <c r="P209" t="inlineStr"/>
-      <c r="Q209" t="inlineStr"/>
-      <c r="R209" t="inlineStr"/>
-      <c r="S209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10954,28 +8212,12 @@
         <v>0</v>
       </c>
       <c r="I210" t="n">
-        <v>12</v>
-      </c>
-      <c r="J210" t="n">
-        <v>280</v>
-      </c>
-      <c r="K210" t="n">
-        <v>60</v>
-      </c>
-      <c r="L210" t="n">
-        <v>231.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
-        <v>231.8</v>
-      </c>
-      <c r="N210" t="n">
-        <v>232.3</v>
-      </c>
-      <c r="O210" t="inlineStr"/>
-      <c r="P210" t="inlineStr"/>
-      <c r="Q210" t="inlineStr"/>
-      <c r="R210" t="inlineStr"/>
-      <c r="S210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11005,28 +8247,12 @@
         <v>0</v>
       </c>
       <c r="I211" t="n">
-        <v>12</v>
-      </c>
-      <c r="J211" t="n">
-        <v>280</v>
-      </c>
-      <c r="K211" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L211" t="n">
-        <v>231.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
-        <v>231.9</v>
-      </c>
-      <c r="N211" t="n">
-        <v>232.3</v>
-      </c>
-      <c r="O211" t="inlineStr"/>
-      <c r="P211" t="inlineStr"/>
-      <c r="Q211" t="inlineStr"/>
-      <c r="R211" t="inlineStr"/>
-      <c r="S211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11056,28 +8282,12 @@
         <v>0</v>
       </c>
       <c r="I212" t="n">
-        <v>12</v>
-      </c>
-      <c r="J212" t="n">
-        <v>280</v>
-      </c>
-      <c r="K212" t="n">
-        <v>100</v>
-      </c>
-      <c r="L212" t="n">
-        <v>231.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
-        <v>232</v>
-      </c>
-      <c r="N212" t="n">
-        <v>232.2666666666667</v>
-      </c>
-      <c r="O212" t="inlineStr"/>
-      <c r="P212" t="inlineStr"/>
-      <c r="Q212" t="inlineStr"/>
-      <c r="R212" t="inlineStr"/>
-      <c r="S212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11107,28 +8317,12 @@
         <v>0</v>
       </c>
       <c r="I213" t="n">
-        <v>12</v>
-      </c>
-      <c r="J213" t="n">
-        <v>280</v>
-      </c>
-      <c r="K213" t="n">
-        <v>100</v>
-      </c>
-      <c r="L213" t="n">
-        <v>232.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
-        <v>232</v>
-      </c>
-      <c r="N213" t="n">
-        <v>232.2666666666667</v>
-      </c>
-      <c r="O213" t="inlineStr"/>
-      <c r="P213" t="inlineStr"/>
-      <c r="Q213" t="inlineStr"/>
-      <c r="R213" t="inlineStr"/>
-      <c r="S213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11158,28 +8352,12 @@
         <v>0</v>
       </c>
       <c r="I214" t="n">
-        <v>13</v>
-      </c>
-      <c r="J214" t="n">
-        <v>281</v>
-      </c>
-      <c r="K214" t="n">
-        <v>100</v>
-      </c>
-      <c r="L214" t="n">
-        <v>232.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
-        <v>232.05</v>
-      </c>
-      <c r="N214" t="n">
-        <v>232.3</v>
-      </c>
-      <c r="O214" t="inlineStr"/>
-      <c r="P214" t="inlineStr"/>
-      <c r="Q214" t="inlineStr"/>
-      <c r="R214" t="inlineStr"/>
-      <c r="S214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11209,28 +8387,12 @@
         <v>0</v>
       </c>
       <c r="I215" t="n">
-        <v>15</v>
-      </c>
-      <c r="J215" t="n">
-        <v>283</v>
-      </c>
-      <c r="K215" t="n">
-        <v>100</v>
-      </c>
-      <c r="L215" t="n">
-        <v>233.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
-        <v>232.25</v>
-      </c>
-      <c r="N215" t="n">
-        <v>232.4666666666667</v>
-      </c>
-      <c r="O215" t="inlineStr"/>
-      <c r="P215" t="inlineStr"/>
-      <c r="Q215" t="inlineStr"/>
-      <c r="R215" t="inlineStr"/>
-      <c r="S215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11260,28 +8422,12 @@
         <v>0</v>
       </c>
       <c r="I216" t="n">
-        <v>13</v>
-      </c>
-      <c r="J216" t="n">
-        <v>285</v>
-      </c>
-      <c r="K216" t="n">
-        <v>50</v>
-      </c>
-      <c r="L216" t="n">
-        <v>233.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
-        <v>232.35</v>
-      </c>
-      <c r="N216" t="n">
-        <v>232.6333333333333</v>
-      </c>
-      <c r="O216" t="inlineStr"/>
-      <c r="P216" t="inlineStr"/>
-      <c r="Q216" t="inlineStr"/>
-      <c r="R216" t="inlineStr"/>
-      <c r="S216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11311,28 +8457,12 @@
         <v>0</v>
       </c>
       <c r="I217" t="n">
-        <v>16</v>
-      </c>
-      <c r="J217" t="n">
-        <v>288</v>
-      </c>
-      <c r="K217" t="n">
-        <v>63.63636363636363</v>
-      </c>
-      <c r="L217" t="n">
-        <v>234.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
-        <v>232.55</v>
-      </c>
-      <c r="N217" t="n">
-        <v>232.8</v>
-      </c>
-      <c r="O217" t="inlineStr"/>
-      <c r="P217" t="inlineStr"/>
-      <c r="Q217" t="inlineStr"/>
-      <c r="R217" t="inlineStr"/>
-      <c r="S217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11362,28 +8492,12 @@
         <v>0</v>
       </c>
       <c r="I218" t="n">
-        <v>18</v>
-      </c>
-      <c r="J218" t="n">
-        <v>290</v>
-      </c>
-      <c r="K218" t="n">
-        <v>63.63636363636363</v>
-      </c>
-      <c r="L218" t="n">
-        <v>235.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
-        <v>233.15</v>
-      </c>
-      <c r="N218" t="n">
-        <v>233</v>
-      </c>
-      <c r="O218" t="inlineStr"/>
-      <c r="P218" t="inlineStr"/>
-      <c r="Q218" t="inlineStr"/>
-      <c r="R218" t="inlineStr"/>
-      <c r="S218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11413,28 +8527,12 @@
         <v>0</v>
       </c>
       <c r="I219" t="n">
-        <v>18</v>
-      </c>
-      <c r="J219" t="n">
-        <v>290</v>
-      </c>
-      <c r="K219" t="n">
-        <v>60</v>
-      </c>
-      <c r="L219" t="n">
-        <v>236.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
-        <v>233.5</v>
-      </c>
-      <c r="N219" t="n">
-        <v>233.2</v>
-      </c>
-      <c r="O219" t="inlineStr"/>
-      <c r="P219" t="inlineStr"/>
-      <c r="Q219" t="inlineStr"/>
-      <c r="R219" t="inlineStr"/>
-      <c r="S219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11464,28 +8562,12 @@
         <v>0</v>
       </c>
       <c r="I220" t="n">
-        <v>18</v>
-      </c>
-      <c r="J220" t="n">
-        <v>290</v>
-      </c>
-      <c r="K220" t="n">
-        <v>60</v>
-      </c>
-      <c r="L220" t="n">
-        <v>236.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
-        <v>233.9</v>
-      </c>
-      <c r="N220" t="n">
-        <v>233.4333333333333</v>
-      </c>
-      <c r="O220" t="inlineStr"/>
-      <c r="P220" t="inlineStr"/>
-      <c r="Q220" t="inlineStr"/>
-      <c r="R220" t="inlineStr"/>
-      <c r="S220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11515,28 +8597,12 @@
         <v>0</v>
       </c>
       <c r="I221" t="n">
-        <v>18</v>
-      </c>
-      <c r="J221" t="n">
-        <v>290</v>
-      </c>
-      <c r="K221" t="n">
-        <v>60</v>
-      </c>
-      <c r="L221" t="n">
-        <v>237.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
-        <v>234.5</v>
-      </c>
-      <c r="N221" t="n">
-        <v>233.7</v>
-      </c>
-      <c r="O221" t="inlineStr"/>
-      <c r="P221" t="inlineStr"/>
-      <c r="Q221" t="inlineStr"/>
-      <c r="R221" t="inlineStr"/>
-      <c r="S221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11566,28 +8632,12 @@
         <v>0</v>
       </c>
       <c r="I222" t="n">
-        <v>20</v>
-      </c>
-      <c r="J222" t="n">
-        <v>292</v>
-      </c>
-      <c r="K222" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L222" t="n">
-        <v>238.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
-        <v>235</v>
-      </c>
-      <c r="N222" t="n">
-        <v>234.0333333333333</v>
-      </c>
-      <c r="O222" t="inlineStr"/>
-      <c r="P222" t="inlineStr"/>
-      <c r="Q222" t="inlineStr"/>
-      <c r="R222" t="inlineStr"/>
-      <c r="S222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11617,28 +8667,12 @@
         <v>0</v>
       </c>
       <c r="I223" t="n">
-        <v>20</v>
-      </c>
-      <c r="J223" t="n">
-        <v>292</v>
-      </c>
-      <c r="K223" t="n">
-        <v>63.63636363636363</v>
-      </c>
-      <c r="L223" t="n">
-        <v>238.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
-        <v>235.6</v>
-      </c>
-      <c r="N223" t="n">
-        <v>234.3</v>
-      </c>
-      <c r="O223" t="inlineStr"/>
-      <c r="P223" t="inlineStr"/>
-      <c r="Q223" t="inlineStr"/>
-      <c r="R223" t="inlineStr"/>
-      <c r="S223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11668,28 +8702,12 @@
         <v>0</v>
       </c>
       <c r="I224" t="n">
-        <v>20</v>
-      </c>
-      <c r="J224" t="n">
-        <v>292</v>
-      </c>
-      <c r="K224" t="n">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="L224" t="n">
-        <v>239.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="N224" t="n">
-        <v>234.5666666666667</v>
-      </c>
-      <c r="O224" t="inlineStr"/>
-      <c r="P224" t="inlineStr"/>
-      <c r="Q224" t="inlineStr"/>
-      <c r="R224" t="inlineStr"/>
-      <c r="S224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11719,28 +8737,12 @@
         <v>0</v>
       </c>
       <c r="I225" t="n">
-        <v>22</v>
-      </c>
-      <c r="J225" t="n">
-        <v>294</v>
-      </c>
-      <c r="K225" t="n">
-        <v>100</v>
-      </c>
-      <c r="L225" t="n">
-        <v>240.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
-        <v>236.85</v>
-      </c>
-      <c r="N225" t="n">
-        <v>234.9333333333333</v>
-      </c>
-      <c r="O225" t="inlineStr"/>
-      <c r="P225" t="inlineStr"/>
-      <c r="Q225" t="inlineStr"/>
-      <c r="R225" t="inlineStr"/>
-      <c r="S225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11770,28 +8772,12 @@
         <v>0</v>
       </c>
       <c r="I226" t="n">
-        <v>21</v>
-      </c>
-      <c r="J226" t="n">
-        <v>295</v>
-      </c>
-      <c r="K226" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="L226" t="n">
-        <v>241.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
-        <v>237.45</v>
-      </c>
-      <c r="N226" t="n">
-        <v>235.2666666666667</v>
-      </c>
-      <c r="O226" t="inlineStr"/>
-      <c r="P226" t="inlineStr"/>
-      <c r="Q226" t="inlineStr"/>
-      <c r="R226" t="inlineStr"/>
-      <c r="S226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11821,28 +8807,12 @@
         <v>0</v>
       </c>
       <c r="I227" t="n">
-        <v>22</v>
-      </c>
-      <c r="J227" t="n">
-        <v>296</v>
-      </c>
-      <c r="K227" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L227" t="n">
-        <v>241.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
-        <v>238.1</v>
-      </c>
-      <c r="N227" t="n">
-        <v>235.6</v>
-      </c>
-      <c r="O227" t="inlineStr"/>
-      <c r="P227" t="inlineStr"/>
-      <c r="Q227" t="inlineStr"/>
-      <c r="R227" t="inlineStr"/>
-      <c r="S227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11872,28 +8842,12 @@
         <v>0</v>
       </c>
       <c r="I228" t="n">
-        <v>21</v>
-      </c>
-      <c r="J228" t="n">
-        <v>297</v>
-      </c>
-      <c r="K228" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L228" t="n">
-        <v>242</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
-        <v>238.7</v>
-      </c>
-      <c r="N228" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="O228" t="inlineStr"/>
-      <c r="P228" t="inlineStr"/>
-      <c r="Q228" t="inlineStr"/>
-      <c r="R228" t="inlineStr"/>
-      <c r="S228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11923,28 +8877,12 @@
         <v>0</v>
       </c>
       <c r="I229" t="n">
-        <v>21</v>
-      </c>
-      <c r="J229" t="n">
-        <v>297</v>
-      </c>
-      <c r="K229" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L229" t="n">
-        <v>242.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
-        <v>239.2</v>
-      </c>
-      <c r="N229" t="n">
-        <v>236.4333333333333</v>
-      </c>
-      <c r="O229" t="inlineStr"/>
-      <c r="P229" t="inlineStr"/>
-      <c r="Q229" t="inlineStr"/>
-      <c r="R229" t="inlineStr"/>
-      <c r="S229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11974,28 +8912,12 @@
         <v>0</v>
       </c>
       <c r="I230" t="n">
-        <v>21</v>
-      </c>
-      <c r="J230" t="n">
-        <v>297</v>
-      </c>
-      <c r="K230" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L230" t="n">
-        <v>242.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
-        <v>239.65</v>
-      </c>
-      <c r="N230" t="n">
-        <v>236.8</v>
-      </c>
-      <c r="O230" t="inlineStr"/>
-      <c r="P230" t="inlineStr"/>
-      <c r="Q230" t="inlineStr"/>
-      <c r="R230" t="inlineStr"/>
-      <c r="S230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12025,28 +8947,12 @@
         <v>0</v>
       </c>
       <c r="I231" t="n">
-        <v>20</v>
-      </c>
-      <c r="J231" t="n">
-        <v>298</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0</v>
-      </c>
-      <c r="L231" t="n">
-        <v>242.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
-        <v>240.05</v>
-      </c>
-      <c r="N231" t="n">
-        <v>237.2666666666667</v>
-      </c>
-      <c r="O231" t="inlineStr"/>
-      <c r="P231" t="inlineStr"/>
-      <c r="Q231" t="inlineStr"/>
-      <c r="R231" t="inlineStr"/>
-      <c r="S231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12076,28 +8982,12 @@
         <v>0</v>
       </c>
       <c r="I232" t="n">
-        <v>20</v>
-      </c>
-      <c r="J232" t="n">
-        <v>298</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0</v>
-      </c>
-      <c r="L232" t="n">
-        <v>242.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
-        <v>240.45</v>
-      </c>
-      <c r="N232" t="n">
-        <v>237.6</v>
-      </c>
-      <c r="O232" t="inlineStr"/>
-      <c r="P232" t="inlineStr"/>
-      <c r="Q232" t="inlineStr"/>
-      <c r="R232" t="inlineStr"/>
-      <c r="S232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12127,28 +9017,12 @@
         <v>0</v>
       </c>
       <c r="I233" t="n">
-        <v>19</v>
-      </c>
-      <c r="J233" t="n">
-        <v>299</v>
-      </c>
-      <c r="K233" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L233" t="n">
-        <v>242.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
-        <v>240.8</v>
-      </c>
-      <c r="N233" t="n">
-        <v>237.9666666666667</v>
-      </c>
-      <c r="O233" t="inlineStr"/>
-      <c r="P233" t="inlineStr"/>
-      <c r="Q233" t="inlineStr"/>
-      <c r="R233" t="inlineStr"/>
-      <c r="S233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12178,28 +9052,12 @@
         <v>0</v>
       </c>
       <c r="I234" t="n">
-        <v>20</v>
-      </c>
-      <c r="J234" t="n">
-        <v>300</v>
-      </c>
-      <c r="K234" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L234" t="n">
-        <v>242.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
-        <v>241.15</v>
-      </c>
-      <c r="N234" t="n">
-        <v>238.3666666666667</v>
-      </c>
-      <c r="O234" t="inlineStr"/>
-      <c r="P234" t="inlineStr"/>
-      <c r="Q234" t="inlineStr"/>
-      <c r="R234" t="inlineStr"/>
-      <c r="S234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12229,28 +9087,12 @@
         <v>0</v>
       </c>
       <c r="I235" t="n">
-        <v>19</v>
-      </c>
-      <c r="J235" t="n">
-        <v>301</v>
-      </c>
-      <c r="K235" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L235" t="n">
-        <v>242.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
-        <v>241.35</v>
-      </c>
-      <c r="N235" t="n">
-        <v>238.7</v>
-      </c>
-      <c r="O235" t="inlineStr"/>
-      <c r="P235" t="inlineStr"/>
-      <c r="Q235" t="inlineStr"/>
-      <c r="R235" t="inlineStr"/>
-      <c r="S235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12280,28 +9122,12 @@
         <v>0</v>
       </c>
       <c r="I236" t="n">
-        <v>18</v>
-      </c>
-      <c r="J236" t="n">
-        <v>302</v>
-      </c>
-      <c r="K236" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L236" t="n">
-        <v>242.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
-        <v>241.6</v>
-      </c>
-      <c r="N236" t="n">
-        <v>239</v>
-      </c>
-      <c r="O236" t="inlineStr"/>
-      <c r="P236" t="inlineStr"/>
-      <c r="Q236" t="inlineStr"/>
-      <c r="R236" t="inlineStr"/>
-      <c r="S236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12331,28 +9157,12 @@
         <v>0</v>
       </c>
       <c r="I237" t="n">
-        <v>17</v>
-      </c>
-      <c r="J237" t="n">
-        <v>303</v>
-      </c>
-      <c r="K237" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L237" t="n">
-        <v>241.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
-        <v>241.65</v>
-      </c>
-      <c r="N237" t="n">
-        <v>239.2666666666667</v>
-      </c>
-      <c r="O237" t="inlineStr"/>
-      <c r="P237" t="inlineStr"/>
-      <c r="Q237" t="inlineStr"/>
-      <c r="R237" t="inlineStr"/>
-      <c r="S237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12382,28 +9192,12 @@
         <v>0</v>
       </c>
       <c r="I238" t="n">
-        <v>17</v>
-      </c>
-      <c r="J238" t="n">
-        <v>303</v>
-      </c>
-      <c r="K238" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L238" t="n">
-        <v>241.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
-        <v>241.6</v>
-      </c>
-      <c r="N238" t="n">
-        <v>239.5333333333333</v>
-      </c>
-      <c r="O238" t="inlineStr"/>
-      <c r="P238" t="inlineStr"/>
-      <c r="Q238" t="inlineStr"/>
-      <c r="R238" t="inlineStr"/>
-      <c r="S238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12433,28 +9227,12 @@
         <v>0</v>
       </c>
       <c r="I239" t="n">
-        <v>16</v>
-      </c>
-      <c r="J239" t="n">
-        <v>304</v>
-      </c>
-      <c r="K239" t="n">
-        <v>-71.42857142857143</v>
-      </c>
-      <c r="L239" t="n">
-        <v>240.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
-        <v>241.5</v>
-      </c>
-      <c r="N239" t="n">
-        <v>239.7</v>
-      </c>
-      <c r="O239" t="inlineStr"/>
-      <c r="P239" t="inlineStr"/>
-      <c r="Q239" t="inlineStr"/>
-      <c r="R239" t="inlineStr"/>
-      <c r="S239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12484,28 +9262,12 @@
         <v>0</v>
       </c>
       <c r="I240" t="n">
-        <v>14</v>
-      </c>
-      <c r="J240" t="n">
-        <v>306</v>
-      </c>
-      <c r="K240" t="n">
-        <v>-75</v>
-      </c>
-      <c r="L240" t="n">
-        <v>240</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
-        <v>241.3</v>
-      </c>
-      <c r="N240" t="n">
-        <v>239.7666666666667</v>
-      </c>
-      <c r="O240" t="inlineStr"/>
-      <c r="P240" t="inlineStr"/>
-      <c r="Q240" t="inlineStr"/>
-      <c r="R240" t="inlineStr"/>
-      <c r="S240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12535,28 +9297,12 @@
         <v>0</v>
       </c>
       <c r="I241" t="n">
-        <v>15</v>
-      </c>
-      <c r="J241" t="n">
-        <v>307</v>
-      </c>
-      <c r="K241" t="n">
-        <v>-55.55555555555556</v>
-      </c>
-      <c r="L241" t="n">
-        <v>239.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
-        <v>241.15</v>
-      </c>
-      <c r="N241" t="n">
-        <v>239.8666666666667</v>
-      </c>
-      <c r="O241" t="inlineStr"/>
-      <c r="P241" t="inlineStr"/>
-      <c r="Q241" t="inlineStr"/>
-      <c r="R241" t="inlineStr"/>
-      <c r="S241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12586,28 +9332,12 @@
         <v>0</v>
       </c>
       <c r="I242" t="n">
-        <v>14</v>
-      </c>
-      <c r="J242" t="n">
-        <v>308</v>
-      </c>
-      <c r="K242" t="n">
-        <v>-55.55555555555556</v>
-      </c>
-      <c r="L242" t="n">
-        <v>238.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
-        <v>240.85</v>
-      </c>
-      <c r="N242" t="n">
-        <v>239.9333333333333</v>
-      </c>
-      <c r="O242" t="inlineStr"/>
-      <c r="P242" t="inlineStr"/>
-      <c r="Q242" t="inlineStr"/>
-      <c r="R242" t="inlineStr"/>
-      <c r="S242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12637,28 +9367,12 @@
         <v>0</v>
       </c>
       <c r="I243" t="n">
-        <v>13</v>
-      </c>
-      <c r="J243" t="n">
-        <v>309</v>
-      </c>
-      <c r="K243" t="n">
-        <v>-77.77777777777779</v>
-      </c>
-      <c r="L243" t="n">
-        <v>238.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
-        <v>240.5</v>
-      </c>
-      <c r="N243" t="n">
-        <v>239.9666666666667</v>
-      </c>
-      <c r="O243" t="inlineStr"/>
-      <c r="P243" t="inlineStr"/>
-      <c r="Q243" t="inlineStr"/>
-      <c r="R243" t="inlineStr"/>
-      <c r="S243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12688,28 +9402,12 @@
         <v>0</v>
       </c>
       <c r="I244" t="n">
-        <v>11</v>
-      </c>
-      <c r="J244" t="n">
-        <v>311</v>
-      </c>
-      <c r="K244" t="n">
-        <v>-80</v>
-      </c>
-      <c r="L244" t="n">
-        <v>237.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
-        <v>240.05</v>
-      </c>
-      <c r="N244" t="n">
-        <v>239.9</v>
-      </c>
-      <c r="O244" t="inlineStr"/>
-      <c r="P244" t="inlineStr"/>
-      <c r="Q244" t="inlineStr"/>
-      <c r="R244" t="inlineStr"/>
-      <c r="S244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12739,28 +9437,12 @@
         <v>0</v>
       </c>
       <c r="I245" t="n">
-        <v>9</v>
-      </c>
-      <c r="J245" t="n">
-        <v>313</v>
-      </c>
-      <c r="K245" t="n">
-        <v>-81.81818181818183</v>
-      </c>
-      <c r="L245" t="n">
-        <v>236.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
-        <v>239.4</v>
-      </c>
-      <c r="N245" t="n">
-        <v>239.7</v>
-      </c>
-      <c r="O245" t="inlineStr"/>
-      <c r="P245" t="inlineStr"/>
-      <c r="Q245" t="inlineStr"/>
-      <c r="R245" t="inlineStr"/>
-      <c r="S245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12790,28 +9472,12 @@
         <v>0</v>
       </c>
       <c r="I246" t="n">
-        <v>11</v>
-      </c>
-      <c r="J246" t="n">
-        <v>315</v>
-      </c>
-      <c r="K246" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L246" t="n">
-        <v>235.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
-        <v>238.9</v>
-      </c>
-      <c r="N246" t="n">
-        <v>239.6333333333333</v>
-      </c>
-      <c r="O246" t="inlineStr"/>
-      <c r="P246" t="inlineStr"/>
-      <c r="Q246" t="inlineStr"/>
-      <c r="R246" t="inlineStr"/>
-      <c r="S246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12841,28 +9507,12 @@
         <v>0</v>
       </c>
       <c r="I247" t="n">
-        <v>13</v>
-      </c>
-      <c r="J247" t="n">
-        <v>317</v>
-      </c>
-      <c r="K247" t="n">
-        <v>-28.57142857142857</v>
-      </c>
-      <c r="L247" t="n">
-        <v>235.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
-        <v>238.45</v>
-      </c>
-      <c r="N247" t="n">
-        <v>239.5333333333333</v>
-      </c>
-      <c r="O247" t="inlineStr"/>
-      <c r="P247" t="inlineStr"/>
-      <c r="Q247" t="inlineStr"/>
-      <c r="R247" t="inlineStr"/>
-      <c r="S247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12892,28 +9542,12 @@
         <v>0</v>
       </c>
       <c r="I248" t="n">
-        <v>13</v>
-      </c>
-      <c r="J248" t="n">
-        <v>317</v>
-      </c>
-      <c r="K248" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L248" t="n">
-        <v>234.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
-        <v>238.05</v>
-      </c>
-      <c r="N248" t="n">
-        <v>239.3666666666667</v>
-      </c>
-      <c r="O248" t="inlineStr"/>
-      <c r="P248" t="inlineStr"/>
-      <c r="Q248" t="inlineStr"/>
-      <c r="R248" t="inlineStr"/>
-      <c r="S248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12943,1099 +9577,12 @@
         <v>0</v>
       </c>
       <c r="I249" t="n">
-        <v>13</v>
-      </c>
-      <c r="J249" t="n">
-        <v>317</v>
-      </c>
-      <c r="K249" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L249" t="n">
-        <v>234.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
-        <v>237.65</v>
-      </c>
-      <c r="N249" t="n">
-        <v>239.2</v>
-      </c>
-      <c r="O249" t="inlineStr"/>
-      <c r="P249" t="inlineStr"/>
-      <c r="Q249" t="inlineStr"/>
-      <c r="R249" t="inlineStr"/>
-      <c r="S249" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>235</v>
-      </c>
-      <c r="C250" t="n">
-        <v>235</v>
-      </c>
-      <c r="D250" t="n">
-        <v>235</v>
-      </c>
-      <c r="E250" t="n">
-        <v>235</v>
-      </c>
-      <c r="F250" t="n">
-        <v>13694.4834</v>
-      </c>
-      <c r="G250" t="n">
-        <v>236.2333333333333</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="n">
-        <v>13</v>
-      </c>
-      <c r="J250" t="n">
-        <v>317</v>
-      </c>
-      <c r="K250" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L250" t="n">
-        <v>234.5</v>
-      </c>
-      <c r="M250" t="n">
-        <v>237.25</v>
-      </c>
-      <c r="N250" t="n">
-        <v>239.0333333333333</v>
-      </c>
-      <c r="O250" t="inlineStr"/>
-      <c r="P250" t="inlineStr"/>
-      <c r="Q250" t="inlineStr"/>
-      <c r="R250" t="inlineStr"/>
-      <c r="S250" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>235</v>
-      </c>
-      <c r="C251" t="n">
-        <v>236</v>
-      </c>
-      <c r="D251" t="n">
-        <v>236</v>
-      </c>
-      <c r="E251" t="n">
-        <v>235</v>
-      </c>
-      <c r="F251" t="n">
-        <v>83.85899999999999</v>
-      </c>
-      <c r="G251" t="n">
-        <v>236.3</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>14</v>
-      </c>
-      <c r="J251" t="n">
-        <v>318</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0</v>
-      </c>
-      <c r="L251" t="n">
-        <v>234.4</v>
-      </c>
-      <c r="M251" t="n">
-        <v>236.95</v>
-      </c>
-      <c r="N251" t="n">
-        <v>238.9</v>
-      </c>
-      <c r="O251" t="inlineStr"/>
-      <c r="P251" t="inlineStr"/>
-      <c r="Q251" t="inlineStr"/>
-      <c r="R251" t="inlineStr"/>
-      <c r="S251" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>236</v>
-      </c>
-      <c r="C252" t="n">
-        <v>236</v>
-      </c>
-      <c r="D252" t="n">
-        <v>236</v>
-      </c>
-      <c r="E252" t="n">
-        <v>236</v>
-      </c>
-      <c r="F252" t="n">
-        <v>1591.3674</v>
-      </c>
-      <c r="G252" t="n">
-        <v>236.3666666666667</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="n">
-        <v>14</v>
-      </c>
-      <c r="J252" t="n">
-        <v>318</v>
-      </c>
-      <c r="K252" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L252" t="n">
-        <v>234.4</v>
-      </c>
-      <c r="M252" t="n">
-        <v>236.65</v>
-      </c>
-      <c r="N252" t="n">
-        <v>238.7</v>
-      </c>
-      <c r="O252" t="inlineStr"/>
-      <c r="P252" t="inlineStr"/>
-      <c r="Q252" t="inlineStr"/>
-      <c r="R252" t="inlineStr"/>
-      <c r="S252" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>236</v>
-      </c>
-      <c r="C253" t="n">
-        <v>238</v>
-      </c>
-      <c r="D253" t="n">
-        <v>238</v>
-      </c>
-      <c r="E253" t="n">
-        <v>236</v>
-      </c>
-      <c r="F253" t="n">
-        <v>582.0349</v>
-      </c>
-      <c r="G253" t="n">
-        <v>236.4333333333333</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="n">
-        <v>16</v>
-      </c>
-      <c r="J253" t="n">
-        <v>320</v>
-      </c>
-      <c r="K253" t="n">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="L253" t="n">
-        <v>234.7</v>
-      </c>
-      <c r="M253" t="n">
-        <v>236.5</v>
-      </c>
-      <c r="N253" t="n">
-        <v>238.5666666666667</v>
-      </c>
-      <c r="O253" t="inlineStr"/>
-      <c r="P253" t="inlineStr"/>
-      <c r="Q253" t="inlineStr"/>
-      <c r="R253" t="inlineStr"/>
-      <c r="S253" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>238</v>
-      </c>
-      <c r="C254" t="n">
-        <v>238</v>
-      </c>
-      <c r="D254" t="n">
-        <v>238</v>
-      </c>
-      <c r="E254" t="n">
-        <v>238</v>
-      </c>
-      <c r="F254" t="n">
-        <v>2.417</v>
-      </c>
-      <c r="G254" t="n">
-        <v>236.5</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="n">
-        <v>16</v>
-      </c>
-      <c r="J254" t="n">
-        <v>320</v>
-      </c>
-      <c r="K254" t="n">
-        <v>100</v>
-      </c>
-      <c r="L254" t="n">
-        <v>235.2</v>
-      </c>
-      <c r="M254" t="n">
-        <v>236.3</v>
-      </c>
-      <c r="N254" t="n">
-        <v>238.4333333333333</v>
-      </c>
-      <c r="O254" t="inlineStr"/>
-      <c r="P254" t="inlineStr"/>
-      <c r="Q254" t="inlineStr"/>
-      <c r="R254" t="inlineStr"/>
-      <c r="S254" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>236</v>
-      </c>
-      <c r="C255" t="n">
-        <v>237</v>
-      </c>
-      <c r="D255" t="n">
-        <v>237</v>
-      </c>
-      <c r="E255" t="n">
-        <v>236</v>
-      </c>
-      <c r="F255" t="n">
-        <v>868.8008</v>
-      </c>
-      <c r="G255" t="n">
-        <v>236.5666666666667</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="n">
-        <v>15</v>
-      </c>
-      <c r="J255" t="n">
-        <v>321</v>
-      </c>
-      <c r="K255" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L255" t="n">
-        <v>235.8</v>
-      </c>
-      <c r="M255" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="N255" t="n">
-        <v>238.2</v>
-      </c>
-      <c r="O255" t="inlineStr"/>
-      <c r="P255" t="inlineStr"/>
-      <c r="Q255" t="inlineStr"/>
-      <c r="R255" t="inlineStr"/>
-      <c r="S255" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>237</v>
-      </c>
-      <c r="C256" t="n">
-        <v>238</v>
-      </c>
-      <c r="D256" t="n">
-        <v>238</v>
-      </c>
-      <c r="E256" t="n">
-        <v>237</v>
-      </c>
-      <c r="F256" t="n">
-        <v>993.9218</v>
-      </c>
-      <c r="G256" t="n">
-        <v>236.65</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="n">
-        <v>16</v>
-      </c>
-      <c r="J256" t="n">
-        <v>322</v>
-      </c>
-      <c r="K256" t="n">
-        <v>60</v>
-      </c>
-      <c r="L256" t="n">
-        <v>236.3</v>
-      </c>
-      <c r="M256" t="n">
-        <v>236</v>
-      </c>
-      <c r="N256" t="n">
-        <v>238.0333333333333</v>
-      </c>
-      <c r="O256" t="inlineStr"/>
-      <c r="P256" t="inlineStr"/>
-      <c r="Q256" t="inlineStr"/>
-      <c r="R256" t="inlineStr"/>
-      <c r="S256" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>238</v>
-      </c>
-      <c r="C257" t="n">
-        <v>238</v>
-      </c>
-      <c r="D257" t="n">
-        <v>238</v>
-      </c>
-      <c r="E257" t="n">
-        <v>238</v>
-      </c>
-      <c r="F257" t="n">
-        <v>5219.1418</v>
-      </c>
-      <c r="G257" t="n">
-        <v>236.7166666666667</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="n">
-        <v>16</v>
-      </c>
-      <c r="J257" t="n">
-        <v>322</v>
-      </c>
-      <c r="K257" t="n">
-        <v>60</v>
-      </c>
-      <c r="L257" t="n">
-        <v>236.6</v>
-      </c>
-      <c r="M257" t="n">
-        <v>235.95</v>
-      </c>
-      <c r="N257" t="n">
-        <v>237.8333333333333</v>
-      </c>
-      <c r="O257" t="inlineStr"/>
-      <c r="P257" t="inlineStr"/>
-      <c r="Q257" t="inlineStr"/>
-      <c r="R257" t="inlineStr"/>
-      <c r="S257" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>236</v>
-      </c>
-      <c r="C258" t="n">
-        <v>238</v>
-      </c>
-      <c r="D258" t="n">
-        <v>238</v>
-      </c>
-      <c r="E258" t="n">
-        <v>236</v>
-      </c>
-      <c r="F258" t="n">
-        <v>11.3959</v>
-      </c>
-      <c r="G258" t="n">
-        <v>236.8833333333333</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="n">
-        <v>16</v>
-      </c>
-      <c r="J258" t="n">
-        <v>322</v>
-      </c>
-      <c r="K258" t="n">
-        <v>60</v>
-      </c>
-      <c r="L258" t="n">
-        <v>236.9</v>
-      </c>
-      <c r="M258" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="N258" t="n">
-        <v>237.6666666666667</v>
-      </c>
-      <c r="O258" t="inlineStr"/>
-      <c r="P258" t="inlineStr"/>
-      <c r="Q258" t="inlineStr"/>
-      <c r="R258" t="inlineStr"/>
-      <c r="S258" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>236</v>
-      </c>
-      <c r="C259" t="n">
-        <v>238</v>
-      </c>
-      <c r="D259" t="n">
-        <v>238</v>
-      </c>
-      <c r="E259" t="n">
-        <v>233</v>
-      </c>
-      <c r="F259" t="n">
-        <v>5449.8911</v>
-      </c>
-      <c r="G259" t="n">
-        <v>236.9666666666667</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="n">
-        <v>16</v>
-      </c>
-      <c r="J259" t="n">
-        <v>322</v>
-      </c>
-      <c r="K259" t="n">
-        <v>60</v>
-      </c>
-      <c r="L259" t="n">
-        <v>237.2</v>
-      </c>
-      <c r="M259" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="N259" t="n">
-        <v>237.5</v>
-      </c>
-      <c r="O259" t="inlineStr"/>
-      <c r="P259" t="inlineStr"/>
-      <c r="Q259" t="inlineStr"/>
-      <c r="R259" t="inlineStr"/>
-      <c r="S259" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>237</v>
-      </c>
-      <c r="C260" t="n">
-        <v>237</v>
-      </c>
-      <c r="D260" t="n">
-        <v>237</v>
-      </c>
-      <c r="E260" t="n">
-        <v>237</v>
-      </c>
-      <c r="F260" t="n">
-        <v>3</v>
-      </c>
-      <c r="G260" t="n">
-        <v>237.05</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="n">
-        <v>15</v>
-      </c>
-      <c r="J260" t="n">
-        <v>323</v>
-      </c>
-      <c r="K260" t="n">
-        <v>20</v>
-      </c>
-      <c r="L260" t="n">
-        <v>237.4</v>
-      </c>
-      <c r="M260" t="n">
-        <v>235.95</v>
-      </c>
-      <c r="N260" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="O260" t="inlineStr"/>
-      <c r="P260" t="inlineStr"/>
-      <c r="Q260" t="inlineStr"/>
-      <c r="R260" t="inlineStr"/>
-      <c r="S260" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>237</v>
-      </c>
-      <c r="C261" t="n">
-        <v>237</v>
-      </c>
-      <c r="D261" t="n">
-        <v>237</v>
-      </c>
-      <c r="E261" t="n">
-        <v>237</v>
-      </c>
-      <c r="F261" t="n">
-        <v>3</v>
-      </c>
-      <c r="G261" t="n">
-        <v>237.2</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="n">
-        <v>15</v>
-      </c>
-      <c r="J261" t="n">
-        <v>323</v>
-      </c>
-      <c r="K261" t="n">
-        <v>20</v>
-      </c>
-      <c r="L261" t="n">
-        <v>237.5</v>
-      </c>
-      <c r="M261" t="n">
-        <v>235.95</v>
-      </c>
-      <c r="N261" t="n">
-        <v>237.1333333333333</v>
-      </c>
-      <c r="O261" t="inlineStr"/>
-      <c r="P261" t="inlineStr"/>
-      <c r="Q261" t="inlineStr"/>
-      <c r="R261" t="inlineStr"/>
-      <c r="S261" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>234</v>
-      </c>
-      <c r="C262" t="n">
-        <v>236</v>
-      </c>
-      <c r="D262" t="n">
-        <v>236</v>
-      </c>
-      <c r="E262" t="n">
-        <v>234</v>
-      </c>
-      <c r="F262" t="n">
-        <v>5909.9158</v>
-      </c>
-      <c r="G262" t="n">
-        <v>237.2666666666667</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="n">
-        <v>14</v>
-      </c>
-      <c r="J262" t="n">
-        <v>324</v>
-      </c>
-      <c r="K262" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L262" t="n">
-        <v>237.5</v>
-      </c>
-      <c r="M262" t="n">
-        <v>235.95</v>
-      </c>
-      <c r="N262" t="n">
-        <v>236.9333333333333</v>
-      </c>
-      <c r="O262" t="inlineStr"/>
-      <c r="P262" t="inlineStr"/>
-      <c r="Q262" t="inlineStr"/>
-      <c r="R262" t="inlineStr"/>
-      <c r="S262" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>234</v>
-      </c>
-      <c r="C263" t="n">
-        <v>233</v>
-      </c>
-      <c r="D263" t="n">
-        <v>234</v>
-      </c>
-      <c r="E263" t="n">
-        <v>233</v>
-      </c>
-      <c r="F263" t="n">
-        <v>2624.4354</v>
-      </c>
-      <c r="G263" t="n">
-        <v>237.3166666666667</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="n">
-        <v>11</v>
-      </c>
-      <c r="J263" t="n">
-        <v>327</v>
-      </c>
-      <c r="K263" t="n">
-        <v>-71.42857142857143</v>
-      </c>
-      <c r="L263" t="n">
-        <v>237</v>
-      </c>
-      <c r="M263" t="n">
-        <v>235.85</v>
-      </c>
-      <c r="N263" t="n">
-        <v>236.6666666666667</v>
-      </c>
-      <c r="O263" t="inlineStr"/>
-      <c r="P263" t="inlineStr"/>
-      <c r="Q263" t="inlineStr"/>
-      <c r="R263" t="inlineStr"/>
-      <c r="S263" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>236</v>
-      </c>
-      <c r="C264" t="n">
-        <v>235</v>
-      </c>
-      <c r="D264" t="n">
-        <v>236</v>
-      </c>
-      <c r="E264" t="n">
-        <v>233</v>
-      </c>
-      <c r="F264" t="n">
-        <v>894.9316</v>
-      </c>
-      <c r="G264" t="n">
-        <v>237.4</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="n">
-        <v>13</v>
-      </c>
-      <c r="J264" t="n">
-        <v>329</v>
-      </c>
-      <c r="K264" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L264" t="n">
-        <v>236.7</v>
-      </c>
-      <c r="M264" t="n">
-        <v>235.95</v>
-      </c>
-      <c r="N264" t="n">
-        <v>236.4333333333333</v>
-      </c>
-      <c r="O264" t="inlineStr"/>
-      <c r="P264" t="inlineStr"/>
-      <c r="Q264" t="inlineStr"/>
-      <c r="R264" t="inlineStr"/>
-      <c r="S264" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>235</v>
-      </c>
-      <c r="C265" t="n">
-        <v>235</v>
-      </c>
-      <c r="D265" t="n">
-        <v>235</v>
-      </c>
-      <c r="E265" t="n">
-        <v>235</v>
-      </c>
-      <c r="F265" t="n">
-        <v>28</v>
-      </c>
-      <c r="G265" t="n">
-        <v>237.4666666666667</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="n">
-        <v>13</v>
-      </c>
-      <c r="J265" t="n">
-        <v>329</v>
-      </c>
-      <c r="K265" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L265" t="n">
-        <v>236.5</v>
-      </c>
-      <c r="M265" t="n">
-        <v>236.15</v>
-      </c>
-      <c r="N265" t="n">
-        <v>236.2333333333333</v>
-      </c>
-      <c r="O265" t="inlineStr"/>
-      <c r="P265" t="inlineStr"/>
-      <c r="Q265" t="inlineStr"/>
-      <c r="R265" t="inlineStr"/>
-      <c r="S265" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>233</v>
-      </c>
-      <c r="C266" t="n">
-        <v>233</v>
-      </c>
-      <c r="D266" t="n">
-        <v>233</v>
-      </c>
-      <c r="E266" t="n">
-        <v>233</v>
-      </c>
-      <c r="F266" t="n">
-        <v>2209.4102</v>
-      </c>
-      <c r="G266" t="n">
-        <v>237.5</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="n">
-        <v>11</v>
-      </c>
-      <c r="J266" t="n">
-        <v>331</v>
-      </c>
-      <c r="K266" t="n">
-        <v>-55.55555555555556</v>
-      </c>
-      <c r="L266" t="n">
-        <v>236</v>
-      </c>
-      <c r="M266" t="n">
-        <v>236.15</v>
-      </c>
-      <c r="N266" t="n">
-        <v>236</v>
-      </c>
-      <c r="O266" t="inlineStr"/>
-      <c r="P266" t="inlineStr"/>
-      <c r="Q266" t="inlineStr"/>
-      <c r="R266" t="inlineStr"/>
-      <c r="S266" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>233</v>
-      </c>
-      <c r="C267" t="n">
-        <v>234</v>
-      </c>
-      <c r="D267" t="n">
-        <v>234</v>
-      </c>
-      <c r="E267" t="n">
-        <v>233</v>
-      </c>
-      <c r="F267" t="n">
-        <v>6</v>
-      </c>
-      <c r="G267" t="n">
-        <v>237.55</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="n">
-        <v>12</v>
-      </c>
-      <c r="J267" t="n">
-        <v>332</v>
-      </c>
-      <c r="K267" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L267" t="n">
-        <v>235.6</v>
-      </c>
-      <c r="M267" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="N267" t="n">
-        <v>235.8333333333333</v>
-      </c>
-      <c r="O267" t="inlineStr"/>
-      <c r="P267" t="inlineStr"/>
-      <c r="Q267" t="inlineStr"/>
-      <c r="R267" t="inlineStr"/>
-      <c r="S267" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>234</v>
-      </c>
-      <c r="C268" t="n">
-        <v>234</v>
-      </c>
-      <c r="D268" t="n">
-        <v>234</v>
-      </c>
-      <c r="E268" t="n">
-        <v>234</v>
-      </c>
-      <c r="F268" t="n">
-        <v>980.4539</v>
-      </c>
-      <c r="G268" t="n">
-        <v>237.6</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="n">
-        <v>12</v>
-      </c>
-      <c r="J268" t="n">
-        <v>332</v>
-      </c>
-      <c r="K268" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L268" t="n">
-        <v>235.2</v>
-      </c>
-      <c r="M268" t="n">
-        <v>236.05</v>
-      </c>
-      <c r="N268" t="n">
-        <v>235.6666666666667</v>
-      </c>
-      <c r="O268" t="inlineStr"/>
-      <c r="P268" t="inlineStr"/>
-      <c r="Q268" t="inlineStr"/>
-      <c r="R268" t="inlineStr"/>
-      <c r="S268" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>232</v>
-      </c>
-      <c r="C269" t="n">
-        <v>234</v>
-      </c>
-      <c r="D269" t="n">
-        <v>234</v>
-      </c>
-      <c r="E269" t="n">
-        <v>232</v>
-      </c>
-      <c r="F269" t="n">
-        <v>258.2533</v>
-      </c>
-      <c r="G269" t="n">
-        <v>237.6166666666667</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="n">
-        <v>12</v>
-      </c>
-      <c r="J269" t="n">
-        <v>332</v>
-      </c>
-      <c r="K269" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L269" t="n">
-        <v>234.8</v>
-      </c>
-      <c r="M269" t="n">
-        <v>236</v>
-      </c>
-      <c r="N269" t="n">
-        <v>235.5333333333333</v>
-      </c>
-      <c r="O269" t="inlineStr"/>
-      <c r="P269" t="inlineStr"/>
-      <c r="Q269" t="inlineStr"/>
-      <c r="R269" t="inlineStr"/>
-      <c r="S269" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>235</v>
-      </c>
-      <c r="C270" t="n">
-        <v>233</v>
-      </c>
-      <c r="D270" t="n">
-        <v>235</v>
-      </c>
-      <c r="E270" t="n">
-        <v>232</v>
-      </c>
-      <c r="F270" t="n">
-        <v>363.5605</v>
-      </c>
-      <c r="G270" t="n">
-        <v>237.6</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="n">
-        <v>11</v>
-      </c>
-      <c r="J270" t="n">
-        <v>333</v>
-      </c>
-      <c r="K270" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L270" t="n">
-        <v>234.4</v>
-      </c>
-      <c r="M270" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="N270" t="n">
-        <v>235.4333333333333</v>
-      </c>
-      <c r="O270" t="inlineStr"/>
-      <c r="P270" t="inlineStr"/>
-      <c r="Q270" t="inlineStr"/>
-      <c r="R270" t="inlineStr"/>
-      <c r="S270" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-13 BackTest WOM.xlsx
+++ b/BackTest/2019-11-13 BackTest WOM.xlsx
@@ -591,20 +591,14 @@
         <v>224.8333333333333</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>222</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -632,20 +626,14 @@
         <v>224.75</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>222</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -673,20 +661,14 @@
         <v>224.6333333333333</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>223</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -714,20 +696,14 @@
         <v>224.4833333333333</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>222</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -755,20 +731,14 @@
         <v>224.4333333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>221</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -796,20 +766,14 @@
         <v>224.4333333333333</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>226</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -837,20 +801,14 @@
         <v>224.3666666666667</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>222</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -878,20 +836,14 @@
         <v>224.2166666666667</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>221</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -919,20 +871,14 @@
         <v>224.0666666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>220</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -960,20 +906,14 @@
         <v>223.9666666666667</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>221</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1001,20 +941,14 @@
         <v>223.8166666666667</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>221</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1042,20 +976,14 @@
         <v>223.7333333333333</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>220</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1083,20 +1011,14 @@
         <v>223.6</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>221</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1124,20 +1046,14 @@
         <v>223.5</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>221</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1165,20 +1081,14 @@
         <v>223.4</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>221</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1206,20 +1116,14 @@
         <v>223.4333333333333</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>222</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1247,20 +1151,14 @@
         <v>223.3333333333333</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>221</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1288,20 +1186,14 @@
         <v>223.3666666666667</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>224</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1329,20 +1221,14 @@
         <v>223.35</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>222</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1370,20 +1256,14 @@
         <v>223.2833333333333</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>221</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1411,20 +1291,14 @@
         <v>223.1833333333333</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>221</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1452,20 +1326,14 @@
         <v>223.15</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>222</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1493,20 +1361,14 @@
         <v>223.1333333333333</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>224</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1534,20 +1396,14 @@
         <v>223.15</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>224</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1575,20 +1431,14 @@
         <v>223.15</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>224</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1616,20 +1466,14 @@
         <v>223.1666666666667</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>225</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1657,20 +1501,14 @@
         <v>223.1166666666667</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>226</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1698,20 +1536,14 @@
         <v>223.1666666666667</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>225</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1739,20 +1571,14 @@
         <v>223.15</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>224</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1787,11 +1613,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1819,20 +1641,14 @@
         <v>223.2</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>224</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1860,20 +1676,14 @@
         <v>223.2</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>222</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1901,20 +1711,14 @@
         <v>223.2333333333333</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>224</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1942,20 +1746,14 @@
         <v>223.1833333333333</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>224</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1983,20 +1781,14 @@
         <v>223.1833333333333</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>223</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2024,20 +1816,14 @@
         <v>223.1</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>223</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2065,20 +1851,14 @@
         <v>223.0666666666667</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>224</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2106,20 +1886,14 @@
         <v>223.0166666666667</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>225</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2147,20 +1921,14 @@
         <v>223.0333333333333</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>225</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2188,20 +1956,14 @@
         <v>223.05</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>224</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2236,11 +1998,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2268,20 +2026,14 @@
         <v>223.0833333333333</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>225</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2309,20 +2061,14 @@
         <v>223.0166666666667</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>225</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2357,11 +2103,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2396,11 +2138,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2435,11 +2173,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2474,11 +2208,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2513,11 +2243,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2552,11 +2278,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2591,11 +2313,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2630,11 +2348,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2669,11 +2383,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2708,11 +2418,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2747,11 +2453,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2786,11 +2488,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2825,11 +2523,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2864,11 +2558,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2903,11 +2593,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2942,11 +2628,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2981,11 +2663,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3020,11 +2698,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3059,11 +2733,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3098,11 +2768,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3137,11 +2803,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3176,11 +2838,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3215,11 +2873,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3254,11 +2908,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3293,11 +2943,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3332,11 +2978,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3371,11 +3013,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3410,11 +3048,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3449,11 +3083,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3488,11 +3118,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3527,11 +3153,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3566,11 +3188,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3605,11 +3223,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3644,11 +3258,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3683,11 +3293,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3722,11 +3328,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3761,11 +3363,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3800,11 +3398,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3839,11 +3433,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3871,20 +3461,14 @@
         <v>224.8333333333333</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>226</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3919,11 +3503,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3958,11 +3538,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3997,11 +3573,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4036,11 +3608,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4075,11 +3643,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4114,11 +3678,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4153,11 +3713,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4192,11 +3748,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4231,11 +3783,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4270,11 +3818,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4309,11 +3853,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4348,11 +3888,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4387,11 +3923,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4422,15 +3954,11 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4461,15 +3989,11 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4500,16 +4024,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4537,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -5829,13 +5351,17 @@
         <v>237.9833333333333</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>232</v>
+      </c>
+      <c r="K142" t="n">
+        <v>232</v>
+      </c>
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
@@ -5864,14 +5390,22 @@
         <v>238.1833333333333</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>234</v>
+      </c>
+      <c r="K143" t="n">
+        <v>232</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5905,8 +5439,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>232</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5940,8 +5480,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>232</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5975,8 +5521,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>232</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6010,8 +5562,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>232</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6045,8 +5603,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>232</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6080,8 +5644,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>232</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6115,8 +5685,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>232</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6150,8 +5726,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>232</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6185,8 +5767,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>232</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6220,8 +5808,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>232</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6255,8 +5849,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>232</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6290,8 +5890,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>232</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6325,8 +5931,14 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>232</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6360,8 +5972,14 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>232</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6395,8 +6013,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>232</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6430,8 +6054,14 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>232</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6465,8 +6095,14 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>232</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6500,8 +6136,14 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>232</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6535,8 +6177,14 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>232</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6570,8 +6218,14 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>232</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6605,8 +6259,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>232</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6640,8 +6300,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>232</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6675,8 +6341,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>232</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6710,8 +6382,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>232</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6745,8 +6423,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>232</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6780,8 +6464,14 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>232</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6815,8 +6505,14 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>232</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6850,8 +6546,14 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>232</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6885,8 +6587,14 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>232</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6920,8 +6628,14 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>232</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6955,8 +6669,14 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>232</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6990,8 +6710,14 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>232</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7025,8 +6751,14 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>232</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7060,8 +6792,14 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>232</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7095,8 +6833,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>232</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7130,8 +6874,14 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>232</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7165,8 +6915,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>232</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7200,8 +6956,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>232</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7235,8 +6997,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>232</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7270,8 +7038,14 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>232</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7305,8 +7079,14 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>232</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7340,8 +7120,14 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>232</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7375,8 +7161,14 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>232</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7410,8 +7202,14 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>232</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7445,8 +7243,14 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>232</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7480,8 +7284,14 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>232</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7515,8 +7325,14 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>232</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7550,8 +7366,14 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>232</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7585,8 +7407,14 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>232</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7620,8 +7448,14 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>232</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7655,8 +7489,14 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>232</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7690,8 +7530,14 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>232</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7725,8 +7571,14 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>232</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7760,8 +7612,14 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>232</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7795,8 +7653,14 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>232</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7830,8 +7694,14 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>232</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7865,8 +7735,14 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>232</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7900,8 +7776,14 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>232</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7935,8 +7817,14 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>232</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7970,8 +7858,14 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>232</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8005,8 +7899,14 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>232</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8040,8 +7940,14 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>232</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8075,8 +7981,14 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>232</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8110,8 +8022,14 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>232</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8145,8 +8063,14 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>232</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8180,8 +8104,14 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>232</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8215,8 +8145,14 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>232</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8250,8 +8186,14 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>232</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8285,8 +8227,14 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>232</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8320,8 +8268,14 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>232</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8355,8 +8309,14 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>232</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8390,8 +8350,14 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>232</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8425,8 +8391,14 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>232</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8460,8 +8432,14 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>232</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8495,8 +8473,14 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>232</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8530,8 +8514,14 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>232</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8565,8 +8555,14 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>232</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8600,8 +8596,14 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>232</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8635,8 +8637,14 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>232</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8670,8 +8678,14 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>232</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8705,8 +8719,14 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>232</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8740,8 +8760,14 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>232</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8775,8 +8801,14 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>232</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8810,8 +8842,14 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>232</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8845,8 +8883,14 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>232</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8880,8 +8924,14 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>232</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8915,8 +8965,14 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>232</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8950,8 +9006,14 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>232</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8985,8 +9047,14 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>232</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9020,8 +9088,14 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>232</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9055,8 +9129,14 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>232</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9090,8 +9170,14 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>232</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9125,8 +9211,14 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>232</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9160,8 +9252,14 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>232</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9195,8 +9293,14 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>232</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9230,8 +9334,14 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>232</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9265,8 +9375,14 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>232</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9300,8 +9416,14 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>232</v>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9335,8 +9457,14 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>232</v>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9370,8 +9498,14 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>232</v>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9405,8 +9539,14 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>232</v>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9440,8 +9580,14 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>232</v>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9475,8 +9621,14 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>232</v>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9510,8 +9662,14 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>232</v>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9545,8 +9703,14 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>232</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9580,8 +9744,14 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>232</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-13 BackTest WOM.xlsx
+++ b/BackTest/2019-11-13 BackTest WOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M249"/>
+  <dimension ref="A1:M250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C2" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D2" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E2" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F2" t="n">
-        <v>2443.411</v>
+        <v>6644.005</v>
       </c>
       <c r="G2" t="n">
-        <v>225.1833333333333</v>
+        <v>225.3</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C3" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D3" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E3" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F3" t="n">
-        <v>6425.0713</v>
+        <v>2443.411</v>
       </c>
       <c r="G3" t="n">
-        <v>225.05</v>
+        <v>225.1833333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>221</v>
       </c>
       <c r="C4" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D4" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E4" t="n">
         <v>221</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>6425.0713</v>
       </c>
       <c r="G4" t="n">
-        <v>224.9333333333333</v>
+        <v>225.05</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C5" t="n">
         <v>222</v>
@@ -550,10 +550,10 @@
         <v>221</v>
       </c>
       <c r="F5" t="n">
-        <v>17.1308045045045</v>
+        <v>100</v>
       </c>
       <c r="G5" t="n">
-        <v>224.8666666666667</v>
+        <v>224.9333333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -576,19 +576,19 @@
         <v>222</v>
       </c>
       <c r="C6" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D6" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E6" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F6" t="n">
-        <v>492.7503954954955</v>
+        <v>17.1308045045045</v>
       </c>
       <c r="G6" t="n">
-        <v>224.8333333333333</v>
+        <v>224.8666666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -611,19 +611,19 @@
         <v>222</v>
       </c>
       <c r="C7" t="n">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D7" t="n">
+        <v>224</v>
+      </c>
+      <c r="E7" t="n">
         <v>222</v>
       </c>
-      <c r="E7" t="n">
-        <v>221</v>
-      </c>
       <c r="F7" t="n">
-        <v>4747.9627</v>
+        <v>492.7503954954955</v>
       </c>
       <c r="G7" t="n">
-        <v>224.75</v>
+        <v>224.8333333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C8" t="n">
+        <v>221</v>
+      </c>
+      <c r="D8" t="n">
         <v>222</v>
       </c>
-      <c r="D8" t="n">
-        <v>223</v>
-      </c>
       <c r="E8" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F8" t="n">
-        <v>6.2</v>
+        <v>4747.9627</v>
       </c>
       <c r="G8" t="n">
-        <v>224.6333333333333</v>
+        <v>224.75</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>223</v>
+      </c>
+      <c r="C9" t="n">
         <v>222</v>
       </c>
-      <c r="C9" t="n">
-        <v>220</v>
-      </c>
       <c r="D9" t="n">
+        <v>223</v>
+      </c>
+      <c r="E9" t="n">
         <v>222</v>
       </c>
-      <c r="E9" t="n">
-        <v>220</v>
-      </c>
       <c r="F9" t="n">
-        <v>5300.5304</v>
+        <v>6.2</v>
       </c>
       <c r="G9" t="n">
-        <v>224.4833333333333</v>
+        <v>224.6333333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C10" t="n">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D10" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E10" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F10" t="n">
-        <v>1452.5</v>
+        <v>5300.5304</v>
       </c>
       <c r="G10" t="n">
-        <v>224.4333333333333</v>
+        <v>224.4833333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,19 +748,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C11" t="n">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D11" t="n">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E11" t="n">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>1452.5</v>
       </c>
       <c r="G11" t="n">
         <v>224.4333333333333</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C12" t="n">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D12" t="n">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E12" t="n">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F12" t="n">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>224.3666666666667</v>
+        <v>224.4333333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C13" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D13" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E13" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F13" t="n">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="G13" t="n">
-        <v>224.2166666666667</v>
+        <v>224.3666666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C14" t="n">
         <v>220</v>
       </c>
       <c r="D14" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E14" t="n">
         <v>220</v>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G14" t="n">
-        <v>224.0666666666667</v>
+        <v>224.2166666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C15" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D15" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E15" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F15" t="n">
         <v>5</v>
       </c>
       <c r="G15" t="n">
-        <v>223.9666666666667</v>
+        <v>224.0666666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -926,19 +926,19 @@
         <v>221</v>
       </c>
       <c r="C16" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D16" t="n">
         <v>221</v>
       </c>
       <c r="E16" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F16" t="n">
-        <v>1134.1296</v>
+        <v>5</v>
       </c>
       <c r="G16" t="n">
-        <v>223.8166666666667</v>
+        <v>223.9666666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>221</v>
+      </c>
+      <c r="C17" t="n">
         <v>220</v>
       </c>
-      <c r="C17" t="n">
-        <v>222</v>
-      </c>
       <c r="D17" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E17" t="n">
         <v>220</v>
       </c>
       <c r="F17" t="n">
-        <v>10.8947</v>
+        <v>1134.1296</v>
       </c>
       <c r="G17" t="n">
-        <v>223.7333333333333</v>
+        <v>223.8166666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C18" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D18" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E18" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F18" t="n">
-        <v>4.4753</v>
+        <v>10.8947</v>
       </c>
       <c r="G18" t="n">
-        <v>223.6</v>
+        <v>223.7333333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>221</v>
       </c>
       <c r="C19" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D19" t="n">
         <v>221</v>
       </c>
       <c r="E19" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F19" t="n">
-        <v>1495.5247</v>
+        <v>4.4753</v>
       </c>
       <c r="G19" t="n">
-        <v>223.5</v>
+        <v>223.6</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,20 +1075,26 @@
         <v>220</v>
       </c>
       <c r="F20" t="n">
-        <v>1250</v>
+        <v>1495.5247</v>
       </c>
       <c r="G20" t="n">
-        <v>223.4</v>
+        <v>223.5</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>221</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1098,22 +1104,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C21" t="n">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D21" t="n">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E21" t="n">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F21" t="n">
-        <v>7</v>
+        <v>1250</v>
       </c>
       <c r="G21" t="n">
-        <v>223.4333333333333</v>
+        <v>223.4</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1123,7 +1129,11 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1133,22 +1143,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C22" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D22" t="n">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E22" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F22" t="n">
-        <v>774.931</v>
+        <v>7</v>
       </c>
       <c r="G22" t="n">
-        <v>223.3333333333333</v>
+        <v>223.4333333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1158,7 +1168,11 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1168,22 +1182,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C23" t="n">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D23" t="n">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E23" t="n">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F23" t="n">
-        <v>3.0533</v>
+        <v>774.931</v>
       </c>
       <c r="G23" t="n">
-        <v>223.3666666666667</v>
+        <v>223.3333333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1193,7 +1207,11 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1203,22 +1221,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C24" t="n">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D24" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E24" t="n">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F24" t="n">
-        <v>3400</v>
+        <v>3.0533</v>
       </c>
       <c r="G24" t="n">
-        <v>223.35</v>
+        <v>223.3666666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1228,7 +1246,11 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1238,22 +1260,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>222</v>
+      </c>
+      <c r="C25" t="n">
         <v>221</v>
       </c>
-      <c r="C25" t="n">
-        <v>220</v>
-      </c>
       <c r="D25" t="n">
+        <v>222</v>
+      </c>
+      <c r="E25" t="n">
         <v>221</v>
       </c>
-      <c r="E25" t="n">
-        <v>220</v>
-      </c>
       <c r="F25" t="n">
-        <v>8016.9607</v>
+        <v>3400</v>
       </c>
       <c r="G25" t="n">
-        <v>223.2833333333333</v>
+        <v>223.35</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1263,7 +1285,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1276,19 +1302,19 @@
         <v>221</v>
       </c>
       <c r="C26" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D26" t="n">
         <v>221</v>
       </c>
       <c r="E26" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F26" t="n">
-        <v>66.46680000000001</v>
+        <v>8016.9607</v>
       </c>
       <c r="G26" t="n">
-        <v>223.1833333333333</v>
+        <v>223.2833333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1298,7 +1324,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1308,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C27" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D27" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E27" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F27" t="n">
-        <v>341.856</v>
+        <v>66.46680000000001</v>
       </c>
       <c r="G27" t="n">
-        <v>223.15</v>
+        <v>223.1833333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1333,7 +1363,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1343,22 +1377,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C28" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D28" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E28" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F28" t="n">
-        <v>6.9692</v>
+        <v>341.856</v>
       </c>
       <c r="G28" t="n">
-        <v>223.1333333333333</v>
+        <v>223.15</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1368,7 +1402,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1381,19 +1419,19 @@
         <v>224</v>
       </c>
       <c r="C29" t="n">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D29" t="n">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E29" t="n">
         <v>224</v>
       </c>
       <c r="F29" t="n">
-        <v>2000</v>
+        <v>6.9692</v>
       </c>
       <c r="G29" t="n">
-        <v>223.15</v>
+        <v>223.1333333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1403,7 +1441,11 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1416,16 +1458,16 @@
         <v>224</v>
       </c>
       <c r="C30" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D30" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E30" t="n">
         <v>224</v>
       </c>
       <c r="F30" t="n">
-        <v>140.4821</v>
+        <v>2000</v>
       </c>
       <c r="G30" t="n">
         <v>223.15</v>
@@ -1438,7 +1480,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1448,22 +1494,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C31" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D31" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E31" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>140.4821</v>
       </c>
       <c r="G31" t="n">
-        <v>223.1666666666667</v>
+        <v>223.15</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1473,7 +1519,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1483,22 +1533,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C32" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D32" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E32" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F32" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="G32" t="n">
-        <v>223.1166666666667</v>
+        <v>223.1666666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1508,7 +1558,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1572,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C33" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D33" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E33" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F33" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G33" t="n">
-        <v>223.1666666666667</v>
+        <v>223.1166666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1543,7 +1597,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1553,22 +1611,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C34" t="n">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D34" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E34" t="n">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F34" t="n">
-        <v>4000</v>
+        <v>50</v>
       </c>
       <c r="G34" t="n">
-        <v>223.15</v>
+        <v>223.1666666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1578,7 +1636,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1588,22 +1650,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C35" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D35" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E35" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F35" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G35" t="n">
-        <v>223.1666666666667</v>
+        <v>223.15</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1613,7 +1675,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1623,22 +1689,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C36" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D36" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E36" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F36" t="n">
-        <v>2.5</v>
+        <v>250</v>
       </c>
       <c r="G36" t="n">
-        <v>223.2</v>
+        <v>223.1666666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1648,7 +1714,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1658,19 +1728,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C37" t="n">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D37" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E37" t="n">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F37" t="n">
-        <v>1812.7205</v>
+        <v>2.5</v>
       </c>
       <c r="G37" t="n">
         <v>223.2</v>
@@ -1683,7 +1753,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1693,22 +1767,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C38" t="n">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D38" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E38" t="n">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F38" t="n">
-        <v>3.1854</v>
+        <v>1812.7205</v>
       </c>
       <c r="G38" t="n">
-        <v>223.2333333333333</v>
+        <v>223.2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1718,7 +1792,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1740,10 +1818,10 @@
         <v>224</v>
       </c>
       <c r="F39" t="n">
-        <v>23.1872</v>
+        <v>3.1854</v>
       </c>
       <c r="G39" t="n">
-        <v>223.1833333333333</v>
+        <v>223.2333333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1753,7 +1831,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1763,19 +1845,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C40" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D40" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E40" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F40" t="n">
-        <v>99.3511</v>
+        <v>23.1872</v>
       </c>
       <c r="G40" t="n">
         <v>223.1833333333333</v>
@@ -1788,7 +1870,11 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1810,10 +1896,10 @@
         <v>222</v>
       </c>
       <c r="F41" t="n">
-        <v>3208.6292</v>
+        <v>99.3511</v>
       </c>
       <c r="G41" t="n">
-        <v>223.1</v>
+        <v>223.1833333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1823,7 +1909,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1833,22 +1923,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C42" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D42" t="n">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E42" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F42" t="n">
-        <v>461.0449</v>
+        <v>3208.6292</v>
       </c>
       <c r="G42" t="n">
-        <v>223.0666666666667</v>
+        <v>223.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1858,7 +1948,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1868,7 +1962,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C43" t="n">
         <v>225</v>
@@ -1877,13 +1971,13 @@
         <v>225</v>
       </c>
       <c r="E43" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F43" t="n">
-        <v>99.116</v>
+        <v>461.0449</v>
       </c>
       <c r="G43" t="n">
-        <v>223.0166666666667</v>
+        <v>223.0666666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1893,7 +1987,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1915,10 +2013,10 @@
         <v>225</v>
       </c>
       <c r="F44" t="n">
-        <v>297.3613</v>
+        <v>99.116</v>
       </c>
       <c r="G44" t="n">
-        <v>223.0333333333333</v>
+        <v>223.0166666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1928,7 +2026,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1938,22 +2040,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C45" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D45" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E45" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F45" t="n">
-        <v>23.9228</v>
+        <v>297.3613</v>
       </c>
       <c r="G45" t="n">
-        <v>223.05</v>
+        <v>223.0333333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1963,7 +2065,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1973,22 +2079,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C46" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D46" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E46" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F46" t="n">
-        <v>139.2328</v>
+        <v>23.9228</v>
       </c>
       <c r="G46" t="n">
-        <v>223</v>
+        <v>223.05</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1998,7 +2104,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2008,7 +2118,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C47" t="n">
         <v>225</v>
@@ -2017,13 +2127,13 @@
         <v>225</v>
       </c>
       <c r="E47" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F47" t="n">
-        <v>192.9907</v>
+        <v>139.2328</v>
       </c>
       <c r="G47" t="n">
-        <v>223.0833333333333</v>
+        <v>223</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2033,7 +2143,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2046,19 +2160,19 @@
         <v>225</v>
       </c>
       <c r="C48" t="n">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D48" t="n">
         <v>225</v>
       </c>
       <c r="E48" t="n">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F48" t="n">
-        <v>8914.934999999999</v>
+        <v>192.9907</v>
       </c>
       <c r="G48" t="n">
-        <v>223.0166666666667</v>
+        <v>223.0833333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2068,7 +2182,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2081,19 +2199,19 @@
         <v>225</v>
       </c>
       <c r="C49" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D49" t="n">
         <v>225</v>
       </c>
       <c r="E49" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>8914.934999999999</v>
       </c>
       <c r="G49" t="n">
-        <v>223.0833333333333</v>
+        <v>223.0166666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2103,7 +2221,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2128,7 +2250,7 @@
         <v>2</v>
       </c>
       <c r="G50" t="n">
-        <v>223.0666666666667</v>
+        <v>223.0833333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2138,7 +2260,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2148,22 +2274,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C51" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D51" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E51" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F51" t="n">
-        <v>4006.4574</v>
+        <v>2</v>
       </c>
       <c r="G51" t="n">
-        <v>223.0833333333333</v>
+        <v>223.0666666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2173,7 +2299,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2183,22 +2313,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
+        <v>224</v>
+      </c>
+      <c r="C52" t="n">
         <v>223</v>
       </c>
-      <c r="C52" t="n">
-        <v>225</v>
-      </c>
       <c r="D52" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E52" t="n">
         <v>223</v>
       </c>
       <c r="F52" t="n">
-        <v>1451.0991</v>
+        <v>4006.4574</v>
       </c>
       <c r="G52" t="n">
-        <v>223.0666666666667</v>
+        <v>223.0833333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2208,7 +2338,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2218,7 +2352,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C53" t="n">
         <v>225</v>
@@ -2227,13 +2361,13 @@
         <v>225</v>
       </c>
       <c r="E53" t="n">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F53" t="n">
-        <v>10</v>
+        <v>1451.0991</v>
       </c>
       <c r="G53" t="n">
-        <v>223.05</v>
+        <v>223.0666666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2243,7 +2377,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2253,7 +2391,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C54" t="n">
         <v>225</v>
@@ -2262,13 +2400,13 @@
         <v>225</v>
       </c>
       <c r="E54" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F54" t="n">
-        <v>431.3922</v>
+        <v>10</v>
       </c>
       <c r="G54" t="n">
-        <v>223.0333333333333</v>
+        <v>223.05</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2278,7 +2416,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2288,7 +2430,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C55" t="n">
         <v>225</v>
@@ -2297,13 +2439,13 @@
         <v>225</v>
       </c>
       <c r="E55" t="n">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F55" t="n">
-        <v>4709.9173</v>
+        <v>431.3922</v>
       </c>
       <c r="G55" t="n">
-        <v>223.0833333333333</v>
+        <v>223.0333333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2313,7 +2455,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2323,22 +2469,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C56" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D56" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E56" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F56" t="n">
-        <v>2059.688</v>
+        <v>4709.9173</v>
       </c>
       <c r="G56" t="n">
-        <v>223.1</v>
+        <v>223.0833333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2348,7 +2494,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2370,10 +2520,10 @@
         <v>226</v>
       </c>
       <c r="F57" t="n">
-        <v>1440.4409</v>
+        <v>2059.688</v>
       </c>
       <c r="G57" t="n">
-        <v>223.05</v>
+        <v>223.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2383,7 +2533,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2393,22 +2547,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C58" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D58" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E58" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F58" t="n">
-        <v>3</v>
+        <v>1440.4409</v>
       </c>
       <c r="G58" t="n">
-        <v>223.1166666666667</v>
+        <v>223.05</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2418,7 +2572,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2431,19 +2589,19 @@
         <v>227</v>
       </c>
       <c r="C59" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D59" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E59" t="n">
         <v>227</v>
       </c>
       <c r="F59" t="n">
-        <v>943.0559</v>
+        <v>3</v>
       </c>
       <c r="G59" t="n">
-        <v>223.1666666666667</v>
+        <v>223.1166666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2453,7 +2611,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2463,22 +2625,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
+        <v>227</v>
+      </c>
+      <c r="C60" t="n">
         <v>228</v>
       </c>
-      <c r="C60" t="n">
-        <v>229</v>
-      </c>
       <c r="D60" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E60" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F60" t="n">
-        <v>7635.9996</v>
+        <v>943.0559</v>
       </c>
       <c r="G60" t="n">
-        <v>223.2333333333333</v>
+        <v>223.1666666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2488,7 +2650,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2501,19 +2667,19 @@
         <v>228</v>
       </c>
       <c r="C61" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D61" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E61" t="n">
         <v>228</v>
       </c>
       <c r="F61" t="n">
-        <v>3490.2612</v>
+        <v>7635.9996</v>
       </c>
       <c r="G61" t="n">
-        <v>223.3166666666667</v>
+        <v>223.2333333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2523,7 +2689,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2545,10 +2715,10 @@
         <v>228</v>
       </c>
       <c r="F62" t="n">
-        <v>1.5</v>
+        <v>3490.2612</v>
       </c>
       <c r="G62" t="n">
-        <v>223.4166666666667</v>
+        <v>223.3166666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2558,7 +2728,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2568,22 +2742,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C63" t="n">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D63" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E63" t="n">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F63" t="n">
-        <v>10040.8177</v>
+        <v>1.5</v>
       </c>
       <c r="G63" t="n">
-        <v>223.4833333333333</v>
+        <v>223.4166666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2593,7 +2767,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2615,10 +2793,10 @@
         <v>225</v>
       </c>
       <c r="F64" t="n">
-        <v>2157.7142</v>
+        <v>10040.8177</v>
       </c>
       <c r="G64" t="n">
-        <v>223.5333333333333</v>
+        <v>223.4833333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2628,7 +2806,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2638,22 +2820,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C65" t="n">
         <v>225</v>
       </c>
       <c r="D65" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E65" t="n">
         <v>225</v>
       </c>
       <c r="F65" t="n">
-        <v>5.3815</v>
+        <v>2157.7142</v>
       </c>
       <c r="G65" t="n">
-        <v>223.5833333333333</v>
+        <v>223.5333333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2663,7 +2845,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2685,10 +2871,10 @@
         <v>225</v>
       </c>
       <c r="F66" t="n">
-        <v>10</v>
+        <v>5.3815</v>
       </c>
       <c r="G66" t="n">
-        <v>223.6</v>
+        <v>223.5833333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2698,7 +2884,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2708,22 +2898,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C67" t="n">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D67" t="n">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E67" t="n">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F67" t="n">
-        <v>1.2</v>
+        <v>10</v>
       </c>
       <c r="G67" t="n">
-        <v>223.7</v>
+        <v>223.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2733,7 +2923,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2746,19 +2940,19 @@
         <v>227</v>
       </c>
       <c r="C68" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D68" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E68" t="n">
         <v>227</v>
       </c>
       <c r="F68" t="n">
-        <v>100</v>
+        <v>1.2</v>
       </c>
       <c r="G68" t="n">
-        <v>223.8</v>
+        <v>223.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2768,7 +2962,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2781,19 +2979,19 @@
         <v>227</v>
       </c>
       <c r="C69" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D69" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E69" t="n">
         <v>227</v>
       </c>
       <c r="F69" t="n">
-        <v>975.5098</v>
+        <v>100</v>
       </c>
       <c r="G69" t="n">
-        <v>223.9166666666667</v>
+        <v>223.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2803,7 +3001,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2825,10 +3027,10 @@
         <v>227</v>
       </c>
       <c r="F70" t="n">
-        <v>2.5</v>
+        <v>975.5098</v>
       </c>
       <c r="G70" t="n">
-        <v>223.9833333333333</v>
+        <v>223.9166666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2838,7 +3040,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2848,19 +3054,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C71" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D71" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E71" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F71" t="n">
-        <v>68.5</v>
+        <v>2.5</v>
       </c>
       <c r="G71" t="n">
         <v>223.9833333333333</v>
@@ -2873,7 +3079,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2883,22 +3093,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C72" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D72" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E72" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F72" t="n">
-        <v>4847.0693</v>
+        <v>68.5</v>
       </c>
       <c r="G72" t="n">
-        <v>224.0166666666667</v>
+        <v>223.9833333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2908,7 +3118,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2921,19 +3135,19 @@
         <v>225</v>
       </c>
       <c r="C73" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D73" t="n">
         <v>225</v>
       </c>
       <c r="E73" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F73" t="n">
-        <v>8.0862</v>
+        <v>4847.0693</v>
       </c>
       <c r="G73" t="n">
-        <v>224.1</v>
+        <v>224.0166666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2943,7 +3157,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2953,22 +3171,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C74" t="n">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D74" t="n">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E74" t="n">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F74" t="n">
-        <v>92.58410000000001</v>
+        <v>8.0862</v>
       </c>
       <c r="G74" t="n">
-        <v>224.2333333333333</v>
+        <v>224.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2978,7 +3196,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -2988,7 +3210,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C75" t="n">
         <v>228</v>
@@ -2997,13 +3219,13 @@
         <v>228</v>
       </c>
       <c r="E75" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F75" t="n">
-        <v>12.9017</v>
+        <v>92.58410000000001</v>
       </c>
       <c r="G75" t="n">
-        <v>224.35</v>
+        <v>224.2333333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3013,7 +3235,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3023,22 +3249,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C76" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D76" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E76" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F76" t="n">
-        <v>2528.3928</v>
+        <v>12.9017</v>
       </c>
       <c r="G76" t="n">
-        <v>224.4666666666667</v>
+        <v>224.35</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3048,7 +3274,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3058,22 +3288,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C77" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D77" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E77" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F77" t="n">
-        <v>12.9017</v>
+        <v>2528.3928</v>
       </c>
       <c r="G77" t="n">
-        <v>224.5166666666667</v>
+        <v>224.4666666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3083,7 +3313,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3096,19 +3330,19 @@
         <v>225</v>
       </c>
       <c r="C78" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D78" t="n">
         <v>225</v>
       </c>
       <c r="E78" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F78" t="n">
-        <v>5531.6499</v>
+        <v>12.9017</v>
       </c>
       <c r="G78" t="n">
-        <v>224.5666666666667</v>
+        <v>224.5166666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3118,7 +3352,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3140,10 +3378,10 @@
         <v>224</v>
       </c>
       <c r="F79" t="n">
-        <v>5929.8077</v>
+        <v>5531.6499</v>
       </c>
       <c r="G79" t="n">
-        <v>224.6333333333333</v>
+        <v>224.5666666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3153,7 +3391,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3175,10 +3417,10 @@
         <v>224</v>
       </c>
       <c r="F80" t="n">
-        <v>31061.6478</v>
+        <v>5929.8077</v>
       </c>
       <c r="G80" t="n">
-        <v>224.7</v>
+        <v>224.6333333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3188,7 +3430,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3198,19 +3444,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C81" t="n">
         <v>224</v>
       </c>
       <c r="D81" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E81" t="n">
         <v>224</v>
       </c>
       <c r="F81" t="n">
-        <v>1629.5532</v>
+        <v>31061.6478</v>
       </c>
       <c r="G81" t="n">
         <v>224.7</v>
@@ -3223,7 +3469,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3233,22 +3483,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C82" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D82" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E82" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F82" t="n">
-        <v>346.9816</v>
+        <v>1629.5532</v>
       </c>
       <c r="G82" t="n">
-        <v>224.75</v>
+        <v>224.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3258,7 +3508,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3268,22 +3522,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C83" t="n">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D83" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E83" t="n">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F83" t="n">
-        <v>6445.0648</v>
+        <v>346.9816</v>
       </c>
       <c r="G83" t="n">
-        <v>224.6833333333333</v>
+        <v>224.75</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3293,7 +3547,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3303,22 +3561,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C84" t="n">
         <v>220</v>
       </c>
       <c r="D84" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E84" t="n">
         <v>220</v>
       </c>
       <c r="F84" t="n">
-        <v>1644.896</v>
+        <v>6445.0648</v>
       </c>
       <c r="G84" t="n">
-        <v>224.6666666666667</v>
+        <v>224.6833333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3328,7 +3586,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3338,22 +3600,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C85" t="n">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D85" t="n">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E85" t="n">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F85" t="n">
-        <v>100</v>
+        <v>1644.896</v>
       </c>
       <c r="G85" t="n">
-        <v>224.7166666666667</v>
+        <v>224.6666666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3363,7 +3625,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3385,10 +3651,10 @@
         <v>223</v>
       </c>
       <c r="F86" t="n">
-        <v>997.1088999999999</v>
+        <v>100</v>
       </c>
       <c r="G86" t="n">
-        <v>224.75</v>
+        <v>224.7166666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3398,7 +3664,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3411,19 +3681,19 @@
         <v>223</v>
       </c>
       <c r="C87" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D87" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E87" t="n">
         <v>223</v>
       </c>
       <c r="F87" t="n">
-        <v>1149.5541</v>
+        <v>997.1088999999999</v>
       </c>
       <c r="G87" t="n">
-        <v>224.7833333333333</v>
+        <v>224.75</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3433,7 +3703,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3443,22 +3717,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C88" t="n">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D88" t="n">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E88" t="n">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F88" t="n">
-        <v>284.4058</v>
+        <v>1149.5541</v>
       </c>
       <c r="G88" t="n">
-        <v>224.8333333333333</v>
+        <v>224.7833333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3468,7 +3742,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3478,32 +3756,38 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C89" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D89" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E89" t="n">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F89" t="n">
-        <v>11</v>
+        <v>284.4058</v>
       </c>
       <c r="G89" t="n">
-        <v>224.8666666666667</v>
+        <v>224.8333333333333</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>224</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3528,7 +3812,7 @@
         <v>11</v>
       </c>
       <c r="G90" t="n">
-        <v>224.9333333333333</v>
+        <v>224.8666666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3538,7 +3822,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3560,10 +3848,10 @@
         <v>228</v>
       </c>
       <c r="F91" t="n">
-        <v>1519.7118</v>
+        <v>11</v>
       </c>
       <c r="G91" t="n">
-        <v>224.9833333333333</v>
+        <v>224.9333333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3573,7 +3861,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3586,19 +3878,19 @@
         <v>228</v>
       </c>
       <c r="C92" t="n">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D92" t="n">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E92" t="n">
         <v>228</v>
       </c>
       <c r="F92" t="n">
-        <v>17817.7407</v>
+        <v>1519.7118</v>
       </c>
       <c r="G92" t="n">
-        <v>225.1</v>
+        <v>224.9833333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3608,7 +3900,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3618,22 +3914,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C93" t="n">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D93" t="n">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E93" t="n">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F93" t="n">
-        <v>8853.1126</v>
+        <v>17817.7407</v>
       </c>
       <c r="G93" t="n">
-        <v>225.3</v>
+        <v>225.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3643,7 +3939,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3653,22 +3953,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
+        <v>234</v>
+      </c>
+      <c r="C94" t="n">
         <v>237</v>
-      </c>
-      <c r="C94" t="n">
-        <v>236</v>
       </c>
       <c r="D94" t="n">
         <v>237</v>
       </c>
       <c r="E94" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F94" t="n">
-        <v>9547.7327</v>
+        <v>8853.1126</v>
       </c>
       <c r="G94" t="n">
-        <v>225.55</v>
+        <v>225.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3678,7 +3978,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3691,19 +3995,19 @@
         <v>237</v>
       </c>
       <c r="C95" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D95" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E95" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F95" t="n">
-        <v>9794.395399999999</v>
+        <v>9547.7327</v>
       </c>
       <c r="G95" t="n">
-        <v>225.8166666666667</v>
+        <v>225.55</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3713,7 +4017,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3723,22 +4031,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
+        <v>237</v>
+      </c>
+      <c r="C96" t="n">
         <v>238</v>
       </c>
-      <c r="C96" t="n">
-        <v>239</v>
-      </c>
       <c r="D96" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E96" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F96" t="n">
-        <v>11929.1804</v>
+        <v>9794.395399999999</v>
       </c>
       <c r="G96" t="n">
-        <v>226.0666666666667</v>
+        <v>225.8166666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3748,7 +4056,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3761,60 +4073,62 @@
         <v>238</v>
       </c>
       <c r="C97" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D97" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E97" t="n">
         <v>238</v>
       </c>
       <c r="F97" t="n">
-        <v>2370.8914</v>
+        <v>11929.1804</v>
       </c>
       <c r="G97" t="n">
-        <v>226.35</v>
+        <v>226.0666666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C98" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D98" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E98" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F98" t="n">
-        <v>6321.499</v>
+        <v>2370.8914</v>
       </c>
       <c r="G98" t="n">
-        <v>226.6</v>
+        <v>226.35</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -3828,28 +4142,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>236</v>
+      </c>
+      <c r="C99" t="n">
         <v>239</v>
       </c>
-      <c r="C99" t="n">
-        <v>245</v>
-      </c>
       <c r="D99" t="n">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E99" t="n">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F99" t="n">
-        <v>32894.2661755102</v>
+        <v>6321.499</v>
       </c>
       <c r="G99" t="n">
-        <v>226.95</v>
+        <v>226.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -3863,28 +4177,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
+        <v>239</v>
+      </c>
+      <c r="C100" t="n">
         <v>245</v>
       </c>
-      <c r="C100" t="n">
-        <v>252</v>
-      </c>
       <c r="D100" t="n">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="E100" t="n">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F100" t="n">
-        <v>88244.36960068028</v>
+        <v>32894.2661755102</v>
       </c>
       <c r="G100" t="n">
-        <v>227.45</v>
+        <v>226.95</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -3898,7 +4212,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C101" t="n">
         <v>252</v>
@@ -3907,19 +4221,19 @@
         <v>252</v>
       </c>
       <c r="E101" t="n">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="F101" t="n">
-        <v>50595.7813</v>
+        <v>88244.36960068028</v>
       </c>
       <c r="G101" t="n">
-        <v>227.95</v>
+        <v>227.45</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -3936,19 +4250,19 @@
         <v>249</v>
       </c>
       <c r="C102" t="n">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D102" t="n">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E102" t="n">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="F102" t="n">
-        <v>68.4037</v>
+        <v>50595.7813</v>
       </c>
       <c r="G102" t="n">
-        <v>228.35</v>
+        <v>227.95</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +4282,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C103" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D103" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E103" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F103" t="n">
-        <v>4352.9504</v>
+        <v>68.4037</v>
       </c>
       <c r="G103" t="n">
-        <v>228.7333333333333</v>
+        <v>228.35</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4015,10 +4329,10 @@
         <v>248</v>
       </c>
       <c r="F104" t="n">
-        <v>2264.7583</v>
+        <v>4352.9504</v>
       </c>
       <c r="G104" t="n">
-        <v>229.1166666666667</v>
+        <v>228.7333333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4352,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C105" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D105" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E105" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F105" t="n">
-        <v>4965</v>
+        <v>2264.7583</v>
       </c>
       <c r="G105" t="n">
-        <v>229.5</v>
+        <v>229.1166666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,10 +4387,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>245</v>
+      </c>
+      <c r="C106" t="n">
         <v>247</v>
-      </c>
-      <c r="C106" t="n">
-        <v>245</v>
       </c>
       <c r="D106" t="n">
         <v>247</v>
@@ -4085,10 +4399,10 @@
         <v>245</v>
       </c>
       <c r="F106" t="n">
-        <v>8512.208199999999</v>
+        <v>4965</v>
       </c>
       <c r="G106" t="n">
-        <v>229.8333333333333</v>
+        <v>229.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4422,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C107" t="n">
         <v>245</v>
       </c>
       <c r="D107" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E107" t="n">
         <v>245</v>
       </c>
       <c r="F107" t="n">
-        <v>941.3905</v>
+        <v>8512.208199999999</v>
       </c>
       <c r="G107" t="n">
-        <v>230.1666666666667</v>
+        <v>229.8333333333333</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4155,10 +4469,10 @@
         <v>245</v>
       </c>
       <c r="F108" t="n">
-        <v>1897.1121</v>
+        <v>941.3905</v>
       </c>
       <c r="G108" t="n">
-        <v>230.55</v>
+        <v>230.1666666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4190,10 +4504,10 @@
         <v>245</v>
       </c>
       <c r="F109" t="n">
-        <v>354.947</v>
+        <v>1897.1121</v>
       </c>
       <c r="G109" t="n">
-        <v>230.8833333333333</v>
+        <v>230.55</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4527,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C110" t="n">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D110" t="n">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E110" t="n">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F110" t="n">
-        <v>117.2351</v>
+        <v>354.947</v>
       </c>
       <c r="G110" t="n">
-        <v>231.25</v>
+        <v>230.8833333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4260,10 +4574,10 @@
         <v>247</v>
       </c>
       <c r="F111" t="n">
-        <v>105.8804</v>
+        <v>117.2351</v>
       </c>
       <c r="G111" t="n">
-        <v>231.65</v>
+        <v>231.25</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4295,10 +4609,10 @@
         <v>247</v>
       </c>
       <c r="F112" t="n">
-        <v>538.3443</v>
+        <v>105.8804</v>
       </c>
       <c r="G112" t="n">
-        <v>232.0166666666667</v>
+        <v>231.65</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4321,19 +4635,19 @@
         <v>247</v>
       </c>
       <c r="C113" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D113" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E113" t="n">
         <v>247</v>
       </c>
       <c r="F113" t="n">
-        <v>1514.4838</v>
+        <v>538.3443</v>
       </c>
       <c r="G113" t="n">
-        <v>232.4</v>
+        <v>232.0166666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,7 +4667,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C114" t="n">
         <v>248</v>
@@ -4362,13 +4676,13 @@
         <v>248</v>
       </c>
       <c r="E114" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F114" t="n">
-        <v>1449.903</v>
+        <v>1514.4838</v>
       </c>
       <c r="G114" t="n">
-        <v>232.7833333333333</v>
+        <v>232.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4394,16 +4708,16 @@
         <v>248</v>
       </c>
       <c r="D115" t="n">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E115" t="n">
         <v>248</v>
       </c>
       <c r="F115" t="n">
-        <v>55.9425</v>
+        <v>1449.903</v>
       </c>
       <c r="G115" t="n">
-        <v>233.1666666666667</v>
+        <v>232.7833333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4429,16 +4743,16 @@
         <v>248</v>
       </c>
       <c r="D116" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E116" t="n">
         <v>248</v>
       </c>
       <c r="F116" t="n">
-        <v>42.4023</v>
+        <v>55.9425</v>
       </c>
       <c r="G116" t="n">
-        <v>233.5333333333333</v>
+        <v>233.1666666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,7 +4772,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C117" t="n">
         <v>248</v>
@@ -4467,13 +4781,13 @@
         <v>248</v>
       </c>
       <c r="E117" t="n">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="F117" t="n">
-        <v>51.6963</v>
+        <v>42.4023</v>
       </c>
       <c r="G117" t="n">
-        <v>233.9</v>
+        <v>233.5333333333333</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4807,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C118" t="n">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D118" t="n">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E118" t="n">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F118" t="n">
-        <v>823.0452</v>
+        <v>51.6963</v>
       </c>
       <c r="G118" t="n">
-        <v>234.1666666666667</v>
+        <v>233.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4842,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C119" t="n">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D119" t="n">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E119" t="n">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F119" t="n">
-        <v>320.6225</v>
+        <v>823.0452</v>
       </c>
       <c r="G119" t="n">
-        <v>234.4666666666667</v>
+        <v>234.1666666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4877,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C120" t="n">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D120" t="n">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E120" t="n">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="F120" t="n">
-        <v>2.3</v>
+        <v>320.6225</v>
       </c>
       <c r="G120" t="n">
-        <v>234.6666666666667</v>
+        <v>234.4666666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4912,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C121" t="n">
         <v>241</v>
       </c>
       <c r="D121" t="n">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E121" t="n">
         <v>241</v>
       </c>
       <c r="F121" t="n">
-        <v>235.8349</v>
+        <v>2.3</v>
       </c>
       <c r="G121" t="n">
-        <v>234.8833333333333</v>
+        <v>234.6666666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4947,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
+        <v>246</v>
+      </c>
+      <c r="C122" t="n">
         <v>241</v>
       </c>
-      <c r="C122" t="n">
-        <v>239</v>
-      </c>
       <c r="D122" t="n">
+        <v>246</v>
+      </c>
+      <c r="E122" t="n">
         <v>241</v>
       </c>
-      <c r="E122" t="n">
-        <v>239</v>
-      </c>
       <c r="F122" t="n">
-        <v>941.3905</v>
+        <v>235.8349</v>
       </c>
       <c r="G122" t="n">
-        <v>235.0666666666667</v>
+        <v>234.8833333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4982,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
+        <v>241</v>
+      </c>
+      <c r="C123" t="n">
         <v>239</v>
       </c>
-      <c r="C123" t="n">
-        <v>238</v>
-      </c>
       <c r="D123" t="n">
+        <v>241</v>
+      </c>
+      <c r="E123" t="n">
         <v>239</v>
       </c>
-      <c r="E123" t="n">
-        <v>238</v>
-      </c>
       <c r="F123" t="n">
-        <v>13169.7773</v>
+        <v>941.3905</v>
       </c>
       <c r="G123" t="n">
-        <v>235.2833333333333</v>
+        <v>235.0666666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +5017,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
+        <v>239</v>
+      </c>
+      <c r="C124" t="n">
         <v>238</v>
       </c>
-      <c r="C124" t="n">
-        <v>236</v>
-      </c>
       <c r="D124" t="n">
+        <v>239</v>
+      </c>
+      <c r="E124" t="n">
         <v>238</v>
       </c>
-      <c r="E124" t="n">
-        <v>236</v>
-      </c>
       <c r="F124" t="n">
-        <v>7838.8275</v>
+        <v>13169.7773</v>
       </c>
       <c r="G124" t="n">
-        <v>235.4666666666667</v>
+        <v>235.2833333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +5052,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C125" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D125" t="n">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E125" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F125" t="n">
-        <v>714.8738</v>
+        <v>7838.8275</v>
       </c>
       <c r="G125" t="n">
-        <v>235.6666666666667</v>
+        <v>235.4666666666667</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,31 +5087,35 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C126" t="n">
         <v>237</v>
       </c>
       <c r="D126" t="n">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E126" t="n">
         <v>237</v>
       </c>
       <c r="F126" t="n">
-        <v>99.29340000000001</v>
+        <v>714.8738</v>
       </c>
       <c r="G126" t="n">
-        <v>235.8666666666667</v>
+        <v>235.6666666666667</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>236</v>
+      </c>
+      <c r="K126" t="n">
+        <v>236</v>
+      </c>
       <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
@@ -4811,29 +5129,37 @@
         <v>237</v>
       </c>
       <c r="C127" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D127" t="n">
         <v>237</v>
       </c>
       <c r="E127" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F127" t="n">
-        <v>1359.5404</v>
+        <v>99.29340000000001</v>
       </c>
       <c r="G127" t="n">
-        <v>236.0166666666667</v>
+        <v>235.8666666666667</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>237</v>
+      </c>
+      <c r="K127" t="n">
+        <v>236</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4843,32 +5169,40 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C128" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D128" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E128" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F128" t="n">
-        <v>4621.5274</v>
+        <v>1359.5404</v>
       </c>
       <c r="G128" t="n">
-        <v>236.1</v>
+        <v>236.0166666666667</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>237</v>
+      </c>
+      <c r="K128" t="n">
+        <v>236</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4878,22 +5212,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C129" t="n">
         <v>233</v>
       </c>
       <c r="D129" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E129" t="n">
         <v>233</v>
       </c>
       <c r="F129" t="n">
-        <v>3</v>
+        <v>4621.5274</v>
       </c>
       <c r="G129" t="n">
-        <v>236.2</v>
+        <v>236.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4902,8 +5236,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>236</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4913,32 +5253,40 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C130" t="n">
         <v>233</v>
       </c>
       <c r="D130" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E130" t="n">
         <v>233</v>
       </c>
       <c r="F130" t="n">
-        <v>1331.2405</v>
+        <v>3</v>
       </c>
       <c r="G130" t="n">
-        <v>236.3</v>
+        <v>236.2</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>233</v>
+      </c>
+      <c r="K130" t="n">
+        <v>236</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4960,20 +5308,28 @@
         <v>233</v>
       </c>
       <c r="F131" t="n">
-        <v>5606.7318</v>
+        <v>1331.2405</v>
       </c>
       <c r="G131" t="n">
-        <v>236.4166666666667</v>
+        <v>236.3</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>233</v>
+      </c>
+      <c r="K131" t="n">
+        <v>236</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -4983,32 +5339,40 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C132" t="n">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D132" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E132" t="n">
         <v>233</v>
       </c>
       <c r="F132" t="n">
-        <v>14362.4217</v>
+        <v>5606.7318</v>
       </c>
       <c r="G132" t="n">
-        <v>236.6166666666667</v>
+        <v>236.4166666666667</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>233</v>
+      </c>
+      <c r="K132" t="n">
+        <v>236</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5021,19 +5385,19 @@
         <v>235</v>
       </c>
       <c r="C133" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D133" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E133" t="n">
         <v>233</v>
       </c>
       <c r="F133" t="n">
-        <v>6</v>
+        <v>14362.4217</v>
       </c>
       <c r="G133" t="n">
-        <v>236.75</v>
+        <v>236.6166666666667</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5042,8 +5406,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>236</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5053,22 +5423,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C134" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D134" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E134" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F134" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G134" t="n">
-        <v>236.85</v>
+        <v>236.75</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5077,8 +5447,14 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>236</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5088,22 +5464,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C135" t="n">
         <v>234</v>
       </c>
       <c r="D135" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E135" t="n">
         <v>234</v>
       </c>
       <c r="F135" t="n">
-        <v>70.34220000000001</v>
+        <v>17</v>
       </c>
       <c r="G135" t="n">
-        <v>236.95</v>
+        <v>236.85</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5112,8 +5488,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>236</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5123,22 +5505,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C136" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D136" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E136" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F136" t="n">
-        <v>64.04600000000001</v>
+        <v>70.34220000000001</v>
       </c>
       <c r="G136" t="n">
-        <v>237.0833333333333</v>
+        <v>236.95</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5147,8 +5529,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>236</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5158,22 +5546,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C137" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D137" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E137" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F137" t="n">
-        <v>3</v>
+        <v>64.04600000000001</v>
       </c>
       <c r="G137" t="n">
-        <v>237.2333333333333</v>
+        <v>237.0833333333333</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5182,8 +5570,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>236</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5193,22 +5587,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C138" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D138" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E138" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F138" t="n">
-        <v>3783.1447</v>
+        <v>3</v>
       </c>
       <c r="G138" t="n">
-        <v>237.3833333333333</v>
+        <v>237.2333333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5217,8 +5611,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>236</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5228,22 +5628,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C139" t="n">
         <v>233</v>
       </c>
       <c r="D139" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E139" t="n">
         <v>233</v>
       </c>
       <c r="F139" t="n">
-        <v>2734.1415</v>
+        <v>3783.1447</v>
       </c>
       <c r="G139" t="n">
-        <v>237.5333333333333</v>
+        <v>237.3833333333333</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5252,8 +5652,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>236</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5263,22 +5669,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C140" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D140" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E140" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F140" t="n">
-        <v>2463.7274</v>
+        <v>2734.1415</v>
       </c>
       <c r="G140" t="n">
-        <v>237.6666666666667</v>
+        <v>237.5333333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5287,8 +5693,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>236</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5298,22 +5710,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C141" t="n">
         <v>232</v>
       </c>
       <c r="D141" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E141" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F141" t="n">
-        <v>4993.681</v>
+        <v>2463.7274</v>
       </c>
       <c r="G141" t="n">
-        <v>237.8</v>
+        <v>237.6666666666667</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5322,8 +5734,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>236</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5336,33 +5754,35 @@
         <v>233</v>
       </c>
       <c r="C142" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D142" t="n">
         <v>234</v>
       </c>
       <c r="E142" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F142" t="n">
-        <v>4323.0135</v>
+        <v>4993.681</v>
       </c>
       <c r="G142" t="n">
-        <v>237.9833333333333</v>
+        <v>237.8</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>232</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>232</v>
-      </c>
-      <c r="L142" t="inlineStr"/>
+        <v>236</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5372,38 +5792,36 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
+        <v>233</v>
+      </c>
+      <c r="C143" t="n">
         <v>234</v>
-      </c>
-      <c r="C143" t="n">
-        <v>232</v>
       </c>
       <c r="D143" t="n">
         <v>234</v>
       </c>
       <c r="E143" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F143" t="n">
-        <v>11214.2516</v>
+        <v>4323.0135</v>
       </c>
       <c r="G143" t="n">
-        <v>238.1833333333333</v>
+        <v>237.9833333333333</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>234</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M143" t="n">
@@ -5415,22 +5833,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C144" t="n">
         <v>232</v>
       </c>
       <c r="D144" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E144" t="n">
         <v>232</v>
       </c>
       <c r="F144" t="n">
-        <v>2595.0296</v>
+        <v>11214.2516</v>
       </c>
       <c r="G144" t="n">
-        <v>238.3833333333333</v>
+        <v>238.1833333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5440,7 +5858,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -5456,22 +5874,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C145" t="n">
         <v>232</v>
       </c>
       <c r="D145" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E145" t="n">
         <v>232</v>
       </c>
       <c r="F145" t="n">
-        <v>3</v>
+        <v>2595.0296</v>
       </c>
       <c r="G145" t="n">
-        <v>238.5333333333333</v>
+        <v>238.3833333333333</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5481,7 +5899,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -5497,22 +5915,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C146" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D146" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E146" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F146" t="n">
-        <v>70.6061</v>
+        <v>3</v>
       </c>
       <c r="G146" t="n">
-        <v>238.7</v>
+        <v>238.5333333333333</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5522,7 +5940,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -5538,22 +5956,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C147" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D147" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E147" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F147" t="n">
-        <v>3</v>
+        <v>70.6061</v>
       </c>
       <c r="G147" t="n">
-        <v>238.8333333333333</v>
+        <v>238.7</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5563,7 +5981,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -5579,22 +5997,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C148" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D148" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E148" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F148" t="n">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="G148" t="n">
-        <v>238.9666666666667</v>
+        <v>238.8333333333333</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5604,7 +6022,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -5620,22 +6038,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C149" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D149" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E149" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F149" t="n">
-        <v>3603.202</v>
+        <v>1000</v>
       </c>
       <c r="G149" t="n">
-        <v>239.0333333333333</v>
+        <v>238.9666666666667</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5645,7 +6063,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -5661,22 +6079,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C150" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D150" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E150" t="n">
         <v>232</v>
       </c>
       <c r="F150" t="n">
-        <v>6565.6075</v>
+        <v>3603.202</v>
       </c>
       <c r="G150" t="n">
-        <v>239.15</v>
+        <v>239.0333333333333</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5686,7 +6104,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -5702,22 +6120,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C151" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D151" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E151" t="n">
         <v>232</v>
       </c>
       <c r="F151" t="n">
-        <v>3</v>
+        <v>6565.6075</v>
       </c>
       <c r="G151" t="n">
-        <v>239.2166666666667</v>
+        <v>239.15</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5727,7 +6145,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -5743,22 +6161,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C152" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D152" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E152" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F152" t="n">
-        <v>2446.5596</v>
+        <v>3</v>
       </c>
       <c r="G152" t="n">
-        <v>239.1833333333333</v>
+        <v>239.2166666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5768,7 +6186,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -5784,22 +6202,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C153" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D153" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E153" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F153" t="n">
-        <v>93.5629</v>
+        <v>2446.5596</v>
       </c>
       <c r="G153" t="n">
-        <v>239.1</v>
+        <v>239.1833333333333</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5809,7 +6227,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -5825,22 +6243,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
+        <v>234</v>
+      </c>
+      <c r="C154" t="n">
         <v>232</v>
       </c>
-      <c r="C154" t="n">
-        <v>230</v>
-      </c>
       <c r="D154" t="n">
+        <v>234</v>
+      </c>
+      <c r="E154" t="n">
         <v>232</v>
       </c>
-      <c r="E154" t="n">
-        <v>230</v>
-      </c>
       <c r="F154" t="n">
-        <v>7972.8212</v>
+        <v>93.5629</v>
       </c>
       <c r="G154" t="n">
-        <v>239</v>
+        <v>239.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5850,7 +6268,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -5866,22 +6284,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C155" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D155" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E155" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F155" t="n">
-        <v>11481.5003</v>
+        <v>7972.8212</v>
       </c>
       <c r="G155" t="n">
-        <v>238.85</v>
+        <v>239</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5891,7 +6309,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -5919,10 +6337,10 @@
         <v>229</v>
       </c>
       <c r="F156" t="n">
-        <v>3</v>
+        <v>11481.5003</v>
       </c>
       <c r="G156" t="n">
-        <v>238.6833333333333</v>
+        <v>238.85</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5932,7 +6350,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -5951,19 +6369,19 @@
         <v>229</v>
       </c>
       <c r="C157" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D157" t="n">
         <v>229</v>
       </c>
       <c r="E157" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F157" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G157" t="n">
-        <v>238.5166666666667</v>
+        <v>238.6833333333333</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5973,7 +6391,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -5989,22 +6407,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C158" t="n">
         <v>228</v>
       </c>
       <c r="D158" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E158" t="n">
         <v>228</v>
       </c>
       <c r="F158" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G158" t="n">
-        <v>238.3333333333333</v>
+        <v>238.5166666666667</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6014,7 +6432,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -6045,7 +6463,7 @@
         <v>3</v>
       </c>
       <c r="G159" t="n">
-        <v>238.05</v>
+        <v>238.3333333333333</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6055,7 +6473,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -6083,10 +6501,10 @@
         <v>228</v>
       </c>
       <c r="F160" t="n">
-        <v>5748.3603</v>
+        <v>3</v>
       </c>
       <c r="G160" t="n">
-        <v>237.65</v>
+        <v>238.05</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6096,7 +6514,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -6112,22 +6530,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C161" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D161" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E161" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F161" t="n">
-        <v>4</v>
+        <v>5748.3603</v>
       </c>
       <c r="G161" t="n">
-        <v>237.2666666666667</v>
+        <v>237.65</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6137,7 +6555,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -6165,10 +6583,10 @@
         <v>229</v>
       </c>
       <c r="F162" t="n">
-        <v>305.606</v>
+        <v>4</v>
       </c>
       <c r="G162" t="n">
-        <v>236.9333333333333</v>
+        <v>237.2666666666667</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6178,7 +6596,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -6194,22 +6612,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C163" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D163" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E163" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F163" t="n">
-        <v>3</v>
+        <v>305.606</v>
       </c>
       <c r="G163" t="n">
-        <v>236.6</v>
+        <v>236.9333333333333</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6219,7 +6637,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -6247,10 +6665,10 @@
         <v>228</v>
       </c>
       <c r="F164" t="n">
-        <v>2862.6397</v>
+        <v>3</v>
       </c>
       <c r="G164" t="n">
-        <v>236.2666666666667</v>
+        <v>236.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6260,7 +6678,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -6276,22 +6694,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C165" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D165" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E165" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F165" t="n">
-        <v>3</v>
+        <v>2862.6397</v>
       </c>
       <c r="G165" t="n">
-        <v>235.9166666666667</v>
+        <v>236.2666666666667</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6301,7 +6719,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -6329,10 +6747,10 @@
         <v>226</v>
       </c>
       <c r="F166" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="G166" t="n">
-        <v>235.6</v>
+        <v>235.9166666666667</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6342,7 +6760,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -6370,10 +6788,10 @@
         <v>226</v>
       </c>
       <c r="F167" t="n">
-        <v>8190.3082</v>
+        <v>50</v>
       </c>
       <c r="G167" t="n">
-        <v>235.2833333333333</v>
+        <v>235.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6383,7 +6801,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -6399,22 +6817,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C168" t="n">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D168" t="n">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E168" t="n">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F168" t="n">
-        <v>1.2</v>
+        <v>8190.3082</v>
       </c>
       <c r="G168" t="n">
-        <v>235.0333333333333</v>
+        <v>235.2833333333333</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6424,7 +6842,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -6443,19 +6861,19 @@
         <v>230</v>
       </c>
       <c r="C169" t="n">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D169" t="n">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E169" t="n">
         <v>230</v>
       </c>
       <c r="F169" t="n">
-        <v>13917.0325</v>
+        <v>1.2</v>
       </c>
       <c r="G169" t="n">
-        <v>234.85</v>
+        <v>235.0333333333333</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6465,7 +6883,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -6481,22 +6899,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
+        <v>230</v>
+      </c>
+      <c r="C170" t="n">
         <v>234</v>
       </c>
-      <c r="C170" t="n">
-        <v>235</v>
-      </c>
       <c r="D170" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E170" t="n">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F170" t="n">
-        <v>209.566</v>
+        <v>13917.0325</v>
       </c>
       <c r="G170" t="n">
-        <v>234.65</v>
+        <v>234.85</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6506,7 +6924,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
@@ -6525,19 +6943,19 @@
         <v>234</v>
       </c>
       <c r="C171" t="n">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D171" t="n">
+        <v>235</v>
+      </c>
+      <c r="E171" t="n">
         <v>234</v>
       </c>
-      <c r="E171" t="n">
-        <v>231</v>
-      </c>
       <c r="F171" t="n">
-        <v>6074.315</v>
+        <v>209.566</v>
       </c>
       <c r="G171" t="n">
-        <v>234.3833333333333</v>
+        <v>234.65</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6547,7 +6965,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
@@ -6563,22 +6981,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C172" t="n">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D172" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E172" t="n">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F172" t="n">
-        <v>3</v>
+        <v>6074.315</v>
       </c>
       <c r="G172" t="n">
-        <v>234.1833333333333</v>
+        <v>234.3833333333333</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6588,7 +7006,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -6619,7 +7037,7 @@
         <v>3</v>
       </c>
       <c r="G173" t="n">
-        <v>233.9666666666667</v>
+        <v>234.1833333333333</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6629,7 +7047,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
@@ -6660,7 +7078,7 @@
         <v>3</v>
       </c>
       <c r="G174" t="n">
-        <v>233.75</v>
+        <v>233.9666666666667</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6670,7 +7088,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L174" t="inlineStr">
         <is>
@@ -6698,10 +7116,10 @@
         <v>235</v>
       </c>
       <c r="F175" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G175" t="n">
-        <v>233.5333333333333</v>
+        <v>233.75</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6711,7 +7129,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L175" t="inlineStr">
         <is>
@@ -6739,10 +7157,10 @@
         <v>235</v>
       </c>
       <c r="F176" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="G176" t="n">
-        <v>233.3166666666667</v>
+        <v>233.5333333333333</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6752,7 +7170,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L176" t="inlineStr">
         <is>
@@ -6768,7 +7186,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C177" t="n">
         <v>235</v>
@@ -6777,13 +7195,13 @@
         <v>235</v>
       </c>
       <c r="E177" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F177" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="G177" t="n">
-        <v>233.1</v>
+        <v>233.3166666666667</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6793,7 +7211,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L177" t="inlineStr">
         <is>
@@ -6809,7 +7227,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C178" t="n">
         <v>235</v>
@@ -6818,13 +7236,13 @@
         <v>235</v>
       </c>
       <c r="E178" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F178" t="n">
-        <v>2.13</v>
+        <v>23</v>
       </c>
       <c r="G178" t="n">
-        <v>232.9666666666667</v>
+        <v>233.1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6834,7 +7252,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
@@ -6862,10 +7280,10 @@
         <v>235</v>
       </c>
       <c r="F179" t="n">
-        <v>500</v>
+        <v>2.13</v>
       </c>
       <c r="G179" t="n">
-        <v>232.7833333333333</v>
+        <v>232.9666666666667</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6875,7 +7293,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
@@ -6891,22 +7309,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C180" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D180" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E180" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F180" t="n">
-        <v>23</v>
+        <v>500</v>
       </c>
       <c r="G180" t="n">
-        <v>232.6666666666667</v>
+        <v>232.7833333333333</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6916,7 +7334,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L180" t="inlineStr">
         <is>
@@ -6944,10 +7362,10 @@
         <v>234</v>
       </c>
       <c r="F181" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="G181" t="n">
-        <v>232.55</v>
+        <v>232.6666666666667</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6957,7 +7375,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L181" t="inlineStr">
         <is>
@@ -6973,22 +7391,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C182" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D182" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E182" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F182" t="n">
-        <v>31.7324</v>
+        <v>6</v>
       </c>
       <c r="G182" t="n">
-        <v>232.4833333333333</v>
+        <v>232.55</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6998,7 +7416,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L182" t="inlineStr">
         <is>
@@ -7017,19 +7435,19 @@
         <v>235</v>
       </c>
       <c r="C183" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D183" t="n">
         <v>235</v>
       </c>
       <c r="E183" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F183" t="n">
-        <v>23</v>
+        <v>31.7324</v>
       </c>
       <c r="G183" t="n">
-        <v>232.4166666666667</v>
+        <v>232.4833333333333</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7039,7 +7457,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L183" t="inlineStr">
         <is>
@@ -7055,22 +7473,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C184" t="n">
         <v>234</v>
       </c>
       <c r="D184" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E184" t="n">
         <v>234</v>
       </c>
       <c r="F184" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="G184" t="n">
-        <v>232.3833333333333</v>
+        <v>232.4166666666667</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7080,7 +7498,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L184" t="inlineStr">
         <is>
@@ -7096,22 +7514,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C185" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D185" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E185" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F185" t="n">
-        <v>1852.819</v>
+        <v>6</v>
       </c>
       <c r="G185" t="n">
-        <v>232.3</v>
+        <v>232.3833333333333</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7121,7 +7539,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L185" t="inlineStr">
         <is>
@@ -7137,22 +7555,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C186" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D186" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E186" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F186" t="n">
-        <v>15442.5695</v>
+        <v>1852.819</v>
       </c>
       <c r="G186" t="n">
-        <v>232.1833333333333</v>
+        <v>232.3</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7162,7 +7580,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L186" t="inlineStr">
         <is>
@@ -7178,22 +7596,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C187" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D187" t="n">
         <v>235</v>
       </c>
       <c r="E187" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F187" t="n">
-        <v>6087.2049</v>
+        <v>15442.5695</v>
       </c>
       <c r="G187" t="n">
-        <v>232.1333333333333</v>
+        <v>232.1833333333333</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7203,7 +7621,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L187" t="inlineStr">
         <is>
@@ -7219,22 +7637,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C188" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D188" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E188" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F188" t="n">
-        <v>20218.2719</v>
+        <v>6087.2049</v>
       </c>
       <c r="G188" t="n">
-        <v>232.15</v>
+        <v>232.1333333333333</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7244,7 +7662,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L188" t="inlineStr">
         <is>
@@ -7269,13 +7687,13 @@
         <v>234</v>
       </c>
       <c r="E189" t="n">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F189" t="n">
-        <v>3</v>
+        <v>20218.2719</v>
       </c>
       <c r="G189" t="n">
-        <v>232.1666666666667</v>
+        <v>232.15</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7285,7 +7703,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L189" t="inlineStr">
         <is>
@@ -7301,16 +7719,16 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C190" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D190" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E190" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F190" t="n">
         <v>3</v>
@@ -7326,7 +7744,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L190" t="inlineStr">
         <is>
@@ -7342,22 +7760,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C191" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D191" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E191" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F191" t="n">
-        <v>3120.1889</v>
+        <v>3</v>
       </c>
       <c r="G191" t="n">
-        <v>232.15</v>
+        <v>232.1666666666667</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7367,7 +7785,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L191" t="inlineStr">
         <is>
@@ -7383,7 +7801,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C192" t="n">
         <v>232</v>
@@ -7392,13 +7810,13 @@
         <v>232</v>
       </c>
       <c r="E192" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F192" t="n">
-        <v>304.062</v>
+        <v>3120.1889</v>
       </c>
       <c r="G192" t="n">
-        <v>232.0833333333333</v>
+        <v>232.15</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7408,7 +7826,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L192" t="inlineStr">
         <is>
@@ -7424,22 +7842,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
+        <v>228</v>
+      </c>
+      <c r="C193" t="n">
         <v>232</v>
       </c>
-      <c r="C193" t="n">
-        <v>234</v>
-      </c>
       <c r="D193" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E193" t="n">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F193" t="n">
-        <v>6</v>
+        <v>304.062</v>
       </c>
       <c r="G193" t="n">
-        <v>232.1</v>
+        <v>232.0833333333333</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7449,7 +7867,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L193" t="inlineStr">
         <is>
@@ -7465,7 +7883,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C194" t="n">
         <v>234</v>
@@ -7474,10 +7892,10 @@
         <v>234</v>
       </c>
       <c r="E194" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F194" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G194" t="n">
         <v>232.1</v>
@@ -7490,7 +7908,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L194" t="inlineStr">
         <is>
@@ -7506,22 +7924,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C195" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D195" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E195" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F195" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G195" t="n">
-        <v>232.0833333333333</v>
+        <v>232.1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7531,7 +7949,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L195" t="inlineStr">
         <is>
@@ -7559,10 +7977,10 @@
         <v>233</v>
       </c>
       <c r="F196" t="n">
-        <v>196.8467</v>
+        <v>13</v>
       </c>
       <c r="G196" t="n">
-        <v>232.05</v>
+        <v>232.0833333333333</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7572,7 +7990,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L196" t="inlineStr">
         <is>
@@ -7591,16 +8009,16 @@
         <v>233</v>
       </c>
       <c r="C197" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D197" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E197" t="n">
         <v>233</v>
       </c>
       <c r="F197" t="n">
-        <v>1205</v>
+        <v>196.8467</v>
       </c>
       <c r="G197" t="n">
         <v>232.05</v>
@@ -7613,7 +8031,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L197" t="inlineStr">
         <is>
@@ -7632,19 +8050,19 @@
         <v>233</v>
       </c>
       <c r="C198" t="n">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D198" t="n">
+        <v>234</v>
+      </c>
+      <c r="E198" t="n">
         <v>233</v>
       </c>
-      <c r="E198" t="n">
-        <v>228</v>
-      </c>
       <c r="F198" t="n">
-        <v>1571.3501</v>
+        <v>1205</v>
       </c>
       <c r="G198" t="n">
-        <v>231.9666666666667</v>
+        <v>232.05</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7654,7 +8072,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L198" t="inlineStr">
         <is>
@@ -7670,19 +8088,19 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C199" t="n">
+        <v>228</v>
+      </c>
+      <c r="D199" t="n">
         <v>233</v>
       </c>
-      <c r="D199" t="n">
-        <v>234</v>
-      </c>
       <c r="E199" t="n">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F199" t="n">
-        <v>6</v>
+        <v>1571.3501</v>
       </c>
       <c r="G199" t="n">
         <v>231.9666666666667</v>
@@ -7695,7 +8113,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L199" t="inlineStr">
         <is>
@@ -7711,19 +8129,19 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C200" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D200" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E200" t="n">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F200" t="n">
-        <v>3248.5231</v>
+        <v>6</v>
       </c>
       <c r="G200" t="n">
         <v>231.9666666666667</v>
@@ -7736,7 +8154,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L200" t="inlineStr">
         <is>
@@ -7752,22 +8170,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C201" t="n">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D201" t="n">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E201" t="n">
         <v>228</v>
       </c>
       <c r="F201" t="n">
-        <v>4856.33</v>
+        <v>3248.5231</v>
       </c>
       <c r="G201" t="n">
-        <v>231.9</v>
+        <v>231.9666666666667</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7777,7 +8195,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L201" t="inlineStr">
         <is>
@@ -7793,22 +8211,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C202" t="n">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D202" t="n">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E202" t="n">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F202" t="n">
-        <v>6</v>
+        <v>4856.33</v>
       </c>
       <c r="G202" t="n">
-        <v>231.8666666666667</v>
+        <v>231.9</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7818,7 +8236,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L202" t="inlineStr">
         <is>
@@ -7834,22 +8252,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C203" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D203" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E203" t="n">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F203" t="n">
-        <v>3061.0431</v>
+        <v>6</v>
       </c>
       <c r="G203" t="n">
-        <v>231.8333333333333</v>
+        <v>231.8666666666667</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7859,7 +8277,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L203" t="inlineStr">
         <is>
@@ -7884,13 +8302,13 @@
         <v>230</v>
       </c>
       <c r="E204" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F204" t="n">
-        <v>4895.1473</v>
+        <v>3061.0431</v>
       </c>
       <c r="G204" t="n">
-        <v>231.8</v>
+        <v>231.8333333333333</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7900,7 +8318,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L204" t="inlineStr">
         <is>
@@ -7916,22 +8334,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C205" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D205" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E205" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F205" t="n">
-        <v>3</v>
+        <v>4895.1473</v>
       </c>
       <c r="G205" t="n">
-        <v>231.7833333333333</v>
+        <v>231.8</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7941,7 +8359,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L205" t="inlineStr">
         <is>
@@ -7957,7 +8375,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C206" t="n">
         <v>231</v>
@@ -7966,13 +8384,13 @@
         <v>231</v>
       </c>
       <c r="E206" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F206" t="n">
-        <v>2943.9427</v>
+        <v>3</v>
       </c>
       <c r="G206" t="n">
-        <v>231.75</v>
+        <v>231.7833333333333</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7982,7 +8400,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L206" t="inlineStr">
         <is>
@@ -8010,10 +8428,10 @@
         <v>230</v>
       </c>
       <c r="F207" t="n">
-        <v>1039.0567</v>
+        <v>2943.9427</v>
       </c>
       <c r="G207" t="n">
-        <v>231.7333333333333</v>
+        <v>231.75</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8023,7 +8441,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L207" t="inlineStr">
         <is>
@@ -8039,7 +8457,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C208" t="n">
         <v>231</v>
@@ -8048,13 +8466,13 @@
         <v>231</v>
       </c>
       <c r="E208" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F208" t="n">
-        <v>491</v>
+        <v>1039.0567</v>
       </c>
       <c r="G208" t="n">
-        <v>231.6666666666667</v>
+        <v>231.7333333333333</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8064,7 +8482,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L208" t="inlineStr">
         <is>
@@ -8080,22 +8498,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C209" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D209" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E209" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F209" t="n">
-        <v>213.105</v>
+        <v>491</v>
       </c>
       <c r="G209" t="n">
-        <v>231.6833333333333</v>
+        <v>231.6666666666667</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8105,7 +8523,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L209" t="inlineStr">
         <is>
@@ -8121,22 +8539,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C210" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D210" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E210" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F210" t="n">
-        <v>807.8313000000001</v>
+        <v>213.105</v>
       </c>
       <c r="G210" t="n">
-        <v>231.6666666666667</v>
+        <v>231.6833333333333</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8146,7 +8564,7 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L210" t="inlineStr">
         <is>
@@ -8174,10 +8592,10 @@
         <v>234</v>
       </c>
       <c r="F211" t="n">
-        <v>43</v>
+        <v>807.8313000000001</v>
       </c>
       <c r="G211" t="n">
-        <v>231.7</v>
+        <v>231.6666666666667</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8187,7 +8605,7 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L211" t="inlineStr">
         <is>
@@ -8203,7 +8621,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C212" t="n">
         <v>234</v>
@@ -8212,13 +8630,13 @@
         <v>234</v>
       </c>
       <c r="E212" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F212" t="n">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G212" t="n">
-        <v>231.75</v>
+        <v>231.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8228,7 +8646,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L212" t="inlineStr">
         <is>
@@ -8256,10 +8674,10 @@
         <v>232</v>
       </c>
       <c r="F213" t="n">
-        <v>3907.4254</v>
+        <v>14</v>
       </c>
       <c r="G213" t="n">
-        <v>231.7833333333333</v>
+        <v>231.75</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8269,7 +8687,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L213" t="inlineStr">
         <is>
@@ -8285,22 +8703,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
+        <v>232</v>
+      </c>
+      <c r="C214" t="n">
         <v>234</v>
       </c>
-      <c r="C214" t="n">
-        <v>235</v>
-      </c>
       <c r="D214" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E214" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F214" t="n">
-        <v>2854.1178</v>
+        <v>3907.4254</v>
       </c>
       <c r="G214" t="n">
-        <v>231.8666666666667</v>
+        <v>231.7833333333333</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8310,7 +8728,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L214" t="inlineStr">
         <is>
@@ -8329,19 +8747,19 @@
         <v>234</v>
       </c>
       <c r="C215" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D215" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E215" t="n">
         <v>234</v>
       </c>
       <c r="F215" t="n">
-        <v>890.2831</v>
+        <v>2854.1178</v>
       </c>
       <c r="G215" t="n">
-        <v>232</v>
+        <v>231.8666666666667</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8351,7 +8769,7 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L215" t="inlineStr">
         <is>
@@ -8367,22 +8785,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
+        <v>234</v>
+      </c>
+      <c r="C216" t="n">
         <v>237</v>
-      </c>
-      <c r="C216" t="n">
-        <v>235</v>
       </c>
       <c r="D216" t="n">
         <v>237</v>
       </c>
       <c r="E216" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F216" t="n">
-        <v>5973.922</v>
+        <v>890.2831</v>
       </c>
       <c r="G216" t="n">
-        <v>232.1</v>
+        <v>232</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8392,7 +8810,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L216" t="inlineStr">
         <is>
@@ -8408,22 +8826,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C217" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D217" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E217" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F217" t="n">
-        <v>23709.2403</v>
+        <v>5973.922</v>
       </c>
       <c r="G217" t="n">
-        <v>232.2666666666667</v>
+        <v>232.1</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8433,7 +8851,7 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L217" t="inlineStr">
         <is>
@@ -8449,22 +8867,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C218" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D218" t="n">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E218" t="n">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F218" t="n">
-        <v>3504.5767</v>
+        <v>23709.2403</v>
       </c>
       <c r="G218" t="n">
-        <v>232.4666666666667</v>
+        <v>232.2666666666667</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8474,7 +8892,7 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L218" t="inlineStr">
         <is>
@@ -8490,7 +8908,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C219" t="n">
         <v>240</v>
@@ -8502,10 +8920,10 @@
         <v>240</v>
       </c>
       <c r="F219" t="n">
-        <v>4292.2347</v>
+        <v>3504.5767</v>
       </c>
       <c r="G219" t="n">
-        <v>232.6666666666667</v>
+        <v>232.4666666666667</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8515,7 +8933,7 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L219" t="inlineStr">
         <is>
@@ -8543,10 +8961,10 @@
         <v>240</v>
       </c>
       <c r="F220" t="n">
-        <v>59</v>
+        <v>4292.2347</v>
       </c>
       <c r="G220" t="n">
-        <v>232.8666666666667</v>
+        <v>232.6666666666667</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8556,7 +8974,7 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L220" t="inlineStr">
         <is>
@@ -8581,13 +8999,13 @@
         <v>242</v>
       </c>
       <c r="E221" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F221" t="n">
-        <v>22953.3245</v>
+        <v>59</v>
       </c>
       <c r="G221" t="n">
-        <v>233.05</v>
+        <v>232.8666666666667</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8597,7 +9015,7 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L221" t="inlineStr">
         <is>
@@ -8613,22 +9031,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
+        <v>242</v>
+      </c>
+      <c r="C222" t="n">
         <v>240</v>
-      </c>
-      <c r="C222" t="n">
-        <v>242</v>
       </c>
       <c r="D222" t="n">
         <v>242</v>
       </c>
       <c r="E222" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F222" t="n">
-        <v>1087.8401</v>
+        <v>22953.3245</v>
       </c>
       <c r="G222" t="n">
-        <v>233.2666666666667</v>
+        <v>233.05</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8638,7 +9056,7 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L222" t="inlineStr">
         <is>
@@ -8654,7 +9072,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C223" t="n">
         <v>242</v>
@@ -8663,13 +9081,13 @@
         <v>242</v>
       </c>
       <c r="E223" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F223" t="n">
-        <v>4132.2315</v>
+        <v>1087.8401</v>
       </c>
       <c r="G223" t="n">
-        <v>233.5</v>
+        <v>233.2666666666667</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8679,7 +9097,7 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L223" t="inlineStr">
         <is>
@@ -8707,10 +9125,10 @@
         <v>242</v>
       </c>
       <c r="F224" t="n">
-        <v>602.6313</v>
+        <v>4132.2315</v>
       </c>
       <c r="G224" t="n">
-        <v>233.7333333333333</v>
+        <v>233.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8720,7 +9138,7 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L224" t="inlineStr">
         <is>
@@ -8739,19 +9157,19 @@
         <v>242</v>
       </c>
       <c r="C225" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D225" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E225" t="n">
         <v>242</v>
       </c>
       <c r="F225" t="n">
-        <v>1756.6307</v>
+        <v>602.6313</v>
       </c>
       <c r="G225" t="n">
-        <v>234.0333333333333</v>
+        <v>233.7333333333333</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8761,7 +9179,7 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L225" t="inlineStr">
         <is>
@@ -8777,22 +9195,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C226" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D226" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E226" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F226" t="n">
-        <v>3300.3095</v>
+        <v>1756.6307</v>
       </c>
       <c r="G226" t="n">
-        <v>234.3166666666667</v>
+        <v>234.0333333333333</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8802,7 +9220,7 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L226" t="inlineStr">
         <is>
@@ -8821,19 +9239,19 @@
         <v>243</v>
       </c>
       <c r="C227" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D227" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E227" t="n">
         <v>243</v>
       </c>
       <c r="F227" t="n">
-        <v>3620.8296</v>
+        <v>3300.3095</v>
       </c>
       <c r="G227" t="n">
-        <v>234.6166666666667</v>
+        <v>234.3166666666667</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8843,7 +9261,7 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L227" t="inlineStr">
         <is>
@@ -8862,7 +9280,7 @@
         <v>243</v>
       </c>
       <c r="C228" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D228" t="n">
         <v>244</v>
@@ -8871,10 +9289,10 @@
         <v>243</v>
       </c>
       <c r="F228" t="n">
-        <v>7184.4884</v>
+        <v>3620.8296</v>
       </c>
       <c r="G228" t="n">
-        <v>234.8333333333333</v>
+        <v>234.6166666666667</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8884,7 +9302,7 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L228" t="inlineStr">
         <is>
@@ -8900,22 +9318,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C229" t="n">
         <v>243</v>
       </c>
       <c r="D229" t="n">
+        <v>244</v>
+      </c>
+      <c r="E229" t="n">
         <v>243</v>
       </c>
-      <c r="E229" t="n">
-        <v>239</v>
-      </c>
       <c r="F229" t="n">
-        <v>17873.8073</v>
+        <v>7184.4884</v>
       </c>
       <c r="G229" t="n">
-        <v>234.9833333333333</v>
+        <v>234.8333333333333</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8925,7 +9343,7 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L229" t="inlineStr">
         <is>
@@ -8941,7 +9359,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C230" t="n">
         <v>243</v>
@@ -8950,13 +9368,13 @@
         <v>243</v>
       </c>
       <c r="E230" t="n">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F230" t="n">
-        <v>3480.655</v>
+        <v>17873.8073</v>
       </c>
       <c r="G230" t="n">
-        <v>235.1166666666667</v>
+        <v>234.9833333333333</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8966,7 +9384,7 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L230" t="inlineStr">
         <is>
@@ -8982,22 +9400,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C231" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D231" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E231" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F231" t="n">
-        <v>4836.3175</v>
+        <v>3480.655</v>
       </c>
       <c r="G231" t="n">
-        <v>235.3</v>
+        <v>235.1166666666667</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -9007,7 +9425,7 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L231" t="inlineStr">
         <is>
@@ -9023,7 +9441,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C232" t="n">
         <v>242</v>
@@ -9032,13 +9450,13 @@
         <v>242</v>
       </c>
       <c r="E232" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F232" t="n">
-        <v>3</v>
+        <v>4836.3175</v>
       </c>
       <c r="G232" t="n">
-        <v>235.4166666666667</v>
+        <v>235.3</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -9048,7 +9466,7 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L232" t="inlineStr">
         <is>
@@ -9064,22 +9482,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C233" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D233" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E233" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F233" t="n">
-        <v>625.2894</v>
+        <v>3</v>
       </c>
       <c r="G233" t="n">
-        <v>235.5166666666667</v>
+        <v>235.4166666666667</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -9089,7 +9507,7 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L233" t="inlineStr">
         <is>
@@ -9105,22 +9523,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C234" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D234" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E234" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F234" t="n">
-        <v>9026.063599999999</v>
+        <v>625.2894</v>
       </c>
       <c r="G234" t="n">
-        <v>235.6333333333333</v>
+        <v>235.5166666666667</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -9130,7 +9548,7 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L234" t="inlineStr">
         <is>
@@ -9149,19 +9567,19 @@
         <v>240</v>
       </c>
       <c r="C235" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D235" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E235" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F235" t="n">
-        <v>510.9355</v>
+        <v>9026.063599999999</v>
       </c>
       <c r="G235" t="n">
-        <v>235.7333333333333</v>
+        <v>235.6333333333333</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -9171,7 +9589,7 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L235" t="inlineStr">
         <is>
@@ -9187,22 +9605,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
+        <v>240</v>
+      </c>
+      <c r="C236" t="n">
         <v>241</v>
       </c>
-      <c r="C236" t="n">
-        <v>240</v>
-      </c>
       <c r="D236" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E236" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F236" t="n">
-        <v>240.4342</v>
+        <v>510.9355</v>
       </c>
       <c r="G236" t="n">
-        <v>235.8166666666667</v>
+        <v>235.7333333333333</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9212,7 +9630,7 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L236" t="inlineStr">
         <is>
@@ -9228,22 +9646,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
+        <v>241</v>
+      </c>
+      <c r="C237" t="n">
         <v>240</v>
       </c>
-      <c r="C237" t="n">
-        <v>239</v>
-      </c>
       <c r="D237" t="n">
+        <v>242</v>
+      </c>
+      <c r="E237" t="n">
         <v>240</v>
       </c>
-      <c r="E237" t="n">
-        <v>239</v>
-      </c>
       <c r="F237" t="n">
-        <v>6986.081766666666</v>
+        <v>240.4342</v>
       </c>
       <c r="G237" t="n">
-        <v>235.8833333333333</v>
+        <v>235.8166666666667</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9253,7 +9671,7 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L237" t="inlineStr">
         <is>
@@ -9281,10 +9699,10 @@
         <v>239</v>
       </c>
       <c r="F238" t="n">
-        <v>929.4008</v>
+        <v>6986.081766666666</v>
       </c>
       <c r="G238" t="n">
-        <v>235.95</v>
+        <v>235.8833333333333</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9294,7 +9712,7 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L238" t="inlineStr">
         <is>
@@ -9310,22 +9728,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
+        <v>240</v>
+      </c>
+      <c r="C239" t="n">
         <v>239</v>
       </c>
-      <c r="C239" t="n">
-        <v>238</v>
-      </c>
       <c r="D239" t="n">
+        <v>240</v>
+      </c>
+      <c r="E239" t="n">
         <v>239</v>
       </c>
-      <c r="E239" t="n">
-        <v>238</v>
-      </c>
       <c r="F239" t="n">
-        <v>761.828</v>
+        <v>929.4008</v>
       </c>
       <c r="G239" t="n">
-        <v>236</v>
+        <v>235.95</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9335,7 +9753,7 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L239" t="inlineStr">
         <is>
@@ -9351,22 +9769,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
+        <v>239</v>
+      </c>
+      <c r="C240" t="n">
         <v>238</v>
-      </c>
-      <c r="C240" t="n">
-        <v>236</v>
       </c>
       <c r="D240" t="n">
         <v>239</v>
       </c>
       <c r="E240" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F240" t="n">
-        <v>5269.7737</v>
+        <v>761.828</v>
       </c>
       <c r="G240" t="n">
-        <v>236.0333333333333</v>
+        <v>236</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9376,7 +9794,7 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L240" t="inlineStr">
         <is>
@@ -9392,22 +9810,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C241" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D241" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E241" t="n">
         <v>236</v>
       </c>
       <c r="F241" t="n">
-        <v>3245.4792</v>
+        <v>5269.7737</v>
       </c>
       <c r="G241" t="n">
-        <v>236.0833333333333</v>
+        <v>236.0333333333333</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9417,7 +9835,7 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L241" t="inlineStr">
         <is>
@@ -9433,22 +9851,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C242" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D242" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E242" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F242" t="n">
-        <v>3973.633</v>
+        <v>3245.4792</v>
       </c>
       <c r="G242" t="n">
-        <v>236.1</v>
+        <v>236.0833333333333</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9458,7 +9876,7 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L242" t="inlineStr">
         <is>
@@ -9474,22 +9892,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
+        <v>235</v>
+      </c>
+      <c r="C243" t="n">
+        <v>236</v>
+      </c>
+      <c r="D243" t="n">
+        <v>236</v>
+      </c>
+      <c r="E243" t="n">
         <v>234</v>
       </c>
-      <c r="C243" t="n">
-        <v>235</v>
-      </c>
-      <c r="D243" t="n">
-        <v>235</v>
-      </c>
-      <c r="E243" t="n">
-        <v>231</v>
-      </c>
       <c r="F243" t="n">
-        <v>49937.6179</v>
+        <v>3973.633</v>
       </c>
       <c r="G243" t="n">
-        <v>236.1166666666667</v>
+        <v>236.1</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9499,7 +9917,7 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L243" t="inlineStr">
         <is>
@@ -9515,22 +9933,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C244" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D244" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E244" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F244" t="n">
-        <v>1739.4238</v>
+        <v>49937.6179</v>
       </c>
       <c r="G244" t="n">
-        <v>236.1</v>
+        <v>236.1166666666667</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9540,7 +9958,7 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L244" t="inlineStr">
         <is>
@@ -9556,22 +9974,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C245" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D245" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E245" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F245" t="n">
-        <v>268.3642</v>
+        <v>1739.4238</v>
       </c>
       <c r="G245" t="n">
-        <v>236.0833333333333</v>
+        <v>236.1</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9581,7 +9999,7 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L245" t="inlineStr">
         <is>
@@ -9597,22 +10015,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C246" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D246" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E246" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F246" t="n">
-        <v>6</v>
+        <v>268.3642</v>
       </c>
       <c r="G246" t="n">
-        <v>236.1333333333333</v>
+        <v>236.0833333333333</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9622,7 +10040,7 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L246" t="inlineStr">
         <is>
@@ -9641,19 +10059,19 @@
         <v>233</v>
       </c>
       <c r="C247" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D247" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E247" t="n">
         <v>233</v>
       </c>
       <c r="F247" t="n">
-        <v>868.8008</v>
+        <v>6</v>
       </c>
       <c r="G247" t="n">
-        <v>236.1666666666667</v>
+        <v>236.1333333333333</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9663,7 +10081,7 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L247" t="inlineStr">
         <is>
@@ -9679,7 +10097,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C248" t="n">
         <v>235</v>
@@ -9688,13 +10106,13 @@
         <v>235</v>
       </c>
       <c r="E248" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F248" t="n">
-        <v>1120.7202</v>
+        <v>868.8008</v>
       </c>
       <c r="G248" t="n">
-        <v>236.1833333333333</v>
+        <v>236.1666666666667</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9704,7 +10122,7 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L248" t="inlineStr">
         <is>
@@ -9732,10 +10150,10 @@
         <v>235</v>
       </c>
       <c r="F249" t="n">
-        <v>1580.9374</v>
+        <v>1120.7202</v>
       </c>
       <c r="G249" t="n">
-        <v>236.2</v>
+        <v>236.1833333333333</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9745,7 +10163,7 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L249" t="inlineStr">
         <is>
@@ -9753,6 +10171,47 @@
         </is>
       </c>
       <c r="M249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>235</v>
+      </c>
+      <c r="C250" t="n">
+        <v>235</v>
+      </c>
+      <c r="D250" t="n">
+        <v>235</v>
+      </c>
+      <c r="E250" t="n">
+        <v>235</v>
+      </c>
+      <c r="F250" t="n">
+        <v>1580.9374</v>
+      </c>
+      <c r="G250" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>236</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M250" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-13 BackTest WOM.xlsx
+++ b/BackTest/2019-11-13 BackTest WOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N318"/>
+  <dimension ref="A1:M318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3048,22 +2827,15 @@
         <v>-96408.06890371935</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>220</v>
-      </c>
-      <c r="K74" t="n">
-        <v>220</v>
-      </c>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3088,26 +2860,15 @@
         <v>-97542.19850371935</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>221</v>
-      </c>
-      <c r="K75" t="n">
-        <v>220</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3132,26 +2893,15 @@
         <v>-97531.30380371935</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>220</v>
-      </c>
-      <c r="K76" t="n">
-        <v>220</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3176,26 +2926,15 @@
         <v>-97535.77910371935</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>222</v>
-      </c>
-      <c r="K77" t="n">
-        <v>220</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3220,26 +2959,15 @@
         <v>-99031.30380371935</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>221</v>
-      </c>
-      <c r="K78" t="n">
-        <v>220</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3264,26 +2992,15 @@
         <v>-99031.30380371935</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>220</v>
-      </c>
-      <c r="K79" t="n">
-        <v>220</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3308,26 +3025,19 @@
         <v>-99024.30380371935</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="J80" t="n">
         <v>220</v>
       </c>
-      <c r="K80" t="n">
-        <v>220</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3352,26 +3062,23 @@
         <v>-99799.23480371934</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="J81" t="n">
-        <v>224</v>
-      </c>
-      <c r="K81" t="n">
-        <v>220</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3396,26 +3103,23 @@
         <v>-99796.18150371934</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="J82" t="n">
         <v>220</v>
       </c>
-      <c r="K82" t="n">
-        <v>220</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3440,26 +3144,23 @@
         <v>-103196.1815037193</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="J83" t="n">
-        <v>224</v>
-      </c>
-      <c r="K83" t="n">
-        <v>220</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3484,26 +3185,23 @@
         <v>-111213.1422037193</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="J84" t="n">
-        <v>221</v>
-      </c>
-      <c r="K84" t="n">
-        <v>220</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3528,26 +3226,23 @@
         <v>-111146.6754037193</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="J85" t="n">
         <v>220</v>
       </c>
-      <c r="K85" t="n">
-        <v>220</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3572,26 +3267,23 @@
         <v>-110804.8194037193</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="J86" t="n">
-        <v>221</v>
-      </c>
-      <c r="K86" t="n">
-        <v>220</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3616,26 +3308,23 @@
         <v>-110797.8502037193</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="J87" t="n">
-        <v>222</v>
-      </c>
-      <c r="K87" t="n">
-        <v>220</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3660,26 +3349,21 @@
         <v>-108797.8502037193</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>224</v>
-      </c>
-      <c r="K88" t="n">
-        <v>220</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3704,26 +3388,21 @@
         <v>-108938.3323037193</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>226</v>
-      </c>
-      <c r="K89" t="n">
-        <v>220</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3750,22 +3429,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>220</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>220</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3792,22 +3468,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>220</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>220</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3834,22 +3507,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>220</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>220</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3876,22 +3546,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>220</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>220</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3918,22 +3585,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>220</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>220</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3960,22 +3624,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>220</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>220</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4002,22 +3663,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>220</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>220</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4044,22 +3702,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>220</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>220</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4086,22 +3741,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>220</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>220</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4128,22 +3780,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>220</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>220</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4168,26 +3817,21 @@
         <v>-114441.7185037193</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>222</v>
-      </c>
-      <c r="K100" t="n">
-        <v>220</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4212,26 +3856,21 @@
         <v>-113980.6736037193</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>222</v>
-      </c>
-      <c r="K101" t="n">
-        <v>220</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4256,26 +3895,21 @@
         <v>-113980.6736037193</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>225</v>
-      </c>
-      <c r="K102" t="n">
-        <v>220</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4302,22 +3936,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>220</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>220</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4342,26 +3973,21 @@
         <v>-114004.5964037193</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>225</v>
-      </c>
-      <c r="K104" t="n">
-        <v>220</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4386,26 +4012,21 @@
         <v>-113865.3636037193</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>224</v>
-      </c>
-      <c r="K105" t="n">
-        <v>220</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4430,26 +4051,21 @@
         <v>-113865.3636037193</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>225</v>
-      </c>
-      <c r="K106" t="n">
-        <v>220</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4474,26 +4090,21 @@
         <v>-122780.2986037193</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>225</v>
-      </c>
-      <c r="K107" t="n">
-        <v>220</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4518,26 +4129,21 @@
         <v>-122778.2986037193</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>222</v>
-      </c>
-      <c r="K108" t="n">
-        <v>220</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4562,26 +4168,21 @@
         <v>-122778.2986037193</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>225</v>
-      </c>
-      <c r="K109" t="n">
-        <v>220</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4606,26 +4207,21 @@
         <v>-126784.7560037193</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>225</v>
-      </c>
-      <c r="K110" t="n">
-        <v>220</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4650,26 +4246,21 @@
         <v>-125333.6569037193</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>223</v>
-      </c>
-      <c r="K111" t="n">
-        <v>220</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4694,26 +4285,21 @@
         <v>-125333.6569037193</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>225</v>
-      </c>
-      <c r="K112" t="n">
-        <v>220</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4738,26 +4324,21 @@
         <v>-125333.6569037193</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>225</v>
-      </c>
-      <c r="K113" t="n">
-        <v>220</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4782,26 +4363,21 @@
         <v>-125333.6569037193</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>225</v>
-      </c>
-      <c r="K114" t="n">
-        <v>220</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4826,26 +4402,21 @@
         <v>-123273.9689037193</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>225</v>
-      </c>
-      <c r="K115" t="n">
-        <v>220</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4870,26 +4441,23 @@
         <v>-123273.9689037193</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="J116" t="n">
-        <v>226</v>
-      </c>
-      <c r="K116" t="n">
-        <v>220</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4914,26 +4482,21 @@
         <v>-123270.9689037193</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>226</v>
-      </c>
-      <c r="K117" t="n">
-        <v>220</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4958,26 +4521,23 @@
         <v>-122327.9130037193</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="J118" t="n">
-        <v>227</v>
-      </c>
-      <c r="K118" t="n">
-        <v>220</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5002,26 +4562,21 @@
         <v>-114691.9134037193</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>228</v>
-      </c>
-      <c r="K119" t="n">
-        <v>220</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5046,26 +4601,23 @@
         <v>-118182.1746037193</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="J120" t="n">
-        <v>229</v>
-      </c>
-      <c r="K120" t="n">
-        <v>220</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5092,22 +4644,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>220</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>220</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5134,22 +4683,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>220</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>220</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5174,26 +4720,21 @@
         <v>-128222.9923037193</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>225</v>
-      </c>
-      <c r="K123" t="n">
-        <v>220</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5218,26 +4759,21 @@
         <v>-128222.9923037193</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>225</v>
-      </c>
-      <c r="K124" t="n">
-        <v>220</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5262,26 +4798,23 @@
         <v>-128222.9923037193</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="J125" t="n">
-        <v>225</v>
-      </c>
-      <c r="K125" t="n">
-        <v>220</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5306,26 +4839,23 @@
         <v>-128221.7923037193</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="J126" t="n">
-        <v>225</v>
-      </c>
-      <c r="K126" t="n">
-        <v>220</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5350,26 +4880,23 @@
         <v>-128121.7923037193</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="J127" t="n">
-        <v>227</v>
-      </c>
-      <c r="K127" t="n">
-        <v>220</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5394,26 +4921,21 @@
         <v>-129097.3021037193</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>228</v>
-      </c>
-      <c r="K128" t="n">
-        <v>220</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5438,26 +4960,21 @@
         <v>-129097.3021037193</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>227</v>
-      </c>
-      <c r="K129" t="n">
-        <v>220</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5484,22 +5001,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>220</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>220</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5524,26 +5038,21 @@
         <v>-134012.8714037193</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>226</v>
-      </c>
-      <c r="K131" t="n">
-        <v>220</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5568,26 +5077,21 @@
         <v>-134004.7852037193</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>224</v>
-      </c>
-      <c r="K132" t="n">
-        <v>220</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5612,26 +5116,21 @@
         <v>-133912.2011037193</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>225</v>
-      </c>
-      <c r="K133" t="n">
-        <v>220</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5656,26 +5155,21 @@
         <v>-133912.2011037193</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>228</v>
-      </c>
-      <c r="K134" t="n">
-        <v>220</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5700,26 +5194,21 @@
         <v>-136440.5939037193</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>228</v>
-      </c>
-      <c r="K135" t="n">
-        <v>220</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5744,26 +5233,21 @@
         <v>-136453.4956037193</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>227</v>
-      </c>
-      <c r="K136" t="n">
-        <v>220</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5788,26 +5272,21 @@
         <v>-141985.1455037193</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>225</v>
-      </c>
-      <c r="K137" t="n">
-        <v>220</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5832,26 +5311,21 @@
         <v>-141985.1455037193</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>224</v>
-      </c>
-      <c r="K138" t="n">
-        <v>220</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5876,26 +5350,21 @@
         <v>-141985.1455037193</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>224</v>
-      </c>
-      <c r="K139" t="n">
-        <v>220</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5922,22 +5391,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>220</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>220</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5964,22 +5430,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>220</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>220</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6004,26 +5467,23 @@
         <v>-148777.1919037193</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="J142" t="n">
-        <v>223</v>
-      </c>
-      <c r="K142" t="n">
-        <v>220</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6048,26 +5508,23 @@
         <v>-148777.1919037193</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="J143" t="n">
         <v>220</v>
       </c>
-      <c r="K143" t="n">
-        <v>220</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6092,26 +5549,23 @@
         <v>-148677.1919037193</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="J144" t="n">
         <v>220</v>
       </c>
-      <c r="K144" t="n">
-        <v>220</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6136,26 +5590,23 @@
         <v>-148677.1919037193</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="J145" t="n">
-        <v>223</v>
-      </c>
-      <c r="K145" t="n">
-        <v>220</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6180,26 +5631,23 @@
         <v>-147527.6378037193</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="J146" t="n">
-        <v>223</v>
-      </c>
-      <c r="K146" t="n">
-        <v>220</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6224,26 +5672,23 @@
         <v>-147243.2320037193</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="J147" t="n">
-        <v>224</v>
-      </c>
-      <c r="K147" t="n">
-        <v>220</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6268,26 +5713,21 @@
         <v>-147232.2320037193</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>227</v>
-      </c>
-      <c r="K148" t="n">
-        <v>220</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6312,26 +5752,21 @@
         <v>-147232.2320037193</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>228</v>
-      </c>
-      <c r="K149" t="n">
-        <v>220</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6356,26 +5791,21 @@
         <v>-147232.2320037193</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>228</v>
-      </c>
-      <c r="K150" t="n">
-        <v>220</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6400,26 +5830,21 @@
         <v>-129414.4913037193</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>228</v>
-      </c>
-      <c r="K151" t="n">
-        <v>220</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6446,22 +5871,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>220</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>220</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6488,22 +5910,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>220</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>220</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6530,22 +5949,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>220</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>220</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6572,22 +5988,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>220</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>220</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6614,22 +6027,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>220</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>220</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6656,22 +6066,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>220</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>220</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6698,22 +6105,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>220</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>220</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6740,22 +6144,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>220</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>220</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6782,22 +6183,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>220</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>220</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6822,24 +6220,21 @@
         <v>16635.30407247119</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>220</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>220</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6866,22 +6261,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>220</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>220</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6906,24 +6298,21 @@
         <v>12282.35367247119</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>220</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>220</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6950,22 +6339,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>220</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>220</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6992,22 +6378,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>220</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>220</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7034,22 +6417,19 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>220</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>220</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7076,22 +6456,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>220</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>220</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7118,22 +6495,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>220</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>220</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7158,24 +6532,21 @@
         <v>-1077.619427528812</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>220</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>220</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7200,24 +6571,21 @@
         <v>-1077.619427528812</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>220</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>220</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7244,22 +6612,19 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>220</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>220</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7286,22 +6651,19 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>220</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>220</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7328,22 +6690,19 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>220</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>220</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7368,24 +6727,21 @@
         <v>436.8643724711876</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>220</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>220</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7412,22 +6768,19 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>220</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>220</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7454,22 +6807,19 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>220</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>220</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7496,22 +6846,19 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>220</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>220</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7536,24 +6883,21 @@
         <v>-65.55832752881241</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>220</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>220</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7578,26 +6922,21 @@
         <v>-67.85832752881241</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>1</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>220</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1.090454545454546</v>
-      </c>
-      <c r="N179" t="n">
-        <v>1.040909090909091</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>220</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7624,16 +6963,19 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>220</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7658,18 +7000,21 @@
         <v>-1009.248827528812</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>220</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7694,18 +7039,21 @@
         <v>-14179.02612752881</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>1</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>220</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7730,18 +7078,21 @@
         <v>-22017.85362752881</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>1</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>220</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7768,16 +7119,19 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>220</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7802,18 +7156,21 @@
         <v>-21302.97982752881</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>220</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7838,18 +7195,21 @@
         <v>-22662.52022752881</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>220</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7874,18 +7234,21 @@
         <v>-27284.04762752881</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>220</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7912,16 +7275,19 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>220</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7948,16 +7314,19 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>220</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7984,16 +7353,19 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>220</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8020,16 +7392,19 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>220</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8056,16 +7431,19 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>220</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8092,16 +7470,19 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>220</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8128,16 +7509,19 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>220</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8164,16 +7548,19 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>220</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8200,16 +7587,19 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>220</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8236,16 +7626,19 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>220</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8272,16 +7665,19 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>220</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8308,16 +7704,19 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>220</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8344,16 +7743,19 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>220</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8380,16 +7782,19 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>220</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8416,16 +7821,19 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>220</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8452,16 +7860,19 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>220</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8488,16 +7899,19 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>220</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8524,16 +7938,19 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>220</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8560,16 +7977,19 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>220</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8596,16 +8016,19 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>220</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8632,16 +8055,19 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>220</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8668,16 +8094,19 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>220</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8704,16 +8133,19 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>220</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8740,16 +8172,19 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>220</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8776,16 +8211,19 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>220</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8812,16 +8250,19 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>220</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8848,16 +8289,19 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>220</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8884,16 +8328,19 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>220</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8920,16 +8367,19 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>220</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8956,16 +8406,19 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>220</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8992,16 +8445,19 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>220</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9028,16 +8484,19 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>220</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9064,16 +8523,19 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>220</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9100,16 +8562,19 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>220</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9136,16 +8601,19 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>220</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9172,16 +8640,19 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>220</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9208,16 +8679,19 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>220</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9244,16 +8718,19 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>220</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9280,16 +8757,19 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>220</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9316,16 +8796,19 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>220</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9352,16 +8835,19 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>220</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9388,16 +8874,19 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>220</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9424,16 +8913,19 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>220</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9460,16 +8952,19 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>220</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9496,16 +8991,19 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>220</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9532,16 +9030,19 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>220</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9568,16 +9069,19 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>220</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9604,16 +9108,19 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>220</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9640,16 +9147,19 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>220</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9676,16 +9186,19 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>220</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9712,16 +9225,19 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>220</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9748,16 +9264,19 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>220</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9784,16 +9303,19 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>220</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9820,16 +9342,19 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>220</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9856,16 +9381,19 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>220</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9892,16 +9420,19 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>220</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9928,16 +9459,19 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>220</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9964,16 +9498,19 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>220</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -10000,16 +9537,19 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>220</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -10036,16 +9576,19 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>220</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10072,16 +9615,19 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>220</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10108,16 +9654,19 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>220</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10144,16 +9693,19 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>220</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10180,16 +9732,19 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>220</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10216,16 +9771,19 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>220</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10252,16 +9810,19 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>220</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10288,16 +9849,19 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>220</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10324,16 +9888,19 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>220</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10360,16 +9927,19 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>220</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10396,16 +9966,19 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>220</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10432,16 +10005,19 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>220</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10468,16 +10044,19 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>220</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10504,16 +10083,19 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>220</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10540,16 +10122,19 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>220</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10576,16 +10161,19 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>220</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10612,16 +10200,19 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>220</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10648,16 +10239,19 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>220</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10684,16 +10278,19 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>220</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10720,16 +10317,19 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>220</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10756,16 +10356,19 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>220</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10792,16 +10395,19 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>220</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10828,16 +10434,19 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>220</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10864,16 +10473,19 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>220</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10900,16 +10512,19 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>220</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10936,16 +10551,19 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>220</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10972,16 +10590,19 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>220</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -11008,16 +10629,19 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>220</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -11044,16 +10668,19 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>220</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -11080,16 +10707,19 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>220</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -11116,16 +10746,19 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>220</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -11152,16 +10785,19 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>220</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -11186,18 +10822,23 @@
         <v>-15365.89552752883</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>220</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L279" t="n">
+        <v>1.085909090909091</v>
+      </c>
       <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+        <v>1.040909090909091</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -11222,18 +10863,15 @@
         <v>-15365.89552752883</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -11258,18 +10896,15 @@
         <v>-14278.05542752883</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11294,18 +10929,15 @@
         <v>-14278.05542752883</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11330,18 +10962,15 @@
         <v>-14278.05542752883</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11366,18 +10995,15 @@
         <v>-12521.42472752883</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11402,18 +11028,15 @@
         <v>-15821.73422752883</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11438,18 +11061,15 @@
         <v>-12200.90462752883</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11474,18 +11094,15 @@
         <v>-19385.39302752883</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11510,18 +11127,15 @@
         <v>-19385.39302752883</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11546,18 +11160,15 @@
         <v>-19385.39302752883</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11582,18 +11193,15 @@
         <v>-24221.71052752883</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11618,18 +11226,15 @@
         <v>-24221.71052752883</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11654,18 +11259,15 @@
         <v>-24846.99992752883</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11690,18 +11292,15 @@
         <v>-15820.93632752883</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11726,18 +11325,15 @@
         <v>-16331.87182752883</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11762,18 +11358,15 @@
         <v>-16572.30602752883</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11798,18 +11391,15 @@
         <v>-23558.3877941955</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11834,18 +11424,15 @@
         <v>-23558.3877941955</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11872,16 +11459,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11908,16 +11492,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11944,16 +11525,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11980,16 +11558,13 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -12016,16 +11591,13 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -12052,16 +11624,13 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -12088,16 +11657,13 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -12124,16 +11690,13 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -12160,16 +11723,13 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -12196,16 +11756,13 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -12232,16 +11789,13 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -12268,16 +11822,13 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -12304,16 +11855,13 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -12340,16 +11888,13 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -12376,16 +11921,13 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -12412,16 +11954,13 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12448,16 +11987,13 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12484,16 +12020,13 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12520,16 +12053,13 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12556,16 +12086,13 @@
       <c r="H317" t="n">
         <v>0</v>
       </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12592,18 +12119,15 @@
       <c r="H318" t="n">
         <v>0</v>
       </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-13 BackTest WOM.xlsx
+++ b/BackTest/2019-11-13 BackTest WOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2893,11 +2893,17 @@
         <v>-97531.30380371935</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>220</v>
+      </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2926,11 +2932,17 @@
         <v>-97535.77910371935</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>222</v>
+      </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2959,11 +2971,17 @@
         <v>-99031.30380371935</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>221</v>
+      </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2992,11 +3010,17 @@
         <v>-99031.30380371935</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>220</v>
+      </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3025,15 +3049,17 @@
         <v>-99024.30380371935</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>220</v>
       </c>
-      <c r="J80" t="n">
-        <v>220</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3062,17 +3088,15 @@
         <v>-99799.23480371934</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>224</v>
       </c>
-      <c r="J81" t="n">
-        <v>220</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L81" t="n">
@@ -3103,14 +3127,12 @@
         <v>-99796.18150371934</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>220</v>
       </c>
-      <c r="J82" t="n">
-        <v>220</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3144,14 +3166,12 @@
         <v>-103196.1815037193</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>224</v>
       </c>
-      <c r="J83" t="n">
-        <v>220</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3185,14 +3205,12 @@
         <v>-111213.1422037193</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>221</v>
       </c>
-      <c r="J84" t="n">
-        <v>220</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3226,14 +3244,12 @@
         <v>-111146.6754037193</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>220</v>
       </c>
-      <c r="J85" t="n">
-        <v>220</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3267,14 +3283,12 @@
         <v>-110804.8194037193</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>221</v>
       </c>
-      <c r="J86" t="n">
-        <v>220</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3308,14 +3322,12 @@
         <v>-110797.8502037193</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>222</v>
       </c>
-      <c r="J87" t="n">
-        <v>220</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3349,12 +3361,12 @@
         <v>-108797.8502037193</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>224</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3388,12 +3400,12 @@
         <v>-108938.3323037193</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>226</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3427,12 +3439,12 @@
         <v>-108935.3323037193</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>224</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3466,12 +3478,12 @@
         <v>-108735.3323037193</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>225</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3505,12 +3517,12 @@
         <v>-108785.3323037193</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>226</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3544,12 +3556,12 @@
         <v>-112785.3323037193</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>225</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3583,12 +3595,12 @@
         <v>-112535.3323037193</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>221</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3622,12 +3634,12 @@
         <v>-112532.8323037193</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>222</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3661,12 +3673,12 @@
         <v>-114345.5528037193</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>224</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3700,12 +3712,12 @@
         <v>-114342.3674037193</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>221</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3739,12 +3751,12 @@
         <v>-114342.3674037193</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>224</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3778,12 +3790,12 @@
         <v>-114441.7185037193</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>224</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3817,12 +3829,12 @@
         <v>-114441.7185037193</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>222</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3856,12 +3868,12 @@
         <v>-113980.6736037193</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>222</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3895,12 +3907,12 @@
         <v>-113980.6736037193</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>225</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3934,12 +3946,12 @@
         <v>-113980.6736037193</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>225</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3973,12 +3985,12 @@
         <v>-114004.5964037193</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>225</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4012,12 +4024,12 @@
         <v>-113865.3636037193</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>224</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4051,12 +4063,12 @@
         <v>-113865.3636037193</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>225</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4090,12 +4102,12 @@
         <v>-122780.2986037193</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>225</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4132,9 +4144,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>220</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4168,12 +4178,12 @@
         <v>-122778.2986037193</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>225</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4207,12 +4217,12 @@
         <v>-126784.7560037193</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>225</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4246,12 +4256,12 @@
         <v>-125333.6569037193</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>223</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4285,12 +4295,12 @@
         <v>-125333.6569037193</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>225</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4324,12 +4334,12 @@
         <v>-125333.6569037193</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>225</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4363,12 +4373,12 @@
         <v>-125333.6569037193</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>225</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4402,12 +4412,12 @@
         <v>-123273.9689037193</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>225</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4441,14 +4451,12 @@
         <v>-123273.9689037193</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>226</v>
       </c>
-      <c r="J116" t="n">
-        <v>220</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4482,12 +4490,12 @@
         <v>-123270.9689037193</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>226</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4521,14 +4529,12 @@
         <v>-122327.9130037193</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>227</v>
       </c>
-      <c r="J118" t="n">
-        <v>220</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4562,12 +4568,12 @@
         <v>-114691.9134037193</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>228</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4601,14 +4607,12 @@
         <v>-118182.1746037193</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>229</v>
       </c>
-      <c r="J120" t="n">
-        <v>220</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4642,12 +4646,12 @@
         <v>-118182.1746037193</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>228</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4684,9 +4688,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>220</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4720,12 +4722,12 @@
         <v>-128222.9923037193</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>225</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4759,12 +4761,12 @@
         <v>-128222.9923037193</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>225</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4798,14 +4800,12 @@
         <v>-128222.9923037193</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>225</v>
       </c>
-      <c r="J125" t="n">
-        <v>220</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4839,14 +4839,12 @@
         <v>-128221.7923037193</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>225</v>
       </c>
-      <c r="J126" t="n">
-        <v>220</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4880,14 +4878,12 @@
         <v>-128121.7923037193</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>227</v>
       </c>
-      <c r="J127" t="n">
-        <v>220</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4921,12 +4917,12 @@
         <v>-129097.3021037193</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>228</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4960,12 +4956,12 @@
         <v>-129097.3021037193</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>227</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4999,12 +4995,12 @@
         <v>-129165.8021037193</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>227</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5038,12 +5034,12 @@
         <v>-134012.8714037193</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>226</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5077,12 +5073,12 @@
         <v>-134004.7852037193</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>224</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5116,12 +5112,12 @@
         <v>-133912.2011037193</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>225</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5155,12 +5151,12 @@
         <v>-133912.2011037193</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>228</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5194,12 +5190,12 @@
         <v>-136440.5939037193</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>228</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5233,12 +5229,12 @@
         <v>-136453.4956037193</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>227</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5272,12 +5268,12 @@
         <v>-141985.1455037193</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>225</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5311,12 +5307,12 @@
         <v>-141985.1455037193</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>224</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5350,12 +5346,12 @@
         <v>-141985.1455037193</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>224</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5389,12 +5385,12 @@
         <v>-141985.1455037193</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>224</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5428,12 +5424,12 @@
         <v>-142332.1271037193</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>224</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5467,14 +5463,12 @@
         <v>-148777.1919037193</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>223</v>
       </c>
-      <c r="J142" t="n">
-        <v>220</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5508,14 +5502,12 @@
         <v>-148777.1919037193</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>220</v>
       </c>
-      <c r="J143" t="n">
-        <v>220</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5549,14 +5541,12 @@
         <v>-148677.1919037193</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>220</v>
       </c>
-      <c r="J144" t="n">
-        <v>220</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5590,14 +5580,12 @@
         <v>-148677.1919037193</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>223</v>
       </c>
-      <c r="J145" t="n">
-        <v>220</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5631,14 +5619,12 @@
         <v>-147527.6378037193</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>223</v>
       </c>
-      <c r="J146" t="n">
-        <v>220</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5672,14 +5658,12 @@
         <v>-147243.2320037193</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>224</v>
       </c>
-      <c r="J147" t="n">
-        <v>220</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5713,12 +5697,12 @@
         <v>-147232.2320037193</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>227</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5752,12 +5736,12 @@
         <v>-147232.2320037193</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>228</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5791,12 +5775,12 @@
         <v>-147232.2320037193</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>228</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5830,12 +5814,12 @@
         <v>-129414.4913037193</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>228</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5869,12 +5853,12 @@
         <v>-120561.3787037193</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>233</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5911,9 +5895,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>220</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5950,9 +5932,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>220</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5989,9 +5969,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>220</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6028,9 +6006,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>220</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6067,9 +6043,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>220</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6106,9 +6080,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>220</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6145,9 +6117,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>220</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6184,9 +6154,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>220</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6220,12 +6188,10 @@
         <v>16635.30407247119</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>220</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6262,9 +6228,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>220</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6298,12 +6262,10 @@
         <v>12282.35367247119</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>220</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6340,9 +6302,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>220</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6379,9 +6339,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>220</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6418,9 +6376,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>220</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6457,9 +6413,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>220</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6496,9 +6450,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>220</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6532,12 +6484,10 @@
         <v>-1077.619427528812</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>220</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6571,12 +6521,10 @@
         <v>-1077.619427528812</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>220</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6613,9 +6561,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>220</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6652,9 +6598,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>220</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6691,9 +6635,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>220</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6727,12 +6669,10 @@
         <v>436.8643724711876</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>220</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6769,9 +6709,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>220</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6808,9 +6746,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>220</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6847,9 +6783,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>220</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6883,12 +6817,10 @@
         <v>-65.55832752881241</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>220</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6922,20 +6854,16 @@
         <v>-67.85832752881241</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>220</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
@@ -6961,17 +6889,11 @@
         <v>-67.85832752881241</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>220</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7000,17 +6922,11 @@
         <v>-1009.248827528812</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>220</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7039,17 +6955,11 @@
         <v>-14179.02612752881</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>220</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7078,17 +6988,11 @@
         <v>-22017.85362752881</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>220</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7120,14 +7024,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>220</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7156,17 +7054,11 @@
         <v>-21302.97982752881</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>220</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7195,17 +7087,11 @@
         <v>-22662.52022752881</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>220</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7234,17 +7120,11 @@
         <v>-27284.04762752881</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>220</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7273,17 +7153,11 @@
         <v>-27284.04762752881</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>220</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7312,17 +7186,11 @@
         <v>-27284.04762752881</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>220</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7351,17 +7219,11 @@
         <v>-27284.04762752881</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>220</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7390,17 +7252,11 @@
         <v>-12921.62592752881</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>220</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7429,17 +7285,11 @@
         <v>-12927.62592752881</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>220</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7468,17 +7318,11 @@
         <v>-12910.62592752881</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>220</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7507,17 +7351,11 @@
         <v>-12910.62592752881</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>220</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7546,17 +7384,11 @@
         <v>-12846.57992752881</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>220</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7585,17 +7417,11 @@
         <v>-12849.57992752881</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>220</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7624,17 +7450,11 @@
         <v>-16632.72462752881</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>220</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7663,17 +7483,11 @@
         <v>-16632.72462752881</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>220</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7702,17 +7516,11 @@
         <v>-19096.45202752881</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>220</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7741,17 +7549,11 @@
         <v>-19096.45202752881</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>220</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7780,17 +7582,11 @@
         <v>-14773.43852752881</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>220</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7819,17 +7615,11 @@
         <v>-25987.69012752881</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>220</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7858,17 +7648,11 @@
         <v>-25987.69012752881</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>220</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7897,17 +7681,11 @@
         <v>-25987.69012752881</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>220</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7936,17 +7714,11 @@
         <v>-25917.08402752881</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>220</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7975,17 +7747,11 @@
         <v>-25920.08402752881</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>220</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8014,17 +7780,11 @@
         <v>-24920.08402752881</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>220</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8053,17 +7813,11 @@
         <v>-28523.28602752881</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>220</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8092,17 +7846,11 @@
         <v>-21957.67852752881</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>220</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8131,17 +7879,11 @@
         <v>-21960.67852752881</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>220</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8173,14 +7915,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>220</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8212,14 +7948,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>220</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8251,14 +7981,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>220</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8290,14 +8014,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>220</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8329,14 +8047,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>220</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8368,14 +8080,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>220</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8407,14 +8113,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>220</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8446,14 +8146,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>220</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8485,14 +8179,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>220</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8524,14 +8212,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>220</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8563,14 +8245,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>220</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8602,14 +8278,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>220</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8641,14 +8311,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>220</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8680,14 +8344,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>220</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8719,14 +8377,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>220</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8758,14 +8410,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>220</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8797,14 +8443,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>220</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8836,14 +8476,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>220</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8875,14 +8509,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>220</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8914,14 +8542,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>220</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8953,14 +8575,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>220</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8992,14 +8608,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>220</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9031,14 +8641,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>220</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9070,14 +8674,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>220</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9109,14 +8707,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>220</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9148,14 +8740,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>220</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9187,14 +8773,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>220</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9226,14 +8806,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>220</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9265,14 +8839,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>220</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9304,14 +8872,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>220</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9343,14 +8905,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>220</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9382,14 +8938,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>220</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9421,14 +8971,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>220</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9460,14 +9004,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>220</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9499,14 +9037,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>220</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9538,14 +9070,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>220</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9577,14 +9103,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>220</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9616,14 +9136,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>220</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9655,14 +9169,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>220</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9694,14 +9202,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>220</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9733,14 +9235,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>220</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9772,14 +9268,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>220</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9811,14 +9301,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>220</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9850,14 +9334,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>220</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9889,14 +9367,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>220</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9928,14 +9400,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>220</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9967,14 +9433,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>220</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10006,14 +9466,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>220</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10045,14 +9499,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>220</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10084,14 +9532,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>220</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10123,14 +9565,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>220</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10162,14 +9598,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>220</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10201,14 +9631,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>220</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10240,14 +9664,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>220</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10279,14 +9697,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>220</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10318,14 +9730,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>220</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10357,14 +9763,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>220</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10396,14 +9796,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>220</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10435,14 +9829,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>220</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10474,14 +9862,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>220</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10513,14 +9895,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>220</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10552,14 +9928,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>220</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10591,14 +9961,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>220</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10630,14 +9994,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>220</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10669,14 +10027,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>220</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10708,14 +10060,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>220</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10747,14 +10093,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>220</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10786,14 +10126,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>220</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10822,23 +10156,15 @@
         <v>-15365.89552752883</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>220</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
-        <v>1.085909090909091</v>
-      </c>
-      <c r="M279" t="n">
-        <v>1.040909090909091</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10863,7 +10189,7 @@
         <v>-15365.89552752883</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10896,7 +10222,7 @@
         <v>-14278.05542752883</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10929,7 +10255,7 @@
         <v>-14278.05542752883</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10962,7 +10288,7 @@
         <v>-14278.05542752883</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10995,7 +10321,7 @@
         <v>-12521.42472752883</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -11028,7 +10354,7 @@
         <v>-15821.73422752883</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11061,7 +10387,7 @@
         <v>-12200.90462752883</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -11094,7 +10420,7 @@
         <v>-19385.39302752883</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -11127,7 +10453,7 @@
         <v>-19385.39302752883</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -11160,7 +10486,7 @@
         <v>-19385.39302752883</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11193,7 +10519,7 @@
         <v>-24221.71052752883</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11226,7 +10552,7 @@
         <v>-24221.71052752883</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11259,7 +10585,7 @@
         <v>-24846.99992752883</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11292,7 +10618,7 @@
         <v>-15820.93632752883</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11325,7 +10651,7 @@
         <v>-16331.87182752883</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11358,7 +10684,7 @@
         <v>-16572.30602752883</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11391,7 +10717,7 @@
         <v>-23558.3877941955</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11424,7 +10750,7 @@
         <v>-23558.3877941955</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11457,7 +10783,7 @@
         <v>-24320.2157941955</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11490,7 +10816,7 @@
         <v>-29589.9894941955</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11523,7 +10849,7 @@
         <v>-26344.5102941955</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11556,7 +10882,7 @@
         <v>-30318.1432941955</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11589,7 +10915,7 @@
         <v>-80255.7611941955</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11622,7 +10948,7 @@
         <v>-81995.1849941955</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11655,7 +10981,7 @@
         <v>-82263.5491941955</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11688,7 +11014,7 @@
         <v>-82257.5491941955</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11985,7 +11311,7 @@
         <v>-81591.6552941955</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12051,7 +11377,7 @@
         <v>-80597.73349419551</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12128,6 +11454,6 @@
       <c r="M318" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-13 BackTest WOM.xlsx
+++ b/BackTest/2019-11-13 BackTest WOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2893,17 +2893,11 @@
         <v>-97531.30380371935</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>220</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2932,17 +2926,11 @@
         <v>-97535.77910371935</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>222</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2971,17 +2959,11 @@
         <v>-99031.30380371935</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>221</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3010,17 +2992,11 @@
         <v>-99031.30380371935</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>220</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3049,17 +3025,11 @@
         <v>-99024.30380371935</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>220</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3088,17 +3058,11 @@
         <v>-99799.23480371934</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>224</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3127,17 +3091,11 @@
         <v>-99796.18150371934</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>220</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3166,17 +3124,11 @@
         <v>-103196.1815037193</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>224</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3205,17 +3157,11 @@
         <v>-111213.1422037193</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>221</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3244,17 +3190,11 @@
         <v>-111146.6754037193</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>220</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3283,17 +3223,11 @@
         <v>-110804.8194037193</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>221</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3322,17 +3256,11 @@
         <v>-110797.8502037193</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>222</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3361,17 +3289,11 @@
         <v>-108797.8502037193</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>224</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3400,17 +3322,11 @@
         <v>-108938.3323037193</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>226</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3439,17 +3355,11 @@
         <v>-108935.3323037193</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>224</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3478,17 +3388,11 @@
         <v>-108735.3323037193</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3517,17 +3421,11 @@
         <v>-108785.3323037193</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>226</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3556,17 +3454,11 @@
         <v>-112785.3323037193</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3595,17 +3487,11 @@
         <v>-112535.3323037193</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>221</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3634,17 +3520,11 @@
         <v>-112532.8323037193</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>222</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3673,17 +3553,11 @@
         <v>-114345.5528037193</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>224</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3712,17 +3586,11 @@
         <v>-114342.3674037193</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>221</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3751,17 +3619,11 @@
         <v>-114342.3674037193</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>224</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3790,17 +3652,11 @@
         <v>-114441.7185037193</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>224</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3829,17 +3685,11 @@
         <v>-114441.7185037193</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>222</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3868,17 +3718,11 @@
         <v>-113980.6736037193</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>222</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3907,17 +3751,11 @@
         <v>-113980.6736037193</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3946,17 +3784,11 @@
         <v>-113980.6736037193</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3985,17 +3817,11 @@
         <v>-114004.5964037193</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4024,17 +3850,11 @@
         <v>-113865.3636037193</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>224</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4063,17 +3883,11 @@
         <v>-113865.3636037193</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4102,17 +3916,11 @@
         <v>-122780.2986037193</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4145,11 +3953,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4178,17 +3982,11 @@
         <v>-122778.2986037193</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4217,17 +4015,11 @@
         <v>-126784.7560037193</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4256,17 +4048,11 @@
         <v>-125333.6569037193</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>223</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4295,17 +4081,11 @@
         <v>-125333.6569037193</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4334,17 +4114,11 @@
         <v>-125333.6569037193</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4373,17 +4147,11 @@
         <v>-125333.6569037193</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4412,17 +4180,11 @@
         <v>-123273.9689037193</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4451,17 +4213,11 @@
         <v>-123273.9689037193</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>226</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4490,17 +4246,11 @@
         <v>-123270.9689037193</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>226</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4529,17 +4279,11 @@
         <v>-122327.9130037193</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>227</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4568,17 +4312,11 @@
         <v>-114691.9134037193</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4607,17 +4345,11 @@
         <v>-118182.1746037193</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>229</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4646,17 +4378,11 @@
         <v>-118182.1746037193</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4689,11 +4415,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4722,17 +4444,11 @@
         <v>-128222.9923037193</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4761,17 +4477,11 @@
         <v>-128222.9923037193</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4800,17 +4510,11 @@
         <v>-128222.9923037193</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4839,17 +4543,11 @@
         <v>-128221.7923037193</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4878,17 +4576,11 @@
         <v>-128121.7923037193</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>227</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4917,17 +4609,11 @@
         <v>-129097.3021037193</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4956,17 +4642,11 @@
         <v>-129097.3021037193</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>227</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4995,17 +4675,11 @@
         <v>-129165.8021037193</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>227</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5034,17 +4708,11 @@
         <v>-134012.8714037193</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>226</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5073,17 +4741,11 @@
         <v>-134004.7852037193</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>224</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5112,17 +4774,11 @@
         <v>-133912.2011037193</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5151,17 +4807,11 @@
         <v>-133912.2011037193</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5190,17 +4840,11 @@
         <v>-136440.5939037193</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5229,17 +4873,11 @@
         <v>-136453.4956037193</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>227</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5268,17 +4906,11 @@
         <v>-141985.1455037193</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5307,17 +4939,11 @@
         <v>-141985.1455037193</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>224</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5346,17 +4972,11 @@
         <v>-141985.1455037193</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>224</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5385,17 +5005,11 @@
         <v>-141985.1455037193</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>224</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5424,17 +5038,11 @@
         <v>-142332.1271037193</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>224</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5471,7 +5079,7 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L142" t="n">
@@ -5697,11 +5305,9 @@
         <v>-147232.2320037193</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>227</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
@@ -5736,11 +5342,9 @@
         <v>-147232.2320037193</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
@@ -5775,11 +5379,9 @@
         <v>-147232.2320037193</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
@@ -5814,11 +5416,9 @@
         <v>-129414.4913037193</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
@@ -5853,11 +5453,9 @@
         <v>-120561.3787037193</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>233</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
@@ -6003,18 +5601,16 @@
         <v>-110756.4270037193</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
@@ -6040,15 +5636,11 @@
         <v>-104434.9280037193</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6077,15 +5669,11 @@
         <v>-71540.66182820909</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6114,15 +5702,11 @@
         <v>16703.70777247119</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6155,11 +5739,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6192,11 +5772,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6229,11 +5805,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6266,11 +5838,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6303,11 +5871,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6340,11 +5904,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6377,11 +5937,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6414,11 +5970,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6451,11 +6003,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6488,11 +6036,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6525,11 +6069,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6562,11 +6102,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6599,11 +6135,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6636,11 +6168,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6673,11 +6201,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6710,11 +6234,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6747,11 +6267,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6784,11 +6300,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6821,11 +6333,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6854,16 +6362,14 @@
         <v>-67.85832752881241</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
       <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
@@ -6889,7 +6395,7 @@
         <v>-67.85832752881241</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6922,7 +6428,7 @@
         <v>-1009.248827528812</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6955,7 +6461,7 @@
         <v>-14179.02612752881</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6988,7 +6494,7 @@
         <v>-22017.85362752881</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7021,7 +6527,7 @@
         <v>-21302.97982752881</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7120,7 +6626,7 @@
         <v>-27284.04762752881</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7318,7 +6824,7 @@
         <v>-12910.62592752881</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7351,7 +6857,7 @@
         <v>-12910.62592752881</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7384,7 +6890,7 @@
         <v>-12846.57992752881</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7417,7 +6923,7 @@
         <v>-12849.57992752881</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7450,7 +6956,7 @@
         <v>-16632.72462752881</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7483,7 +6989,7 @@
         <v>-16632.72462752881</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7516,7 +7022,7 @@
         <v>-19096.45202752881</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7549,7 +7055,7 @@
         <v>-19096.45202752881</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7582,7 +7088,7 @@
         <v>-14773.43852752881</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7615,7 +7121,7 @@
         <v>-25987.69012752881</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7648,7 +7154,7 @@
         <v>-25987.69012752881</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7681,7 +7187,7 @@
         <v>-25987.69012752881</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7714,7 +7220,7 @@
         <v>-25917.08402752881</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7747,7 +7253,7 @@
         <v>-25920.08402752881</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7780,7 +7286,7 @@
         <v>-24920.08402752881</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7813,7 +7319,7 @@
         <v>-28523.28602752881</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7846,7 +7352,7 @@
         <v>-21957.67852752881</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7879,7 +7385,7 @@
         <v>-21960.67852752881</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -10783,7 +10289,7 @@
         <v>-24320.2157941955</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10816,7 +10322,7 @@
         <v>-29589.9894941955</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10849,7 +10355,7 @@
         <v>-26344.5102941955</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10882,7 +10388,7 @@
         <v>-30318.1432941955</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10915,7 +10421,7 @@
         <v>-80255.7611941955</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10948,7 +10454,7 @@
         <v>-81995.1849941955</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10981,7 +10487,7 @@
         <v>-82263.5491941955</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11014,7 +10520,7 @@
         <v>-82257.5491941955</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11311,7 +10817,7 @@
         <v>-81591.6552941955</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11377,7 +10883,7 @@
         <v>-80597.73349419551</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11454,6 +10960,6 @@
       <c r="M318" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-13 BackTest WOM.xlsx
+++ b/BackTest/2019-11-13 BackTest WOM.xlsx
@@ -5071,173 +5071,171 @@
         <v>-148777.1919037193</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>220</v>
+      </c>
+      <c r="C143" t="n">
+        <v>220</v>
+      </c>
+      <c r="D143" t="n">
+        <v>220</v>
+      </c>
+      <c r="E143" t="n">
+        <v>220</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1644.896</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-148777.1919037193</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>220</v>
+      </c>
+      <c r="J143" t="n">
+        <v>220</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
         <v>223</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
+      <c r="C144" t="n">
+        <v>223</v>
+      </c>
+      <c r="D144" t="n">
+        <v>223</v>
+      </c>
+      <c r="E144" t="n">
+        <v>223</v>
+      </c>
+      <c r="F144" t="n">
+        <v>100</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-148677.1919037193</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>220</v>
+      </c>
+      <c r="J144" t="n">
+        <v>220</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>223</v>
+      </c>
+      <c r="C145" t="n">
+        <v>223</v>
+      </c>
+      <c r="D145" t="n">
+        <v>223</v>
+      </c>
+      <c r="E145" t="n">
+        <v>223</v>
+      </c>
+      <c r="F145" t="n">
+        <v>997.1088999999999</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-148677.1919037193</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>223</v>
+      </c>
+      <c r="J145" t="n">
+        <v>220</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>223</v>
+      </c>
+      <c r="C146" t="n">
+        <v>224</v>
+      </c>
+      <c r="D146" t="n">
+        <v>224</v>
+      </c>
+      <c r="E146" t="n">
+        <v>223</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1149.5541</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-147527.6378037193</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>223</v>
+      </c>
+      <c r="J146" t="n">
+        <v>220</v>
+      </c>
+      <c r="K146" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>220</v>
-      </c>
-      <c r="C143" t="n">
-        <v>220</v>
-      </c>
-      <c r="D143" t="n">
-        <v>220</v>
-      </c>
-      <c r="E143" t="n">
-        <v>220</v>
-      </c>
-      <c r="F143" t="n">
-        <v>1644.896</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-148777.1919037193</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>220</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>223</v>
-      </c>
-      <c r="C144" t="n">
-        <v>223</v>
-      </c>
-      <c r="D144" t="n">
-        <v>223</v>
-      </c>
-      <c r="E144" t="n">
-        <v>223</v>
-      </c>
-      <c r="F144" t="n">
-        <v>100</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-148677.1919037193</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>220</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>223</v>
-      </c>
-      <c r="C145" t="n">
-        <v>223</v>
-      </c>
-      <c r="D145" t="n">
-        <v>223</v>
-      </c>
-      <c r="E145" t="n">
-        <v>223</v>
-      </c>
-      <c r="F145" t="n">
-        <v>997.1088999999999</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-148677.1919037193</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>223</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>223</v>
-      </c>
-      <c r="C146" t="n">
-        <v>224</v>
-      </c>
-      <c r="D146" t="n">
-        <v>224</v>
-      </c>
-      <c r="E146" t="n">
-        <v>223</v>
-      </c>
-      <c r="F146" t="n">
-        <v>1149.5541</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-147527.6378037193</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>223</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5271,7 +5269,9 @@
       <c r="I147" t="n">
         <v>224</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>220</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5305,10 +5305,14 @@
         <v>-147232.2320037193</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>227</v>
+      </c>
+      <c r="J148" t="n">
+        <v>220</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5342,10 +5346,14 @@
         <v>-147232.2320037193</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>228</v>
+      </c>
+      <c r="J149" t="n">
+        <v>220</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5379,10 +5387,14 @@
         <v>-147232.2320037193</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>228</v>
+      </c>
+      <c r="J150" t="n">
+        <v>220</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5416,10 +5428,14 @@
         <v>-129414.4913037193</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>228</v>
+      </c>
+      <c r="J151" t="n">
+        <v>220</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5456,7 +5472,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>220</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5493,7 +5511,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>220</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5530,7 +5550,9 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>220</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5567,7 +5589,9 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>220</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5601,512 +5625,608 @@
         <v>-110756.4270037193</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>220</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>236</v>
+      </c>
+      <c r="C157" t="n">
+        <v>239</v>
+      </c>
+      <c r="D157" t="n">
+        <v>239</v>
+      </c>
+      <c r="E157" t="n">
+        <v>236</v>
+      </c>
+      <c r="F157" t="n">
+        <v>6321.499</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-104434.9280037193</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>220</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>239</v>
+      </c>
+      <c r="C158" t="n">
+        <v>245</v>
+      </c>
+      <c r="D158" t="n">
+        <v>245</v>
+      </c>
+      <c r="E158" t="n">
+        <v>239</v>
+      </c>
+      <c r="F158" t="n">
+        <v>32894.2661755102</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-71540.66182820909</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>220</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>245</v>
+      </c>
+      <c r="C159" t="n">
+        <v>252</v>
+      </c>
+      <c r="D159" t="n">
+        <v>252</v>
+      </c>
+      <c r="E159" t="n">
+        <v>243</v>
+      </c>
+      <c r="F159" t="n">
+        <v>88244.36960068028</v>
+      </c>
+      <c r="G159" t="n">
+        <v>16703.70777247119</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>220</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>249</v>
+      </c>
+      <c r="C160" t="n">
+        <v>252</v>
+      </c>
+      <c r="D160" t="n">
+        <v>252</v>
+      </c>
+      <c r="E160" t="n">
+        <v>233</v>
+      </c>
+      <c r="F160" t="n">
+        <v>50595.7813</v>
+      </c>
+      <c r="G160" t="n">
+        <v>16703.70777247119</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>220</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>249</v>
+      </c>
+      <c r="C161" t="n">
+        <v>249</v>
+      </c>
+      <c r="D161" t="n">
+        <v>249</v>
+      </c>
+      <c r="E161" t="n">
+        <v>249</v>
+      </c>
+      <c r="F161" t="n">
+        <v>68.4037</v>
+      </c>
+      <c r="G161" t="n">
+        <v>16635.30407247119</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>220</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>248</v>
+      </c>
+      <c r="C162" t="n">
+        <v>248</v>
+      </c>
+      <c r="D162" t="n">
+        <v>248</v>
+      </c>
+      <c r="E162" t="n">
+        <v>248</v>
+      </c>
+      <c r="F162" t="n">
+        <v>4352.9504</v>
+      </c>
+      <c r="G162" t="n">
+        <v>12282.35367247119</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>220</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>248</v>
+      </c>
+      <c r="C163" t="n">
+        <v>248</v>
+      </c>
+      <c r="D163" t="n">
+        <v>248</v>
+      </c>
+      <c r="E163" t="n">
+        <v>248</v>
+      </c>
+      <c r="F163" t="n">
+        <v>2264.7583</v>
+      </c>
+      <c r="G163" t="n">
+        <v>12282.35367247119</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>220</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>245</v>
+      </c>
+      <c r="C164" t="n">
+        <v>247</v>
+      </c>
+      <c r="D164" t="n">
+        <v>247</v>
+      </c>
+      <c r="E164" t="n">
+        <v>245</v>
+      </c>
+      <c r="F164" t="n">
+        <v>4965</v>
+      </c>
+      <c r="G164" t="n">
+        <v>7317.353672471187</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>220</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>247</v>
+      </c>
+      <c r="C165" t="n">
+        <v>245</v>
+      </c>
+      <c r="D165" t="n">
+        <v>247</v>
+      </c>
+      <c r="E165" t="n">
+        <v>245</v>
+      </c>
+      <c r="F165" t="n">
+        <v>8512.208199999999</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-1194.854527528812</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>220</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>245</v>
+      </c>
+      <c r="C166" t="n">
+        <v>245</v>
+      </c>
+      <c r="D166" t="n">
+        <v>245</v>
+      </c>
+      <c r="E166" t="n">
+        <v>245</v>
+      </c>
+      <c r="F166" t="n">
+        <v>941.3905</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-1194.854527528812</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>220</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>245</v>
+      </c>
+      <c r="C167" t="n">
+        <v>245</v>
+      </c>
+      <c r="D167" t="n">
+        <v>245</v>
+      </c>
+      <c r="E167" t="n">
+        <v>245</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1897.1121</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-1194.854527528812</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>220</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>245</v>
+      </c>
+      <c r="C168" t="n">
+        <v>245</v>
+      </c>
+      <c r="D168" t="n">
+        <v>245</v>
+      </c>
+      <c r="E168" t="n">
+        <v>245</v>
+      </c>
+      <c r="F168" t="n">
+        <v>354.947</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-1194.854527528812</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>220</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>247</v>
+      </c>
+      <c r="C169" t="n">
+        <v>247</v>
+      </c>
+      <c r="D169" t="n">
+        <v>247</v>
+      </c>
+      <c r="E169" t="n">
+        <v>247</v>
+      </c>
+      <c r="F169" t="n">
+        <v>117.2351</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-1077.619427528812</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>220</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>247</v>
+      </c>
+      <c r="C170" t="n">
+        <v>247</v>
+      </c>
+      <c r="D170" t="n">
+        <v>247</v>
+      </c>
+      <c r="E170" t="n">
+        <v>247</v>
+      </c>
+      <c r="F170" t="n">
+        <v>105.8804</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-1077.619427528812</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>220</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>247</v>
+      </c>
+      <c r="C171" t="n">
+        <v>247</v>
+      </c>
+      <c r="D171" t="n">
+        <v>247</v>
+      </c>
+      <c r="E171" t="n">
+        <v>247</v>
+      </c>
+      <c r="F171" t="n">
+        <v>538.3443</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-1077.619427528812</v>
+      </c>
+      <c r="H171" t="n">
         <v>2</v>
       </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>220</v>
+      </c>
+      <c r="K171" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>236</v>
-      </c>
-      <c r="C157" t="n">
-        <v>239</v>
-      </c>
-      <c r="D157" t="n">
-        <v>239</v>
-      </c>
-      <c r="E157" t="n">
-        <v>236</v>
-      </c>
-      <c r="F157" t="n">
-        <v>6321.499</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-104434.9280037193</v>
-      </c>
-      <c r="H157" t="n">
-        <v>2</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>239</v>
-      </c>
-      <c r="C158" t="n">
-        <v>245</v>
-      </c>
-      <c r="D158" t="n">
-        <v>245</v>
-      </c>
-      <c r="E158" t="n">
-        <v>239</v>
-      </c>
-      <c r="F158" t="n">
-        <v>32894.2661755102</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-71540.66182820909</v>
-      </c>
-      <c r="H158" t="n">
-        <v>2</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>245</v>
-      </c>
-      <c r="C159" t="n">
-        <v>252</v>
-      </c>
-      <c r="D159" t="n">
-        <v>252</v>
-      </c>
-      <c r="E159" t="n">
-        <v>243</v>
-      </c>
-      <c r="F159" t="n">
-        <v>88244.36960068028</v>
-      </c>
-      <c r="G159" t="n">
-        <v>16703.70777247119</v>
-      </c>
-      <c r="H159" t="n">
-        <v>2</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>249</v>
-      </c>
-      <c r="C160" t="n">
-        <v>252</v>
-      </c>
-      <c r="D160" t="n">
-        <v>252</v>
-      </c>
-      <c r="E160" t="n">
-        <v>233</v>
-      </c>
-      <c r="F160" t="n">
-        <v>50595.7813</v>
-      </c>
-      <c r="G160" t="n">
-        <v>16703.70777247119</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>249</v>
-      </c>
-      <c r="C161" t="n">
-        <v>249</v>
-      </c>
-      <c r="D161" t="n">
-        <v>249</v>
-      </c>
-      <c r="E161" t="n">
-        <v>249</v>
-      </c>
-      <c r="F161" t="n">
-        <v>68.4037</v>
-      </c>
-      <c r="G161" t="n">
-        <v>16635.30407247119</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>248</v>
-      </c>
-      <c r="C162" t="n">
-        <v>248</v>
-      </c>
-      <c r="D162" t="n">
-        <v>248</v>
-      </c>
-      <c r="E162" t="n">
-        <v>248</v>
-      </c>
-      <c r="F162" t="n">
-        <v>4352.9504</v>
-      </c>
-      <c r="G162" t="n">
-        <v>12282.35367247119</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>248</v>
-      </c>
-      <c r="C163" t="n">
-        <v>248</v>
-      </c>
-      <c r="D163" t="n">
-        <v>248</v>
-      </c>
-      <c r="E163" t="n">
-        <v>248</v>
-      </c>
-      <c r="F163" t="n">
-        <v>2264.7583</v>
-      </c>
-      <c r="G163" t="n">
-        <v>12282.35367247119</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>245</v>
-      </c>
-      <c r="C164" t="n">
-        <v>247</v>
-      </c>
-      <c r="D164" t="n">
-        <v>247</v>
-      </c>
-      <c r="E164" t="n">
-        <v>245</v>
-      </c>
-      <c r="F164" t="n">
-        <v>4965</v>
-      </c>
-      <c r="G164" t="n">
-        <v>7317.353672471187</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>247</v>
-      </c>
-      <c r="C165" t="n">
-        <v>245</v>
-      </c>
-      <c r="D165" t="n">
-        <v>247</v>
-      </c>
-      <c r="E165" t="n">
-        <v>245</v>
-      </c>
-      <c r="F165" t="n">
-        <v>8512.208199999999</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-1194.854527528812</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>245</v>
-      </c>
-      <c r="C166" t="n">
-        <v>245</v>
-      </c>
-      <c r="D166" t="n">
-        <v>245</v>
-      </c>
-      <c r="E166" t="n">
-        <v>245</v>
-      </c>
-      <c r="F166" t="n">
-        <v>941.3905</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-1194.854527528812</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>245</v>
-      </c>
-      <c r="C167" t="n">
-        <v>245</v>
-      </c>
-      <c r="D167" t="n">
-        <v>245</v>
-      </c>
-      <c r="E167" t="n">
-        <v>245</v>
-      </c>
-      <c r="F167" t="n">
-        <v>1897.1121</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-1194.854527528812</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>245</v>
-      </c>
-      <c r="C168" t="n">
-        <v>245</v>
-      </c>
-      <c r="D168" t="n">
-        <v>245</v>
-      </c>
-      <c r="E168" t="n">
-        <v>245</v>
-      </c>
-      <c r="F168" t="n">
-        <v>354.947</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-1194.854527528812</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>247</v>
-      </c>
-      <c r="C169" t="n">
-        <v>247</v>
-      </c>
-      <c r="D169" t="n">
-        <v>247</v>
-      </c>
-      <c r="E169" t="n">
-        <v>247</v>
-      </c>
-      <c r="F169" t="n">
-        <v>117.2351</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-1077.619427528812</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>247</v>
-      </c>
-      <c r="C170" t="n">
-        <v>247</v>
-      </c>
-      <c r="D170" t="n">
-        <v>247</v>
-      </c>
-      <c r="E170" t="n">
-        <v>247</v>
-      </c>
-      <c r="F170" t="n">
-        <v>105.8804</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-1077.619427528812</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>247</v>
-      </c>
-      <c r="C171" t="n">
-        <v>247</v>
-      </c>
-      <c r="D171" t="n">
-        <v>247</v>
-      </c>
-      <c r="E171" t="n">
-        <v>247</v>
-      </c>
-      <c r="F171" t="n">
-        <v>538.3443</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-1077.619427528812</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>1.117727272727273</v>
+      </c>
+      <c r="M171" t="n">
+        <v>1.040909090909091</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6131,7 +6251,7 @@
         <v>436.8643724711876</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6164,7 +6284,7 @@
         <v>436.8643724711876</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6197,7 +6317,7 @@
         <v>436.8643724711876</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6230,7 +6350,7 @@
         <v>436.8643724711876</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6263,7 +6383,7 @@
         <v>436.8643724711876</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6296,7 +6416,7 @@
         <v>-386.1808275288124</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6362,7 +6482,7 @@
         <v>-67.85832752881241</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6395,7 +6515,7 @@
         <v>-67.85832752881241</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6428,7 +6548,7 @@
         <v>-1009.248827528812</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6461,7 +6581,7 @@
         <v>-14179.02612752881</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6494,7 +6614,7 @@
         <v>-22017.85362752881</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6527,7 +6647,7 @@
         <v>-21302.97982752881</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6560,7 +6680,7 @@
         <v>-21302.97982752881</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6593,7 +6713,7 @@
         <v>-22662.52022752881</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6659,7 +6779,7 @@
         <v>-27284.04762752881</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6692,7 +6812,7 @@
         <v>-27284.04762752881</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6725,7 +6845,7 @@
         <v>-27284.04762752881</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6758,7 +6878,7 @@
         <v>-12921.62592752881</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6791,7 +6911,7 @@
         <v>-12927.62592752881</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>

--- a/BackTest/2019-11-13 BackTest WOM.xlsx
+++ b/BackTest/2019-11-13 BackTest WOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M318"/>
+  <dimension ref="A1:L318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>534.1094000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>-21928.45488638298</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>5.959</v>
       </c>
       <c r="G3" t="n">
-        <v>-21928.45488638298</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>120.6321</v>
       </c>
       <c r="G4" t="n">
-        <v>-22049.08698638298</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>4136.95</v>
       </c>
       <c r="G5" t="n">
-        <v>-22049.08698638298</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>2757.3433</v>
       </c>
       <c r="G6" t="n">
-        <v>-22049.08698638298</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>5.1769</v>
       </c>
       <c r="G7" t="n">
-        <v>-22043.91008638298</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>11.023</v>
       </c>
       <c r="G8" t="n">
-        <v>-22043.91008638298</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>125.961</v>
       </c>
       <c r="G9" t="n">
-        <v>-22169.87108638298</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>155.2644</v>
       </c>
       <c r="G10" t="n">
-        <v>-22169.87108638298</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>2244.7733</v>
       </c>
       <c r="G11" t="n">
-        <v>-22169.87108638298</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>2.3493</v>
       </c>
       <c r="G12" t="n">
-        <v>-22167.52178638298</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>46.2312</v>
       </c>
       <c r="G13" t="n">
-        <v>-22167.52178638298</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>540.0684</v>
       </c>
       <c r="G14" t="n">
-        <v>-22707.59018638298</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>2.8787</v>
       </c>
       <c r="G15" t="n">
-        <v>-22704.71148638298</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>835.6817</v>
       </c>
       <c r="G16" t="n">
-        <v>-23540.39318638298</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>-23537.39318638298</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>5285.8407</v>
       </c>
       <c r="G18" t="n">
-        <v>-28823.23388638298</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>1221.9841</v>
       </c>
       <c r="G19" t="n">
-        <v>-28823.23388638298</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>4000</v>
       </c>
       <c r="G20" t="n">
-        <v>-32823.23388638298</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>1770.198787168142</v>
       </c>
       <c r="G21" t="n">
-        <v>-31053.03509921484</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>2000</v>
       </c>
       <c r="G22" t="n">
-        <v>-33053.03509921484</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>2000</v>
       </c>
       <c r="G23" t="n">
-        <v>-33053.03509921484</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>22</v>
       </c>
       <c r="G24" t="n">
-        <v>-33031.03509921484</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>2.3</v>
       </c>
       <c r="G25" t="n">
-        <v>-33028.73509921483</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>1490.8109</v>
       </c>
       <c r="G26" t="n">
-        <v>-34519.54599921483</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>3059.7845</v>
       </c>
       <c r="G27" t="n">
-        <v>-31459.76149921483</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>788.2883</v>
       </c>
       <c r="G28" t="n">
-        <v>-31459.76149921483</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>2393.1146</v>
       </c>
       <c r="G29" t="n">
-        <v>-33852.87609921483</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>788.2883</v>
       </c>
       <c r="G30" t="n">
-        <v>-33852.87609921483</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>3</v>
       </c>
       <c r="G31" t="n">
-        <v>-33849.87609921483</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>1773.377</v>
       </c>
       <c r="G32" t="n">
-        <v>-35623.25309921483</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>7300</v>
       </c>
       <c r="G33" t="n">
-        <v>-35623.25309921483</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>2.269</v>
       </c>
       <c r="G34" t="n">
-        <v>-35625.52209921483</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>111</v>
       </c>
       <c r="G35" t="n">
-        <v>-35514.52209921483</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>4921.5564</v>
       </c>
       <c r="G36" t="n">
-        <v>-40436.07849921483</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>3749.5829</v>
       </c>
       <c r="G37" t="n">
-        <v>-36686.49559921483</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>3</v>
       </c>
       <c r="G38" t="n">
-        <v>-36683.49559921483</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>1338.3866</v>
       </c>
       <c r="G39" t="n">
-        <v>-38021.88219921483</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>3</v>
       </c>
       <c r="G40" t="n">
-        <v>-38018.88219921483</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>310.666</v>
       </c>
       <c r="G41" t="n">
-        <v>-38018.88219921483</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>3</v>
       </c>
       <c r="G42" t="n">
-        <v>-38015.88219921483</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>489.1017</v>
       </c>
       <c r="G43" t="n">
-        <v>-38504.98389921483</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>1713.9171</v>
       </c>
       <c r="G44" t="n">
-        <v>-40218.90099921483</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>3</v>
       </c>
       <c r="G45" t="n">
-        <v>-40215.90099921483</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>27543.388</v>
       </c>
       <c r="G46" t="n">
-        <v>-67759.28899921483</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>2.3607</v>
       </c>
       <c r="G47" t="n">
-        <v>-67756.92829921482</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>1546.2495</v>
       </c>
       <c r="G48" t="n">
-        <v>-69303.17779921483</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>7.9169</v>
       </c>
       <c r="G49" t="n">
-        <v>-69295.26089921483</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>93.7895</v>
       </c>
       <c r="G50" t="n">
-        <v>-69389.05039921483</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>3</v>
       </c>
       <c r="G51" t="n">
-        <v>-69386.05039921483</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>760.6757</v>
       </c>
       <c r="G52" t="n">
-        <v>-69386.05039921483</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>5318.8469</v>
       </c>
       <c r="G53" t="n">
-        <v>-69386.05039921483</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>4.6</v>
       </c>
       <c r="G54" t="n">
-        <v>-69390.65039921484</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>6</v>
       </c>
       <c r="G55" t="n">
-        <v>-69384.65039921484</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>3</v>
       </c>
       <c r="G56" t="n">
-        <v>-69381.65039921484</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>3446.2142</v>
       </c>
       <c r="G57" t="n">
-        <v>-72827.86459921484</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>5.3257</v>
       </c>
       <c r="G58" t="n">
-        <v>-72822.53889921484</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>10</v>
       </c>
       <c r="G59" t="n">
-        <v>-72822.53889921484</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>6644.005</v>
       </c>
       <c r="G60" t="n">
-        <v>-79466.54389921484</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>2443.411</v>
       </c>
       <c r="G61" t="n">
-        <v>-81909.95489921485</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>6425.0713</v>
       </c>
       <c r="G62" t="n">
-        <v>-88335.02619921484</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>100</v>
       </c>
       <c r="G63" t="n">
-        <v>-88235.02619921484</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>17.1308045045045</v>
       </c>
       <c r="G64" t="n">
-        <v>-88235.02619921484</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>492.7503954954955</v>
       </c>
       <c r="G65" t="n">
-        <v>-87742.27580371934</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>4747.9627</v>
       </c>
       <c r="G66" t="n">
-        <v>-92490.23850371935</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>6.2</v>
       </c>
       <c r="G67" t="n">
-        <v>-92484.03850371935</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>5300.5304</v>
       </c>
       <c r="G68" t="n">
-        <v>-97784.56890371935</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>1452.5</v>
       </c>
       <c r="G69" t="n">
-        <v>-96332.06890371935</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>2</v>
       </c>
       <c r="G70" t="n">
-        <v>-96330.06890371935</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>66</v>
       </c>
       <c r="G71" t="n">
-        <v>-96396.06890371935</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>17</v>
       </c>
       <c r="G72" t="n">
-        <v>-96413.06890371935</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>5</v>
       </c>
       <c r="G73" t="n">
-        <v>-96413.06890371935</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>5</v>
       </c>
       <c r="G74" t="n">
-        <v>-96408.06890371935</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>1134.1296</v>
       </c>
       <c r="G75" t="n">
-        <v>-97542.19850371935</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>10.8947</v>
       </c>
       <c r="G76" t="n">
-        <v>-97531.30380371935</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>4.4753</v>
       </c>
       <c r="G77" t="n">
-        <v>-97535.77910371935</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>1495.5247</v>
       </c>
       <c r="G78" t="n">
-        <v>-99031.30380371935</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>1250</v>
       </c>
       <c r="G79" t="n">
-        <v>-99031.30380371935</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>7</v>
       </c>
       <c r="G80" t="n">
-        <v>-99024.30380371935</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>774.931</v>
       </c>
       <c r="G81" t="n">
-        <v>-99799.23480371934</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>3.0533</v>
       </c>
       <c r="G82" t="n">
-        <v>-99796.18150371934</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>3400</v>
       </c>
       <c r="G83" t="n">
-        <v>-103196.1815037193</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,21 @@
         <v>8016.9607</v>
       </c>
       <c r="G84" t="n">
-        <v>-111213.1422037193</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2939,21 @@
         <v>66.46680000000001</v>
       </c>
       <c r="G85" t="n">
-        <v>-111146.6754037193</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2975,21 @@
         <v>341.856</v>
       </c>
       <c r="G86" t="n">
-        <v>-110804.8194037193</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3011,21 @@
         <v>6.9692</v>
       </c>
       <c r="G87" t="n">
-        <v>-110797.8502037193</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3047,21 @@
         <v>2000</v>
       </c>
       <c r="G88" t="n">
-        <v>-108797.8502037193</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3083,21 @@
         <v>140.4821</v>
       </c>
       <c r="G89" t="n">
-        <v>-108938.3323037193</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3119,21 @@
         <v>3</v>
       </c>
       <c r="G90" t="n">
-        <v>-108935.3323037193</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3155,19 @@
         <v>200</v>
       </c>
       <c r="G91" t="n">
-        <v>-108735.3323037193</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3189,19 @@
         <v>50</v>
       </c>
       <c r="G92" t="n">
-        <v>-108785.3323037193</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3223,19 @@
         <v>4000</v>
       </c>
       <c r="G93" t="n">
-        <v>-112785.3323037193</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3257,19 @@
         <v>250</v>
       </c>
       <c r="G94" t="n">
-        <v>-112535.3323037193</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3291,19 @@
         <v>2.5</v>
       </c>
       <c r="G95" t="n">
-        <v>-112532.8323037193</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3325,19 @@
         <v>1812.7205</v>
       </c>
       <c r="G96" t="n">
-        <v>-114345.5528037193</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3359,19 @@
         <v>3.1854</v>
       </c>
       <c r="G97" t="n">
-        <v>-114342.3674037193</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3393,19 @@
         <v>23.1872</v>
       </c>
       <c r="G98" t="n">
-        <v>-114342.3674037193</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3427,19 @@
         <v>99.3511</v>
       </c>
       <c r="G99" t="n">
-        <v>-114441.7185037193</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3461,19 @@
         <v>3208.6292</v>
       </c>
       <c r="G100" t="n">
-        <v>-114441.7185037193</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3495,19 @@
         <v>461.0449</v>
       </c>
       <c r="G101" t="n">
-        <v>-113980.6736037193</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3529,19 @@
         <v>99.116</v>
       </c>
       <c r="G102" t="n">
-        <v>-113980.6736037193</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3563,19 @@
         <v>297.3613</v>
       </c>
       <c r="G103" t="n">
-        <v>-113980.6736037193</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3597,19 @@
         <v>23.9228</v>
       </c>
       <c r="G104" t="n">
-        <v>-114004.5964037193</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3631,19 @@
         <v>139.2328</v>
       </c>
       <c r="G105" t="n">
-        <v>-113865.3636037193</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3665,19 @@
         <v>192.9907</v>
       </c>
       <c r="G106" t="n">
-        <v>-113865.3636037193</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3699,19 @@
         <v>8914.934999999999</v>
       </c>
       <c r="G107" t="n">
-        <v>-122780.2986037193</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3733,19 @@
         <v>2</v>
       </c>
       <c r="G108" t="n">
-        <v>-122778.2986037193</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3767,19 @@
         <v>2</v>
       </c>
       <c r="G109" t="n">
-        <v>-122778.2986037193</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3801,19 @@
         <v>4006.4574</v>
       </c>
       <c r="G110" t="n">
-        <v>-126784.7560037193</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3835,19 @@
         <v>1451.0991</v>
       </c>
       <c r="G111" t="n">
-        <v>-125333.6569037193</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3869,19 @@
         <v>10</v>
       </c>
       <c r="G112" t="n">
-        <v>-125333.6569037193</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3903,19 @@
         <v>431.3922</v>
       </c>
       <c r="G113" t="n">
-        <v>-125333.6569037193</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3937,19 @@
         <v>4709.9173</v>
       </c>
       <c r="G114" t="n">
-        <v>-125333.6569037193</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3971,19 @@
         <v>2059.688</v>
       </c>
       <c r="G115" t="n">
-        <v>-123273.9689037193</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4005,19 @@
         <v>1440.4409</v>
       </c>
       <c r="G116" t="n">
-        <v>-123273.9689037193</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4039,19 @@
         <v>3</v>
       </c>
       <c r="G117" t="n">
-        <v>-123270.9689037193</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4073,19 @@
         <v>943.0559</v>
       </c>
       <c r="G118" t="n">
-        <v>-122327.9130037193</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4107,19 @@
         <v>7635.9996</v>
       </c>
       <c r="G119" t="n">
-        <v>-114691.9134037193</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4141,19 @@
         <v>3490.2612</v>
       </c>
       <c r="G120" t="n">
-        <v>-118182.1746037193</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4175,19 @@
         <v>1.5</v>
       </c>
       <c r="G121" t="n">
-        <v>-118182.1746037193</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4209,19 @@
         <v>10040.8177</v>
       </c>
       <c r="G122" t="n">
-        <v>-128222.9923037193</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4243,19 @@
         <v>2157.7142</v>
       </c>
       <c r="G123" t="n">
-        <v>-128222.9923037193</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4277,19 @@
         <v>5.3815</v>
       </c>
       <c r="G124" t="n">
-        <v>-128222.9923037193</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4311,19 @@
         <v>10</v>
       </c>
       <c r="G125" t="n">
-        <v>-128222.9923037193</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4345,19 @@
         <v>1.2</v>
       </c>
       <c r="G126" t="n">
-        <v>-128221.7923037193</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4379,19 @@
         <v>100</v>
       </c>
       <c r="G127" t="n">
-        <v>-128121.7923037193</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4413,19 @@
         <v>975.5098</v>
       </c>
       <c r="G128" t="n">
-        <v>-129097.3021037193</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4447,19 @@
         <v>2.5</v>
       </c>
       <c r="G129" t="n">
-        <v>-129097.3021037193</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4481,19 @@
         <v>68.5</v>
       </c>
       <c r="G130" t="n">
-        <v>-129165.8021037193</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4515,19 @@
         <v>4847.0693</v>
       </c>
       <c r="G131" t="n">
-        <v>-134012.8714037193</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4549,19 @@
         <v>8.0862</v>
       </c>
       <c r="G132" t="n">
-        <v>-134004.7852037193</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4583,19 @@
         <v>92.58410000000001</v>
       </c>
       <c r="G133" t="n">
-        <v>-133912.2011037193</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4617,19 @@
         <v>12.9017</v>
       </c>
       <c r="G134" t="n">
-        <v>-133912.2011037193</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4651,19 @@
         <v>2528.3928</v>
       </c>
       <c r="G135" t="n">
-        <v>-136440.5939037193</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4685,19 @@
         <v>12.9017</v>
       </c>
       <c r="G136" t="n">
-        <v>-136453.4956037193</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4719,19 @@
         <v>5531.6499</v>
       </c>
       <c r="G137" t="n">
-        <v>-141985.1455037193</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4753,19 @@
         <v>5929.8077</v>
       </c>
       <c r="G138" t="n">
-        <v>-141985.1455037193</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4787,19 @@
         <v>31061.6478</v>
       </c>
       <c r="G139" t="n">
-        <v>-141985.1455037193</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4821,19 @@
         <v>1629.5532</v>
       </c>
       <c r="G140" t="n">
-        <v>-141985.1455037193</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4855,19 @@
         <v>346.9816</v>
       </c>
       <c r="G141" t="n">
-        <v>-142332.1271037193</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4889,19 @@
         <v>6445.0648</v>
       </c>
       <c r="G142" t="n">
-        <v>-148777.1919037193</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,22 +4923,19 @@
         <v>1644.896</v>
       </c>
       <c r="G143" t="n">
-        <v>-148777.1919037193</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>220</v>
-      </c>
-      <c r="J143" t="n">
-        <v>220</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5138,26 +4957,19 @@
         <v>100</v>
       </c>
       <c r="G144" t="n">
-        <v>-148677.1919037193</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>220</v>
-      </c>
-      <c r="J144" t="n">
-        <v>220</v>
-      </c>
-      <c r="K144" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5179,26 +4991,19 @@
         <v>997.1088999999999</v>
       </c>
       <c r="G145" t="n">
-        <v>-148677.1919037193</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>223</v>
-      </c>
-      <c r="J145" t="n">
-        <v>220</v>
-      </c>
-      <c r="K145" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5220,26 +5025,19 @@
         <v>1149.5541</v>
       </c>
       <c r="G146" t="n">
-        <v>-147527.6378037193</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>223</v>
-      </c>
-      <c r="J146" t="n">
-        <v>220</v>
-      </c>
-      <c r="K146" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5261,26 +5059,19 @@
         <v>284.4058</v>
       </c>
       <c r="G147" t="n">
-        <v>-147243.2320037193</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>224</v>
-      </c>
-      <c r="J147" t="n">
-        <v>220</v>
-      </c>
-      <c r="K147" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5302,26 +5093,19 @@
         <v>11</v>
       </c>
       <c r="G148" t="n">
-        <v>-147232.2320037193</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>227</v>
-      </c>
-      <c r="J148" t="n">
-        <v>220</v>
-      </c>
-      <c r="K148" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5343,26 +5127,19 @@
         <v>11</v>
       </c>
       <c r="G149" t="n">
-        <v>-147232.2320037193</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>228</v>
-      </c>
-      <c r="J149" t="n">
-        <v>220</v>
-      </c>
-      <c r="K149" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5384,26 +5161,19 @@
         <v>1519.7118</v>
       </c>
       <c r="G150" t="n">
-        <v>-147232.2320037193</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>228</v>
-      </c>
-      <c r="J150" t="n">
-        <v>220</v>
-      </c>
-      <c r="K150" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5425,26 +5195,19 @@
         <v>17817.7407</v>
       </c>
       <c r="G151" t="n">
-        <v>-129414.4913037193</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>228</v>
-      </c>
-      <c r="J151" t="n">
-        <v>220</v>
-      </c>
-      <c r="K151" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5466,24 +5229,19 @@
         <v>8853.1126</v>
       </c>
       <c r="G152" t="n">
-        <v>-120561.3787037193</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>220</v>
-      </c>
-      <c r="K152" t="inlineStr">
+      <c r="J152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5505,24 +5263,19 @@
         <v>9547.7327</v>
       </c>
       <c r="G153" t="n">
-        <v>-130109.1114037193</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>220</v>
-      </c>
-      <c r="K153" t="inlineStr">
+      <c r="J153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5544,24 +5297,19 @@
         <v>9794.395399999999</v>
       </c>
       <c r="G154" t="n">
-        <v>-120314.7160037193</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>220</v>
-      </c>
-      <c r="K154" t="inlineStr">
+      <c r="J154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5583,24 +5331,19 @@
         <v>11929.1804</v>
       </c>
       <c r="G155" t="n">
-        <v>-108385.5356037193</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>220</v>
-      </c>
-      <c r="K155" t="inlineStr">
+      <c r="J155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5622,24 +5365,19 @@
         <v>2370.8914</v>
       </c>
       <c r="G156" t="n">
-        <v>-110756.4270037193</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>220</v>
-      </c>
-      <c r="K156" t="inlineStr">
+      <c r="J156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5661,24 +5399,19 @@
         <v>6321.499</v>
       </c>
       <c r="G157" t="n">
-        <v>-104434.9280037193</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>220</v>
-      </c>
-      <c r="K157" t="inlineStr">
+      <c r="J157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5700,24 +5433,19 @@
         <v>32894.2661755102</v>
       </c>
       <c r="G158" t="n">
-        <v>-71540.66182820909</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>220</v>
-      </c>
-      <c r="K158" t="inlineStr">
+      <c r="J158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5739,24 +5467,19 @@
         <v>88244.36960068028</v>
       </c>
       <c r="G159" t="n">
-        <v>16703.70777247119</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>220</v>
-      </c>
-      <c r="K159" t="inlineStr">
+      <c r="J159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5778,24 +5501,19 @@
         <v>50595.7813</v>
       </c>
       <c r="G160" t="n">
-        <v>16703.70777247119</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>220</v>
-      </c>
-      <c r="K160" t="inlineStr">
+      <c r="J160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5817,24 +5535,19 @@
         <v>68.4037</v>
       </c>
       <c r="G161" t="n">
-        <v>16635.30407247119</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>220</v>
-      </c>
-      <c r="K161" t="inlineStr">
+      <c r="J161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5856,24 +5569,19 @@
         <v>4352.9504</v>
       </c>
       <c r="G162" t="n">
-        <v>12282.35367247119</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>220</v>
-      </c>
-      <c r="K162" t="inlineStr">
+      <c r="J162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5895,24 +5603,19 @@
         <v>2264.7583</v>
       </c>
       <c r="G163" t="n">
-        <v>12282.35367247119</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>220</v>
-      </c>
-      <c r="K163" t="inlineStr">
+      <c r="J163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5934,24 +5637,19 @@
         <v>4965</v>
       </c>
       <c r="G164" t="n">
-        <v>7317.353672471187</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>220</v>
-      </c>
-      <c r="K164" t="inlineStr">
+      <c r="J164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5973,24 +5671,19 @@
         <v>8512.208199999999</v>
       </c>
       <c r="G165" t="n">
-        <v>-1194.854527528812</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>220</v>
-      </c>
-      <c r="K165" t="inlineStr">
+      <c r="J165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6012,24 +5705,19 @@
         <v>941.3905</v>
       </c>
       <c r="G166" t="n">
-        <v>-1194.854527528812</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>220</v>
-      </c>
-      <c r="K166" t="inlineStr">
+      <c r="J166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6051,24 +5739,17 @@
         <v>1897.1121</v>
       </c>
       <c r="G167" t="n">
-        <v>-1194.854527528812</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>220</v>
-      </c>
-      <c r="K167" t="inlineStr">
+      <c r="J167" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6090,24 +5771,15 @@
         <v>354.947</v>
       </c>
       <c r="G168" t="n">
-        <v>-1194.854527528812</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>220</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6129,24 +5801,15 @@
         <v>117.2351</v>
       </c>
       <c r="G169" t="n">
-        <v>-1077.619427528812</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>220</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6168,24 +5831,15 @@
         <v>105.8804</v>
       </c>
       <c r="G170" t="n">
-        <v>-1077.619427528812</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>220</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6207,26 +5861,15 @@
         <v>538.3443</v>
       </c>
       <c r="G171" t="n">
-        <v>-1077.619427528812</v>
-      </c>
-      <c r="H171" t="n">
         <v>2</v>
       </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>220</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1.117727272727273</v>
-      </c>
-      <c r="M171" t="n">
-        <v>1.040909090909091</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6248,18 +5891,15 @@
         <v>1514.4838</v>
       </c>
       <c r="G172" t="n">
-        <v>436.8643724711876</v>
-      </c>
-      <c r="H172" t="n">
         <v>2</v>
       </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6281,18 +5921,15 @@
         <v>1449.903</v>
       </c>
       <c r="G173" t="n">
-        <v>436.8643724711876</v>
-      </c>
-      <c r="H173" t="n">
         <v>2</v>
       </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6314,18 +5951,15 @@
         <v>55.9425</v>
       </c>
       <c r="G174" t="n">
-        <v>436.8643724711876</v>
-      </c>
-      <c r="H174" t="n">
         <v>2</v>
       </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6347,18 +5981,15 @@
         <v>42.4023</v>
       </c>
       <c r="G175" t="n">
-        <v>436.8643724711876</v>
-      </c>
-      <c r="H175" t="n">
         <v>2</v>
       </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6380,18 +6011,15 @@
         <v>51.6963</v>
       </c>
       <c r="G176" t="n">
-        <v>436.8643724711876</v>
-      </c>
-      <c r="H176" t="n">
         <v>2</v>
       </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6413,18 +6041,15 @@
         <v>823.0452</v>
       </c>
       <c r="G177" t="n">
-        <v>-386.1808275288124</v>
-      </c>
-      <c r="H177" t="n">
         <v>2</v>
       </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6446,18 +6071,15 @@
         <v>320.6225</v>
       </c>
       <c r="G178" t="n">
-        <v>-65.55832752881241</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6479,18 +6101,15 @@
         <v>2.3</v>
       </c>
       <c r="G179" t="n">
-        <v>-67.85832752881241</v>
-      </c>
-      <c r="H179" t="n">
         <v>2</v>
       </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6512,18 +6131,15 @@
         <v>235.8349</v>
       </c>
       <c r="G180" t="n">
-        <v>-67.85832752881241</v>
-      </c>
-      <c r="H180" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6545,18 +6161,15 @@
         <v>941.3905</v>
       </c>
       <c r="G181" t="n">
-        <v>-1009.248827528812</v>
-      </c>
-      <c r="H181" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6578,18 +6191,15 @@
         <v>13169.7773</v>
       </c>
       <c r="G182" t="n">
-        <v>-14179.02612752881</v>
-      </c>
-      <c r="H182" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6611,18 +6221,15 @@
         <v>7838.8275</v>
       </c>
       <c r="G183" t="n">
-        <v>-22017.85362752881</v>
-      </c>
-      <c r="H183" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6644,18 +6251,15 @@
         <v>714.8738</v>
       </c>
       <c r="G184" t="n">
-        <v>-21302.97982752881</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6677,18 +6281,15 @@
         <v>99.29340000000001</v>
       </c>
       <c r="G185" t="n">
-        <v>-21302.97982752881</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6710,18 +6311,15 @@
         <v>1359.5404</v>
       </c>
       <c r="G186" t="n">
-        <v>-22662.52022752881</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6743,18 +6341,15 @@
         <v>4621.5274</v>
       </c>
       <c r="G187" t="n">
-        <v>-27284.04762752881</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6776,18 +6371,15 @@
         <v>3</v>
       </c>
       <c r="G188" t="n">
-        <v>-27284.04762752881</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6809,18 +6401,15 @@
         <v>1331.2405</v>
       </c>
       <c r="G189" t="n">
-        <v>-27284.04762752881</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6842,18 +6431,15 @@
         <v>5606.7318</v>
       </c>
       <c r="G190" t="n">
-        <v>-27284.04762752881</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6875,18 +6461,15 @@
         <v>14362.4217</v>
       </c>
       <c r="G191" t="n">
-        <v>-12921.62592752881</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6908,18 +6491,15 @@
         <v>6</v>
       </c>
       <c r="G192" t="n">
-        <v>-12927.62592752881</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6941,18 +6521,15 @@
         <v>17</v>
       </c>
       <c r="G193" t="n">
-        <v>-12910.62592752881</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6974,18 +6551,15 @@
         <v>70.34220000000001</v>
       </c>
       <c r="G194" t="n">
-        <v>-12910.62592752881</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7007,18 +6581,15 @@
         <v>64.04600000000001</v>
       </c>
       <c r="G195" t="n">
-        <v>-12846.57992752881</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7040,18 +6611,15 @@
         <v>3</v>
       </c>
       <c r="G196" t="n">
-        <v>-12849.57992752881</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7073,18 +6641,15 @@
         <v>3783.1447</v>
       </c>
       <c r="G197" t="n">
-        <v>-16632.72462752881</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7106,18 +6671,15 @@
         <v>2734.1415</v>
       </c>
       <c r="G198" t="n">
-        <v>-16632.72462752881</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7139,18 +6701,15 @@
         <v>2463.7274</v>
       </c>
       <c r="G199" t="n">
-        <v>-19096.45202752881</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7172,18 +6731,15 @@
         <v>4993.681</v>
       </c>
       <c r="G200" t="n">
-        <v>-19096.45202752881</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7205,18 +6761,15 @@
         <v>4323.0135</v>
       </c>
       <c r="G201" t="n">
-        <v>-14773.43852752881</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7238,18 +6791,15 @@
         <v>11214.2516</v>
       </c>
       <c r="G202" t="n">
-        <v>-25987.69012752881</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7271,18 +6821,15 @@
         <v>2595.0296</v>
       </c>
       <c r="G203" t="n">
-        <v>-25987.69012752881</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7304,18 +6851,15 @@
         <v>3</v>
       </c>
       <c r="G204" t="n">
-        <v>-25987.69012752881</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7337,18 +6881,15 @@
         <v>70.6061</v>
       </c>
       <c r="G205" t="n">
-        <v>-25917.08402752881</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7370,18 +6911,15 @@
         <v>3</v>
       </c>
       <c r="G206" t="n">
-        <v>-25920.08402752881</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7403,18 +6941,15 @@
         <v>1000</v>
       </c>
       <c r="G207" t="n">
-        <v>-24920.08402752881</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7436,18 +6971,15 @@
         <v>3603.202</v>
       </c>
       <c r="G208" t="n">
-        <v>-28523.28602752881</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7469,18 +7001,15 @@
         <v>6565.6075</v>
       </c>
       <c r="G209" t="n">
-        <v>-21957.67852752881</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7502,18 +7031,15 @@
         <v>3</v>
       </c>
       <c r="G210" t="n">
-        <v>-21960.67852752881</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7535,18 +7061,15 @@
         <v>2446.5596</v>
       </c>
       <c r="G211" t="n">
-        <v>-24407.23812752881</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7568,18 +7091,15 @@
         <v>93.5629</v>
       </c>
       <c r="G212" t="n">
-        <v>-24313.67522752881</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7601,18 +7121,15 @@
         <v>7972.8212</v>
       </c>
       <c r="G213" t="n">
-        <v>-32286.49642752881</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7634,18 +7151,15 @@
         <v>11481.5003</v>
       </c>
       <c r="G214" t="n">
-        <v>-43767.99672752881</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7667,18 +7181,15 @@
         <v>3</v>
       </c>
       <c r="G215" t="n">
-        <v>-43767.99672752881</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7700,18 +7211,15 @@
         <v>6</v>
       </c>
       <c r="G216" t="n">
-        <v>-43773.99672752881</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7733,18 +7241,15 @@
         <v>3</v>
       </c>
       <c r="G217" t="n">
-        <v>-43773.99672752881</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7766,18 +7271,15 @@
         <v>3</v>
       </c>
       <c r="G218" t="n">
-        <v>-43773.99672752881</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7799,18 +7301,15 @@
         <v>5748.3603</v>
       </c>
       <c r="G219" t="n">
-        <v>-43773.99672752881</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7832,18 +7331,15 @@
         <v>4</v>
       </c>
       <c r="G220" t="n">
-        <v>-43769.99672752881</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7865,18 +7361,15 @@
         <v>305.606</v>
       </c>
       <c r="G221" t="n">
-        <v>-43769.99672752881</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7898,18 +7391,15 @@
         <v>3</v>
       </c>
       <c r="G222" t="n">
-        <v>-43772.99672752881</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7931,18 +7421,15 @@
         <v>2862.6397</v>
       </c>
       <c r="G223" t="n">
-        <v>-43772.99672752881</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7964,18 +7451,15 @@
         <v>3</v>
       </c>
       <c r="G224" t="n">
-        <v>-43775.99672752881</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7997,18 +7481,15 @@
         <v>50</v>
       </c>
       <c r="G225" t="n">
-        <v>-43775.99672752881</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8030,18 +7511,15 @@
         <v>8190.3082</v>
       </c>
       <c r="G226" t="n">
-        <v>-43775.99672752881</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8063,18 +7541,15 @@
         <v>1.2</v>
       </c>
       <c r="G227" t="n">
-        <v>-43774.79672752882</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8096,18 +7571,15 @@
         <v>13917.0325</v>
       </c>
       <c r="G228" t="n">
-        <v>-29857.76422752882</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8129,18 +7601,15 @@
         <v>209.566</v>
       </c>
       <c r="G229" t="n">
-        <v>-29648.19822752882</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8162,18 +7631,15 @@
         <v>6074.315</v>
       </c>
       <c r="G230" t="n">
-        <v>-35722.51322752882</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8195,18 +7661,15 @@
         <v>3</v>
       </c>
       <c r="G231" t="n">
-        <v>-35719.51322752882</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8228,18 +7691,15 @@
         <v>3</v>
       </c>
       <c r="G232" t="n">
-        <v>-35719.51322752882</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8261,18 +7721,15 @@
         <v>3</v>
       </c>
       <c r="G233" t="n">
-        <v>-35719.51322752882</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8294,18 +7751,15 @@
         <v>6</v>
       </c>
       <c r="G234" t="n">
-        <v>-35719.51322752882</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8327,18 +7781,15 @@
         <v>50</v>
       </c>
       <c r="G235" t="n">
-        <v>-35719.51322752882</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8360,18 +7811,15 @@
         <v>23</v>
       </c>
       <c r="G236" t="n">
-        <v>-35719.51322752882</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8393,18 +7841,15 @@
         <v>2.13</v>
       </c>
       <c r="G237" t="n">
-        <v>-35719.51322752882</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8426,18 +7871,15 @@
         <v>500</v>
       </c>
       <c r="G238" t="n">
-        <v>-35719.51322752882</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8459,18 +7901,15 @@
         <v>23</v>
       </c>
       <c r="G239" t="n">
-        <v>-35742.51322752882</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8492,18 +7931,15 @@
         <v>6</v>
       </c>
       <c r="G240" t="n">
-        <v>-35742.51322752882</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8525,18 +7961,15 @@
         <v>31.7324</v>
       </c>
       <c r="G241" t="n">
-        <v>-35710.78082752882</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8558,18 +7991,15 @@
         <v>23</v>
       </c>
       <c r="G242" t="n">
-        <v>-35733.78082752882</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8591,18 +8021,15 @@
         <v>6</v>
       </c>
       <c r="G243" t="n">
-        <v>-35733.78082752882</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8624,18 +8051,15 @@
         <v>1852.819</v>
       </c>
       <c r="G244" t="n">
-        <v>-37586.59982752882</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8657,18 +8081,15 @@
         <v>15442.5695</v>
       </c>
       <c r="G245" t="n">
-        <v>-53029.16932752882</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8690,18 +8111,15 @@
         <v>6087.2049</v>
       </c>
       <c r="G246" t="n">
-        <v>-46941.96442752882</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8723,18 +8141,15 @@
         <v>20218.2719</v>
       </c>
       <c r="G247" t="n">
-        <v>-26723.69252752882</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8756,18 +8171,15 @@
         <v>3</v>
       </c>
       <c r="G248" t="n">
-        <v>-26723.69252752882</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8789,18 +8201,15 @@
         <v>3</v>
       </c>
       <c r="G249" t="n">
-        <v>-26726.69252752882</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8822,18 +8231,15 @@
         <v>3120.1889</v>
       </c>
       <c r="G250" t="n">
-        <v>-29846.88142752882</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8855,18 +8261,15 @@
         <v>304.062</v>
       </c>
       <c r="G251" t="n">
-        <v>-29846.88142752882</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8888,18 +8291,15 @@
         <v>6</v>
       </c>
       <c r="G252" t="n">
-        <v>-29840.88142752882</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8921,18 +8321,15 @@
         <v>3</v>
       </c>
       <c r="G253" t="n">
-        <v>-29840.88142752882</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8954,18 +8351,15 @@
         <v>13</v>
       </c>
       <c r="G254" t="n">
-        <v>-29853.88142752882</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8987,18 +8381,15 @@
         <v>196.8467</v>
       </c>
       <c r="G255" t="n">
-        <v>-29853.88142752882</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9020,18 +8411,15 @@
         <v>1205</v>
       </c>
       <c r="G256" t="n">
-        <v>-28648.88142752882</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9053,18 +8441,15 @@
         <v>1571.3501</v>
       </c>
       <c r="G257" t="n">
-        <v>-30220.23152752882</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9086,18 +8471,15 @@
         <v>6</v>
       </c>
       <c r="G258" t="n">
-        <v>-30214.23152752882</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9119,18 +8501,15 @@
         <v>3248.5231</v>
       </c>
       <c r="G259" t="n">
-        <v>-33462.75462752883</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9152,18 +8531,15 @@
         <v>4856.33</v>
       </c>
       <c r="G260" t="n">
-        <v>-38319.08462752883</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9185,18 +8561,15 @@
         <v>6</v>
       </c>
       <c r="G261" t="n">
-        <v>-38313.08462752883</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9218,18 +8591,15 @@
         <v>3061.0431</v>
       </c>
       <c r="G262" t="n">
-        <v>-41374.12772752883</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9251,18 +8621,15 @@
         <v>4895.1473</v>
       </c>
       <c r="G263" t="n">
-        <v>-41374.12772752883</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9284,18 +8651,15 @@
         <v>3</v>
       </c>
       <c r="G264" t="n">
-        <v>-41371.12772752883</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9317,18 +8681,15 @@
         <v>2943.9427</v>
       </c>
       <c r="G265" t="n">
-        <v>-41371.12772752883</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9350,18 +8711,15 @@
         <v>1039.0567</v>
       </c>
       <c r="G266" t="n">
-        <v>-41371.12772752883</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9383,18 +8741,15 @@
         <v>491</v>
       </c>
       <c r="G267" t="n">
-        <v>-41371.12772752883</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9416,18 +8771,15 @@
         <v>213.105</v>
       </c>
       <c r="G268" t="n">
-        <v>-41158.02272752883</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9449,18 +8801,15 @@
         <v>807.8313000000001</v>
       </c>
       <c r="G269" t="n">
-        <v>-40350.19142752883</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9482,18 +8831,15 @@
         <v>43</v>
       </c>
       <c r="G270" t="n">
-        <v>-40350.19142752883</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9515,18 +8861,15 @@
         <v>14</v>
       </c>
       <c r="G271" t="n">
-        <v>-40350.19142752883</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9548,18 +8891,15 @@
         <v>3907.4254</v>
       </c>
       <c r="G272" t="n">
-        <v>-40350.19142752883</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9581,18 +8921,15 @@
         <v>2854.1178</v>
       </c>
       <c r="G273" t="n">
-        <v>-37496.07362752883</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9614,18 +8951,15 @@
         <v>890.2831</v>
       </c>
       <c r="G274" t="n">
-        <v>-36605.79052752883</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9647,18 +8981,15 @@
         <v>5973.922</v>
       </c>
       <c r="G275" t="n">
-        <v>-42579.71252752883</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9680,18 +9011,15 @@
         <v>23709.2403</v>
       </c>
       <c r="G276" t="n">
-        <v>-18870.47222752883</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9713,18 +9041,15 @@
         <v>3504.5767</v>
       </c>
       <c r="G277" t="n">
-        <v>-15365.89552752883</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9746,18 +9071,15 @@
         <v>4292.2347</v>
       </c>
       <c r="G278" t="n">
-        <v>-15365.89552752883</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9779,18 +9101,15 @@
         <v>59</v>
       </c>
       <c r="G279" t="n">
-        <v>-15365.89552752883</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9812,18 +9131,15 @@
         <v>22953.3245</v>
       </c>
       <c r="G280" t="n">
-        <v>-15365.89552752883</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -9845,18 +9161,15 @@
         <v>1087.8401</v>
       </c>
       <c r="G281" t="n">
-        <v>-14278.05542752883</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -9878,18 +9191,15 @@
         <v>4132.2315</v>
       </c>
       <c r="G282" t="n">
-        <v>-14278.05542752883</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -9911,18 +9221,15 @@
         <v>602.6313</v>
       </c>
       <c r="G283" t="n">
-        <v>-14278.05542752883</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -9944,18 +9251,15 @@
         <v>1756.6307</v>
       </c>
       <c r="G284" t="n">
-        <v>-12521.42472752883</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -9977,18 +9281,15 @@
         <v>3300.3095</v>
       </c>
       <c r="G285" t="n">
-        <v>-15821.73422752883</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10010,18 +9311,15 @@
         <v>3620.8296</v>
       </c>
       <c r="G286" t="n">
-        <v>-12200.90462752883</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10043,18 +9341,15 @@
         <v>7184.4884</v>
       </c>
       <c r="G287" t="n">
-        <v>-19385.39302752883</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10076,18 +9371,15 @@
         <v>17873.8073</v>
       </c>
       <c r="G288" t="n">
-        <v>-19385.39302752883</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10109,18 +9401,15 @@
         <v>3480.655</v>
       </c>
       <c r="G289" t="n">
-        <v>-19385.39302752883</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10142,18 +9431,15 @@
         <v>4836.3175</v>
       </c>
       <c r="G290" t="n">
-        <v>-24221.71052752883</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10175,18 +9461,15 @@
         <v>3</v>
       </c>
       <c r="G291" t="n">
-        <v>-24221.71052752883</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10208,18 +9491,15 @@
         <v>625.2894</v>
       </c>
       <c r="G292" t="n">
-        <v>-24846.99992752883</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10241,18 +9521,15 @@
         <v>9026.063599999999</v>
       </c>
       <c r="G293" t="n">
-        <v>-15820.93632752883</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10274,18 +9551,15 @@
         <v>510.9355</v>
       </c>
       <c r="G294" t="n">
-        <v>-16331.87182752883</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10307,18 +9581,15 @@
         <v>240.4342</v>
       </c>
       <c r="G295" t="n">
-        <v>-16572.30602752883</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10340,18 +9611,15 @@
         <v>6986.081766666666</v>
       </c>
       <c r="G296" t="n">
-        <v>-23558.3877941955</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10373,18 +9641,15 @@
         <v>929.4008</v>
       </c>
       <c r="G297" t="n">
-        <v>-23558.3877941955</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10406,18 +9671,15 @@
         <v>761.828</v>
       </c>
       <c r="G298" t="n">
-        <v>-24320.2157941955</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10439,18 +9701,15 @@
         <v>5269.7737</v>
       </c>
       <c r="G299" t="n">
-        <v>-29589.9894941955</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10472,18 +9731,15 @@
         <v>3245.4792</v>
       </c>
       <c r="G300" t="n">
-        <v>-26344.5102941955</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10505,18 +9761,15 @@
         <v>3973.633</v>
       </c>
       <c r="G301" t="n">
-        <v>-30318.1432941955</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10538,18 +9791,15 @@
         <v>49937.6179</v>
       </c>
       <c r="G302" t="n">
-        <v>-80255.7611941955</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10571,18 +9821,15 @@
         <v>1739.4238</v>
       </c>
       <c r="G303" t="n">
-        <v>-81995.1849941955</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -10604,18 +9851,15 @@
         <v>268.3642</v>
       </c>
       <c r="G304" t="n">
-        <v>-82263.5491941955</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -10637,18 +9881,15 @@
         <v>6</v>
       </c>
       <c r="G305" t="n">
-        <v>-82257.5491941955</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -10670,18 +9911,15 @@
         <v>868.8008</v>
       </c>
       <c r="G306" t="n">
-        <v>-81388.7483941955</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -10703,18 +9941,15 @@
         <v>1120.7202</v>
       </c>
       <c r="G307" t="n">
-        <v>-81388.7483941955</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -10736,18 +9971,15 @@
         <v>1580.9374</v>
       </c>
       <c r="G308" t="n">
-        <v>-81388.7483941955</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -10769,18 +10001,15 @@
         <v>13694.4834</v>
       </c>
       <c r="G309" t="n">
-        <v>-81388.7483941955</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -10802,18 +10031,15 @@
         <v>83.85899999999999</v>
       </c>
       <c r="G310" t="n">
-        <v>-81304.8893941955</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -10835,18 +10061,15 @@
         <v>1591.3674</v>
       </c>
       <c r="G311" t="n">
-        <v>-81304.8893941955</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -10868,18 +10091,15 @@
         <v>582.0349</v>
       </c>
       <c r="G312" t="n">
-        <v>-80722.8544941955</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -10901,18 +10121,15 @@
         <v>2.417</v>
       </c>
       <c r="G313" t="n">
-        <v>-80722.8544941955</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -10934,18 +10151,15 @@
         <v>868.8008</v>
       </c>
       <c r="G314" t="n">
-        <v>-81591.6552941955</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>1</v>
+      </c>
+      <c r="L314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -10967,18 +10181,15 @@
         <v>993.9218</v>
       </c>
       <c r="G315" t="n">
-        <v>-80597.73349419551</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -11000,18 +10211,15 @@
         <v>5219.1418</v>
       </c>
       <c r="G316" t="n">
-        <v>-80597.73349419551</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>1</v>
+      </c>
+      <c r="L316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -11033,18 +10241,15 @@
         <v>11.3959</v>
       </c>
       <c r="G317" t="n">
-        <v>-80597.73349419551</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>1</v>
+      </c>
+      <c r="L317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -11066,18 +10271,15 @@
         <v>5449.8911</v>
       </c>
       <c r="G318" t="n">
-        <v>-80597.73349419551</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>1</v>
+      </c>
+      <c r="L318" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
